--- a/AAII_Financials/Yearly/SMFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SMFG_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>SMFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,87 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42825</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42460</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42094</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41729</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41364</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40999</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22624200</v>
+        <v>22819600</v>
       </c>
       <c r="E8" s="3">
-        <v>19687000</v>
+        <v>23121900</v>
       </c>
       <c r="F8" s="3">
-        <v>17380300</v>
+        <v>20120200</v>
       </c>
       <c r="G8" s="3">
-        <v>16983000</v>
+        <v>17762700</v>
       </c>
       <c r="H8" s="3">
-        <v>17197700</v>
+        <v>17356700</v>
       </c>
       <c r="I8" s="3">
-        <v>16407600</v>
+        <v>17576100</v>
       </c>
       <c r="J8" s="3">
+        <v>16768600</v>
+      </c>
+      <c r="K8" s="3">
         <v>15686800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15461400</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -767,9 +773,12 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,9 +806,12 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,9 +887,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,9 +920,12 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -925,15 +947,18 @@
       <c r="I15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3">
         <v>-1185200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-1099400</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11327400</v>
+        <v>11500300</v>
       </c>
       <c r="E17" s="3">
-        <v>7808300</v>
+        <v>11576600</v>
       </c>
       <c r="F17" s="3">
-        <v>6390400</v>
+        <v>7980100</v>
       </c>
       <c r="G17" s="3">
-        <v>4860200</v>
+        <v>6531000</v>
       </c>
       <c r="H17" s="3">
-        <v>3514300</v>
+        <v>4967100</v>
       </c>
       <c r="I17" s="3">
-        <v>2362600</v>
+        <v>3591600</v>
       </c>
       <c r="J17" s="3">
+        <v>2414600</v>
+      </c>
+      <c r="K17" s="3">
         <v>2923100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2835200</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11296800</v>
+        <v>11319300</v>
       </c>
       <c r="E18" s="3">
-        <v>11878800</v>
+        <v>11545400</v>
       </c>
       <c r="F18" s="3">
-        <v>10990000</v>
+        <v>12140100</v>
       </c>
       <c r="G18" s="3">
-        <v>12122800</v>
+        <v>11231800</v>
       </c>
       <c r="H18" s="3">
-        <v>13683400</v>
+        <v>12389600</v>
       </c>
       <c r="I18" s="3">
-        <v>14045000</v>
+        <v>13984400</v>
       </c>
       <c r="J18" s="3">
+        <v>14354100</v>
+      </c>
+      <c r="K18" s="3">
         <v>12763800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>12626200</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,68 +1049,75 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1083500</v>
+        <v>-3063800</v>
       </c>
       <c r="E20" s="3">
-        <v>-1799300</v>
+        <v>-1107300</v>
       </c>
       <c r="F20" s="3">
-        <v>-2088100</v>
+        <v>-1838900</v>
       </c>
       <c r="G20" s="3">
-        <v>-3213100</v>
+        <v>-2134000</v>
       </c>
       <c r="H20" s="3">
-        <v>-1781100</v>
+        <v>-3283800</v>
       </c>
       <c r="I20" s="3">
-        <v>-1112800</v>
+        <v>-1820300</v>
       </c>
       <c r="J20" s="3">
+        <v>-1137200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-4503500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4386900</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>12900100</v>
+        <v>10359600</v>
       </c>
       <c r="E21" s="3">
-        <v>12874000</v>
+        <v>13175000</v>
       </c>
       <c r="F21" s="3">
-        <v>11673700</v>
+        <v>13147900</v>
       </c>
       <c r="G21" s="3">
-        <v>11333200</v>
+        <v>11921300</v>
       </c>
       <c r="H21" s="3">
-        <v>14168000</v>
+        <v>11574400</v>
       </c>
       <c r="I21" s="3">
-        <v>15031700</v>
+        <v>14472200</v>
       </c>
       <c r="J21" s="3">
+        <v>15355400</v>
+      </c>
+      <c r="K21" s="3">
         <v>10302300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9804500</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1106,69 +1145,78 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>10213300</v>
+        <v>8255500</v>
       </c>
       <c r="E23" s="3">
-        <v>10079400</v>
+        <v>10438000</v>
       </c>
       <c r="F23" s="3">
-        <v>8901900</v>
+        <v>10301200</v>
       </c>
       <c r="G23" s="3">
-        <v>8909700</v>
+        <v>9097700</v>
       </c>
       <c r="H23" s="3">
-        <v>11902200</v>
+        <v>9105800</v>
       </c>
       <c r="I23" s="3">
-        <v>12932300</v>
+        <v>12164100</v>
       </c>
       <c r="J23" s="3">
+        <v>13216800</v>
+      </c>
+      <c r="K23" s="3">
         <v>8260200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8239300</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3012600</v>
+        <v>1557800</v>
       </c>
       <c r="E24" s="3">
-        <v>2459100</v>
+        <v>3078900</v>
       </c>
       <c r="F24" s="3">
-        <v>1553900</v>
+        <v>2513200</v>
       </c>
       <c r="G24" s="3">
-        <v>2045700</v>
+        <v>1588100</v>
       </c>
       <c r="H24" s="3">
-        <v>4012000</v>
+        <v>2090700</v>
       </c>
       <c r="I24" s="3">
-        <v>4170500</v>
+        <v>4100300</v>
       </c>
       <c r="J24" s="3">
+        <v>4262300</v>
+      </c>
+      <c r="K24" s="3">
         <v>2319400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4162400</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7200700</v>
+        <v>6697700</v>
       </c>
       <c r="E26" s="3">
-        <v>7620400</v>
+        <v>7359100</v>
       </c>
       <c r="F26" s="3">
-        <v>7347900</v>
+        <v>7788000</v>
       </c>
       <c r="G26" s="3">
-        <v>6864100</v>
+        <v>7509600</v>
       </c>
       <c r="H26" s="3">
-        <v>7890300</v>
+        <v>7015100</v>
       </c>
       <c r="I26" s="3">
-        <v>8761800</v>
+        <v>8063900</v>
       </c>
       <c r="J26" s="3">
+        <v>8954500</v>
+      </c>
+      <c r="K26" s="3">
         <v>5940900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4076900</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6605500</v>
+        <v>6539100</v>
       </c>
       <c r="E27" s="3">
-        <v>6675400</v>
+        <v>6750900</v>
       </c>
       <c r="F27" s="3">
-        <v>6422300</v>
+        <v>6822300</v>
       </c>
       <c r="G27" s="3">
-        <v>5878400</v>
+        <v>6563600</v>
       </c>
       <c r="H27" s="3">
-        <v>6850300</v>
+        <v>6007700</v>
       </c>
       <c r="I27" s="3">
-        <v>7593400</v>
+        <v>7001000</v>
       </c>
       <c r="J27" s="3">
+        <v>7760500</v>
+      </c>
+      <c r="K27" s="3">
         <v>3743300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3058400</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1083500</v>
+        <v>3063800</v>
       </c>
       <c r="E32" s="3">
-        <v>1799300</v>
+        <v>1107300</v>
       </c>
       <c r="F32" s="3">
-        <v>2088100</v>
+        <v>1838900</v>
       </c>
       <c r="G32" s="3">
-        <v>3213100</v>
+        <v>2134000</v>
       </c>
       <c r="H32" s="3">
-        <v>1781100</v>
+        <v>3283800</v>
       </c>
       <c r="I32" s="3">
-        <v>1112800</v>
+        <v>1820300</v>
       </c>
       <c r="J32" s="3">
+        <v>1137200</v>
+      </c>
+      <c r="K32" s="3">
         <v>4503500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4386900</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6605500</v>
+        <v>6539100</v>
       </c>
       <c r="E33" s="3">
-        <v>6675400</v>
+        <v>6750900</v>
       </c>
       <c r="F33" s="3">
-        <v>6422300</v>
+        <v>6822300</v>
       </c>
       <c r="G33" s="3">
-        <v>5878400</v>
+        <v>6563600</v>
       </c>
       <c r="H33" s="3">
-        <v>6850300</v>
+        <v>6007700</v>
       </c>
       <c r="I33" s="3">
-        <v>7593400</v>
+        <v>7001000</v>
       </c>
       <c r="J33" s="3">
+        <v>7760500</v>
+      </c>
+      <c r="K33" s="3">
         <v>3743300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3058400</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6605500</v>
+        <v>6539100</v>
       </c>
       <c r="E35" s="3">
-        <v>6675400</v>
+        <v>6750900</v>
       </c>
       <c r="F35" s="3">
-        <v>6422300</v>
+        <v>6822300</v>
       </c>
       <c r="G35" s="3">
-        <v>5878400</v>
+        <v>6563600</v>
       </c>
       <c r="H35" s="3">
-        <v>6850300</v>
+        <v>6007700</v>
       </c>
       <c r="I35" s="3">
-        <v>7593400</v>
+        <v>7001000</v>
       </c>
       <c r="J35" s="3">
+        <v>7760500</v>
+      </c>
+      <c r="K35" s="3">
         <v>3743300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3058400</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42825</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42460</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42094</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41729</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41364</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40999</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,68 +1645,75 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>521869000</v>
+        <v>573212000</v>
       </c>
       <c r="E41" s="3">
-        <v>488429000</v>
+        <v>532777000</v>
       </c>
       <c r="F41" s="3">
-        <v>426008000</v>
+        <v>498638000</v>
       </c>
       <c r="G41" s="3">
-        <v>388954000</v>
+        <v>434912000</v>
       </c>
       <c r="H41" s="3">
-        <v>361318000</v>
+        <v>397084000</v>
       </c>
       <c r="I41" s="3">
-        <v>299889000</v>
+        <v>368871000</v>
       </c>
       <c r="J41" s="3">
+        <v>306158000</v>
+      </c>
+      <c r="K41" s="3">
         <v>217778000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>84465200</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>223935000</v>
+        <v>265776000</v>
       </c>
       <c r="E42" s="3">
-        <v>213888000</v>
+        <v>228616000</v>
       </c>
       <c r="F42" s="3">
-        <v>222088000</v>
+        <v>218359000</v>
       </c>
       <c r="G42" s="3">
-        <v>215885000</v>
+        <v>226730000</v>
       </c>
       <c r="H42" s="3">
-        <v>202056000</v>
+        <v>220397000</v>
       </c>
       <c r="I42" s="3">
-        <v>162273000</v>
+        <v>206280000</v>
       </c>
       <c r="J42" s="3">
+        <v>165665000</v>
+      </c>
+      <c r="K42" s="3">
         <v>183032000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>39736300</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1649,9 +1741,12 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1679,9 +1774,12 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1709,9 +1807,12 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1739,99 +1840,111 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>8870500</v>
+      <c r="D47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E47" s="3">
-        <v>6209800</v>
+        <v>9055900</v>
       </c>
       <c r="F47" s="3">
-        <v>5495300</v>
+        <v>6339600</v>
       </c>
       <c r="G47" s="3">
-        <v>5548700</v>
+        <v>5610200</v>
       </c>
       <c r="H47" s="3">
-        <v>5306000</v>
+        <v>5664700</v>
       </c>
       <c r="I47" s="3">
-        <v>3384900</v>
+        <v>5416900</v>
       </c>
       <c r="J47" s="3">
+        <v>3455600</v>
+      </c>
+      <c r="K47" s="3">
         <v>4711900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1868200</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13677800</v>
+        <v>13459000</v>
       </c>
       <c r="E48" s="3">
-        <v>31588900</v>
+        <v>13963600</v>
       </c>
       <c r="F48" s="3">
-        <v>28193900</v>
+        <v>32249200</v>
       </c>
       <c r="G48" s="3">
-        <v>26537600</v>
+        <v>28783200</v>
       </c>
       <c r="H48" s="3">
-        <v>25187100</v>
+        <v>27092300</v>
       </c>
       <c r="I48" s="3">
-        <v>21332300</v>
+        <v>25713500</v>
       </c>
       <c r="J48" s="3">
+        <v>21778200</v>
+      </c>
+      <c r="K48" s="3">
         <v>36213000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20247600</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6992300</v>
+        <v>6993200</v>
       </c>
       <c r="E49" s="3">
-        <v>7868200</v>
+        <v>7138500</v>
       </c>
       <c r="F49" s="3">
-        <v>8603700</v>
+        <v>8032600</v>
       </c>
       <c r="G49" s="3">
-        <v>7983400</v>
+        <v>8783600</v>
       </c>
       <c r="H49" s="3">
-        <v>7449800</v>
+        <v>8150300</v>
       </c>
       <c r="I49" s="3">
-        <v>7452800</v>
+        <v>7605500</v>
       </c>
       <c r="J49" s="3">
+        <v>7608600</v>
+      </c>
+      <c r="K49" s="3">
         <v>15399600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>16256900</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3360400</v>
+        <v>2383900</v>
       </c>
       <c r="E52" s="3">
-        <v>3736200</v>
+        <v>3430600</v>
       </c>
       <c r="F52" s="3">
-        <v>3435300</v>
+        <v>3814300</v>
       </c>
       <c r="G52" s="3">
-        <v>2991600</v>
+        <v>3507100</v>
       </c>
       <c r="H52" s="3">
-        <v>4582200</v>
+        <v>3054100</v>
       </c>
       <c r="I52" s="3">
-        <v>2664400</v>
+        <v>4678000</v>
       </c>
       <c r="J52" s="3">
+        <v>2720100</v>
+      </c>
+      <c r="K52" s="3">
         <v>7796700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8355100</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1851260000</v>
+        <v>2040330000</v>
       </c>
       <c r="E54" s="3">
-        <v>1809360000</v>
+        <v>1889960000</v>
       </c>
       <c r="F54" s="3">
-        <v>1797930000</v>
+        <v>1847180000</v>
       </c>
       <c r="G54" s="3">
-        <v>1696070000</v>
+        <v>1835510000</v>
       </c>
       <c r="H54" s="3">
-        <v>1667490000</v>
+        <v>1731520000</v>
       </c>
       <c r="I54" s="3">
-        <v>1468350000</v>
+        <v>1702350000</v>
       </c>
       <c r="J54" s="3">
+        <v>1499040000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1343090000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1281880000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,8 +2137,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2037,9 +2167,12 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2067,39 +2200,45 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>667600</v>
+        <v>716700</v>
       </c>
       <c r="E59" s="3">
-        <v>799100</v>
+        <v>681500</v>
       </c>
       <c r="F59" s="3">
-        <v>731000</v>
+        <v>815800</v>
       </c>
       <c r="G59" s="3">
-        <v>644700</v>
+        <v>746300</v>
       </c>
       <c r="H59" s="3">
-        <v>697200</v>
+        <v>658200</v>
       </c>
       <c r="I59" s="3">
-        <v>675800</v>
+        <v>711800</v>
       </c>
       <c r="J59" s="3">
+        <v>689900</v>
+      </c>
+      <c r="K59" s="3">
         <v>4547000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2359800</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2127,69 +2266,78 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>180748000</v>
+        <v>226864000</v>
       </c>
       <c r="E61" s="3">
-        <v>180772000</v>
+        <v>184526000</v>
       </c>
       <c r="F61" s="3">
-        <v>171946000</v>
+        <v>184551000</v>
       </c>
       <c r="G61" s="3">
-        <v>142561000</v>
+        <v>175540000</v>
       </c>
       <c r="H61" s="3">
-        <v>146375000</v>
+        <v>145541000</v>
       </c>
       <c r="I61" s="3">
-        <v>110096000</v>
+        <v>149435000</v>
       </c>
       <c r="J61" s="3">
+        <v>112397000</v>
+      </c>
+      <c r="K61" s="3">
         <v>58862700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>94132200</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5672100</v>
+        <v>4657100</v>
       </c>
       <c r="E62" s="3">
-        <v>6498900</v>
+        <v>5790700</v>
       </c>
       <c r="F62" s="3">
-        <v>5678400</v>
+        <v>6634700</v>
       </c>
       <c r="G62" s="3">
-        <v>6345600</v>
+        <v>5797100</v>
       </c>
       <c r="H62" s="3">
-        <v>8035600</v>
+        <v>6478300</v>
       </c>
       <c r="I62" s="3">
-        <v>3774400</v>
+        <v>8203600</v>
       </c>
       <c r="J62" s="3">
+        <v>3853300</v>
+      </c>
+      <c r="K62" s="3">
         <v>6030000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1152100</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1753330000</v>
+        <v>1940830000</v>
       </c>
       <c r="E66" s="3">
-        <v>1714880000</v>
+        <v>1789980000</v>
       </c>
       <c r="F66" s="3">
-        <v>1709430000</v>
+        <v>1750730000</v>
       </c>
       <c r="G66" s="3">
-        <v>1615010000</v>
+        <v>1745170000</v>
       </c>
       <c r="H66" s="3">
-        <v>1585460000</v>
+        <v>1648770000</v>
       </c>
       <c r="I66" s="3">
-        <v>1402160000</v>
+        <v>1618600000</v>
       </c>
       <c r="J66" s="3">
+        <v>1431470000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1284350000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1233310000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>54512700</v>
+        <v>58820100</v>
       </c>
       <c r="E72" s="3">
-        <v>50498500</v>
+        <v>55652100</v>
       </c>
       <c r="F72" s="3">
-        <v>45815800</v>
+        <v>51554100</v>
       </c>
       <c r="G72" s="3">
-        <v>41244600</v>
+        <v>46773400</v>
       </c>
       <c r="H72" s="3">
-        <v>37275400</v>
+        <v>42106700</v>
       </c>
       <c r="I72" s="3">
-        <v>31650300</v>
+        <v>38054600</v>
       </c>
       <c r="J72" s="3">
+        <v>32311800</v>
+      </c>
+      <c r="K72" s="3">
         <v>57285400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>21765900</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>97927200</v>
+        <v>99500500</v>
       </c>
       <c r="E76" s="3">
-        <v>94475000</v>
+        <v>99974100</v>
       </c>
       <c r="F76" s="3">
-        <v>88491300</v>
+        <v>96449700</v>
       </c>
       <c r="G76" s="3">
-        <v>81052300</v>
+        <v>90341000</v>
       </c>
       <c r="H76" s="3">
-        <v>82033000</v>
+        <v>82746500</v>
       </c>
       <c r="I76" s="3">
-        <v>66184100</v>
+        <v>83747700</v>
       </c>
       <c r="J76" s="3">
+        <v>67567500</v>
+      </c>
+      <c r="K76" s="3">
         <v>58740700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>48567700</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42825</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42460</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42094</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41729</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41364</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40999</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6605500</v>
+        <v>6539100</v>
       </c>
       <c r="E81" s="3">
-        <v>6675400</v>
+        <v>6750900</v>
       </c>
       <c r="F81" s="3">
-        <v>6422300</v>
+        <v>6822300</v>
       </c>
       <c r="G81" s="3">
-        <v>5878400</v>
+        <v>6563600</v>
       </c>
       <c r="H81" s="3">
-        <v>6850300</v>
+        <v>6007700</v>
       </c>
       <c r="I81" s="3">
-        <v>7593400</v>
+        <v>7001000</v>
       </c>
       <c r="J81" s="3">
+        <v>7760500</v>
+      </c>
+      <c r="K81" s="3">
         <v>3743300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3058400</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2680900</v>
+        <v>2106300</v>
       </c>
       <c r="E83" s="3">
-        <v>2788400</v>
+        <v>2739900</v>
       </c>
       <c r="F83" s="3">
-        <v>2765700</v>
+        <v>2849800</v>
       </c>
       <c r="G83" s="3">
-        <v>2418100</v>
+        <v>2826600</v>
       </c>
       <c r="H83" s="3">
-        <v>2260800</v>
+        <v>2471300</v>
       </c>
       <c r="I83" s="3">
-        <v>2094800</v>
+        <v>2310600</v>
       </c>
       <c r="J83" s="3">
+        <v>2140900</v>
+      </c>
+      <c r="K83" s="3">
         <v>2037600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1563500</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>41793600</v>
+        <v>65843200</v>
       </c>
       <c r="E89" s="3">
-        <v>84940300</v>
+        <v>42713200</v>
       </c>
       <c r="F89" s="3">
-        <v>41062400</v>
+        <v>86809100</v>
       </c>
       <c r="G89" s="3">
-        <v>-10246700</v>
+        <v>41965900</v>
       </c>
       <c r="H89" s="3">
-        <v>74425200</v>
+        <v>-10472100</v>
       </c>
       <c r="I89" s="3">
-        <v>75481100</v>
+        <v>76062700</v>
       </c>
       <c r="J89" s="3">
+        <v>77141900</v>
+      </c>
+      <c r="K89" s="3">
         <v>21574500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11941900</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4637800</v>
+        <v>-957400</v>
       </c>
       <c r="E91" s="3">
-        <v>-6477200</v>
+        <v>-4739900</v>
       </c>
       <c r="F91" s="3">
-        <v>-4507000</v>
+        <v>-6619700</v>
       </c>
       <c r="G91" s="3">
-        <v>-4811000</v>
+        <v>-4606200</v>
       </c>
       <c r="H91" s="3">
-        <v>-5262800</v>
+        <v>-4916900</v>
       </c>
       <c r="I91" s="3">
-        <v>-4228200</v>
+        <v>-5378600</v>
       </c>
       <c r="J91" s="3">
+        <v>-4321200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5273500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1175100</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>9146900</v>
+        <v>-27978300</v>
       </c>
       <c r="E94" s="3">
-        <v>-30863300</v>
+        <v>9348200</v>
       </c>
       <c r="F94" s="3">
-        <v>5284400</v>
+        <v>-31542300</v>
       </c>
       <c r="G94" s="3">
-        <v>47640200</v>
+        <v>5400700</v>
       </c>
       <c r="H94" s="3">
-        <v>-13245800</v>
+        <v>48688400</v>
       </c>
       <c r="I94" s="3">
-        <v>131991600</v>
+        <v>-13537300</v>
       </c>
       <c r="J94" s="3">
+        <v>134895700</v>
+      </c>
+      <c r="K94" s="3">
         <v>12797800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-22347400</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2232400</v>
+        <v>-2376100</v>
       </c>
       <c r="E96" s="3">
-        <v>-1986800</v>
+        <v>-2281600</v>
       </c>
       <c r="F96" s="3">
-        <v>-1864200</v>
+        <v>-2030500</v>
       </c>
       <c r="G96" s="3">
-        <v>-1926600</v>
+        <v>-1905200</v>
       </c>
       <c r="H96" s="3">
-        <v>-1553600</v>
+        <v>-1969000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1545100</v>
+        <v>-1587800</v>
       </c>
       <c r="J96" s="3">
+        <v>-1579100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2458000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1283000</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5752300</v>
+        <v>-9518100</v>
       </c>
       <c r="E100" s="3">
-        <v>-3185800</v>
+        <v>-5878900</v>
       </c>
       <c r="F100" s="3">
-        <v>-1513700</v>
+        <v>-3255800</v>
       </c>
       <c r="G100" s="3">
-        <v>-509000</v>
+        <v>-1547000</v>
       </c>
       <c r="H100" s="3">
-        <v>-2750500</v>
+        <v>-520200</v>
       </c>
       <c r="I100" s="3">
-        <v>-9442800</v>
+        <v>-2811100</v>
       </c>
       <c r="J100" s="3">
+        <v>-9650600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-6725300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2759000</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1514800</v>
+        <v>-691900</v>
       </c>
       <c r="E101" s="3">
-        <v>-853300</v>
+        <v>1548100</v>
       </c>
       <c r="F101" s="3">
-        <v>-95900</v>
+        <v>-872100</v>
       </c>
       <c r="G101" s="3">
-        <v>-905200</v>
+        <v>-98100</v>
       </c>
       <c r="H101" s="3">
-        <v>1615300</v>
+        <v>-925100</v>
       </c>
       <c r="I101" s="3">
-        <v>50700</v>
+        <v>1650900</v>
       </c>
       <c r="J101" s="3">
+        <v>51900</v>
+      </c>
+      <c r="K101" s="3">
         <v>5676200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-557600</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>46703000</v>
+        <v>27654900</v>
       </c>
       <c r="E102" s="3">
-        <v>50037900</v>
+        <v>47730600</v>
       </c>
       <c r="F102" s="3">
-        <v>44737200</v>
+        <v>51138900</v>
       </c>
       <c r="G102" s="3">
-        <v>35979400</v>
+        <v>45721500</v>
       </c>
       <c r="H102" s="3">
-        <v>60044200</v>
+        <v>36771000</v>
       </c>
       <c r="I102" s="3">
-        <v>198080600</v>
+        <v>61365300</v>
       </c>
       <c r="J102" s="3">
+        <v>202438800</v>
+      </c>
+      <c r="K102" s="3">
         <v>33323200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-13722100</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SMFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SMFG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>SMFG</t>
   </si>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22819600</v>
+        <v>23188100</v>
       </c>
       <c r="E8" s="3">
-        <v>23121900</v>
+        <v>23495300</v>
       </c>
       <c r="F8" s="3">
-        <v>20120200</v>
+        <v>20445100</v>
       </c>
       <c r="G8" s="3">
-        <v>17762700</v>
+        <v>18049600</v>
       </c>
       <c r="H8" s="3">
-        <v>17356700</v>
+        <v>17636900</v>
       </c>
       <c r="I8" s="3">
-        <v>17576100</v>
+        <v>17859900</v>
       </c>
       <c r="J8" s="3">
-        <v>16768600</v>
+        <v>17039400</v>
       </c>
       <c r="K8" s="3">
         <v>15686800</v>
@@ -929,8 +929,8 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
+      <c r="D15" s="3">
+        <v>-1706400</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>5</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11500300</v>
+        <v>12680100</v>
       </c>
       <c r="E17" s="3">
-        <v>11576600</v>
+        <v>11763500</v>
       </c>
       <c r="F17" s="3">
-        <v>7980100</v>
+        <v>8108900</v>
       </c>
       <c r="G17" s="3">
-        <v>6531000</v>
+        <v>6636400</v>
       </c>
       <c r="H17" s="3">
-        <v>4967100</v>
+        <v>5047300</v>
       </c>
       <c r="I17" s="3">
-        <v>3591600</v>
+        <v>3649600</v>
       </c>
       <c r="J17" s="3">
-        <v>2414600</v>
+        <v>2453600</v>
       </c>
       <c r="K17" s="3">
         <v>2923100</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11319300</v>
+        <v>10508000</v>
       </c>
       <c r="E18" s="3">
-        <v>11545400</v>
+        <v>11731800</v>
       </c>
       <c r="F18" s="3">
-        <v>12140100</v>
+        <v>12336200</v>
       </c>
       <c r="G18" s="3">
-        <v>11231800</v>
+        <v>11413100</v>
       </c>
       <c r="H18" s="3">
-        <v>12389600</v>
+        <v>12589600</v>
       </c>
       <c r="I18" s="3">
-        <v>13984400</v>
+        <v>14210200</v>
       </c>
       <c r="J18" s="3">
-        <v>14354100</v>
+        <v>14585800</v>
       </c>
       <c r="K18" s="3">
         <v>12763800</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3063800</v>
+        <v>-2119200</v>
       </c>
       <c r="E20" s="3">
-        <v>-1107300</v>
+        <v>-1125200</v>
       </c>
       <c r="F20" s="3">
-        <v>-1838900</v>
+        <v>-1868600</v>
       </c>
       <c r="G20" s="3">
-        <v>-2134000</v>
+        <v>-2168500</v>
       </c>
       <c r="H20" s="3">
-        <v>-3283800</v>
+        <v>-3336800</v>
       </c>
       <c r="I20" s="3">
-        <v>-1820300</v>
+        <v>-1849700</v>
       </c>
       <c r="J20" s="3">
-        <v>-1137200</v>
+        <v>-1155600</v>
       </c>
       <c r="K20" s="3">
         <v>-4503500</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>10359600</v>
+        <v>10520100</v>
       </c>
       <c r="E21" s="3">
-        <v>13175000</v>
+        <v>13378900</v>
       </c>
       <c r="F21" s="3">
-        <v>13147900</v>
+        <v>13351100</v>
       </c>
       <c r="G21" s="3">
-        <v>11921300</v>
+        <v>12104700</v>
       </c>
       <c r="H21" s="3">
-        <v>11574400</v>
+        <v>11753400</v>
       </c>
       <c r="I21" s="3">
-        <v>14472200</v>
+        <v>14698400</v>
       </c>
       <c r="J21" s="3">
-        <v>15355400</v>
+        <v>15596500</v>
       </c>
       <c r="K21" s="3">
         <v>10302300</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8255500</v>
+        <v>8388800</v>
       </c>
       <c r="E23" s="3">
-        <v>10438000</v>
+        <v>10606600</v>
       </c>
       <c r="F23" s="3">
-        <v>10301200</v>
+        <v>10467500</v>
       </c>
       <c r="G23" s="3">
-        <v>9097700</v>
+        <v>9244600</v>
       </c>
       <c r="H23" s="3">
-        <v>9105800</v>
+        <v>9252800</v>
       </c>
       <c r="I23" s="3">
-        <v>12164100</v>
+        <v>12360500</v>
       </c>
       <c r="J23" s="3">
-        <v>13216800</v>
+        <v>13430200</v>
       </c>
       <c r="K23" s="3">
         <v>8260200</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1557800</v>
+        <v>1582900</v>
       </c>
       <c r="E24" s="3">
-        <v>3078900</v>
+        <v>3128600</v>
       </c>
       <c r="F24" s="3">
-        <v>2513200</v>
+        <v>2553700</v>
       </c>
       <c r="G24" s="3">
-        <v>1588100</v>
+        <v>1613800</v>
       </c>
       <c r="H24" s="3">
-        <v>2090700</v>
+        <v>2124400</v>
       </c>
       <c r="I24" s="3">
-        <v>4100300</v>
+        <v>4166500</v>
       </c>
       <c r="J24" s="3">
-        <v>4262300</v>
+        <v>4331100</v>
       </c>
       <c r="K24" s="3">
         <v>2319400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6697700</v>
+        <v>6805900</v>
       </c>
       <c r="E26" s="3">
-        <v>7359100</v>
+        <v>7477900</v>
       </c>
       <c r="F26" s="3">
-        <v>7788000</v>
+        <v>7913800</v>
       </c>
       <c r="G26" s="3">
-        <v>7509600</v>
+        <v>7630900</v>
       </c>
       <c r="H26" s="3">
-        <v>7015100</v>
+        <v>7128400</v>
       </c>
       <c r="I26" s="3">
-        <v>8063900</v>
+        <v>8194100</v>
       </c>
       <c r="J26" s="3">
-        <v>8954500</v>
+        <v>9099100</v>
       </c>
       <c r="K26" s="3">
         <v>5940900</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6539100</v>
+        <v>6644700</v>
       </c>
       <c r="E27" s="3">
-        <v>6750900</v>
+        <v>6859900</v>
       </c>
       <c r="F27" s="3">
-        <v>6822300</v>
+        <v>6932400</v>
       </c>
       <c r="G27" s="3">
-        <v>6563600</v>
+        <v>6669500</v>
       </c>
       <c r="H27" s="3">
-        <v>6007700</v>
+        <v>6104700</v>
       </c>
       <c r="I27" s="3">
-        <v>7001000</v>
+        <v>7114100</v>
       </c>
       <c r="J27" s="3">
-        <v>7760500</v>
+        <v>7885800</v>
       </c>
       <c r="K27" s="3">
         <v>3743300</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3063800</v>
+        <v>2119200</v>
       </c>
       <c r="E32" s="3">
-        <v>1107300</v>
+        <v>1125200</v>
       </c>
       <c r="F32" s="3">
-        <v>1838900</v>
+        <v>1868600</v>
       </c>
       <c r="G32" s="3">
-        <v>2134000</v>
+        <v>2168500</v>
       </c>
       <c r="H32" s="3">
-        <v>3283800</v>
+        <v>3336800</v>
       </c>
       <c r="I32" s="3">
-        <v>1820300</v>
+        <v>1849700</v>
       </c>
       <c r="J32" s="3">
-        <v>1137200</v>
+        <v>1155600</v>
       </c>
       <c r="K32" s="3">
         <v>4503500</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6539100</v>
+        <v>6644700</v>
       </c>
       <c r="E33" s="3">
-        <v>6750900</v>
+        <v>6859900</v>
       </c>
       <c r="F33" s="3">
-        <v>6822300</v>
+        <v>6932400</v>
       </c>
       <c r="G33" s="3">
-        <v>6563600</v>
+        <v>6669500</v>
       </c>
       <c r="H33" s="3">
-        <v>6007700</v>
+        <v>6104700</v>
       </c>
       <c r="I33" s="3">
-        <v>7001000</v>
+        <v>7114100</v>
       </c>
       <c r="J33" s="3">
-        <v>7760500</v>
+        <v>7885800</v>
       </c>
       <c r="K33" s="3">
         <v>3743300</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6539100</v>
+        <v>6644700</v>
       </c>
       <c r="E35" s="3">
-        <v>6750900</v>
+        <v>6859900</v>
       </c>
       <c r="F35" s="3">
-        <v>6822300</v>
+        <v>6932400</v>
       </c>
       <c r="G35" s="3">
-        <v>6563600</v>
+        <v>6669500</v>
       </c>
       <c r="H35" s="3">
-        <v>6007700</v>
+        <v>6104700</v>
       </c>
       <c r="I35" s="3">
-        <v>7001000</v>
+        <v>7114100</v>
       </c>
       <c r="J35" s="3">
-        <v>7760500</v>
+        <v>7885800</v>
       </c>
       <c r="K35" s="3">
         <v>3743300</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>573212000</v>
+        <v>583095000</v>
       </c>
       <c r="E41" s="3">
-        <v>532777000</v>
+        <v>541962000</v>
       </c>
       <c r="F41" s="3">
-        <v>498638000</v>
+        <v>507236000</v>
       </c>
       <c r="G41" s="3">
-        <v>434912000</v>
+        <v>442411000</v>
       </c>
       <c r="H41" s="3">
-        <v>397084000</v>
+        <v>403930000</v>
       </c>
       <c r="I41" s="3">
-        <v>368871000</v>
+        <v>375230000</v>
       </c>
       <c r="J41" s="3">
-        <v>306158000</v>
+        <v>311436000</v>
       </c>
       <c r="K41" s="3">
         <v>217778000</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>265776000</v>
+        <v>270358000</v>
       </c>
       <c r="E42" s="3">
-        <v>228616000</v>
+        <v>232558000</v>
       </c>
       <c r="F42" s="3">
-        <v>218359000</v>
+        <v>222123000</v>
       </c>
       <c r="G42" s="3">
-        <v>226730000</v>
+        <v>230639000</v>
       </c>
       <c r="H42" s="3">
-        <v>220397000</v>
+        <v>224197000</v>
       </c>
       <c r="I42" s="3">
-        <v>206280000</v>
+        <v>209836000</v>
       </c>
       <c r="J42" s="3">
-        <v>165665000</v>
+        <v>168521000</v>
       </c>
       <c r="K42" s="3">
         <v>183032000</v>
@@ -1849,26 +1849,26 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
+      <c r="D47" s="3">
+        <v>8917400</v>
       </c>
       <c r="E47" s="3">
-        <v>9055900</v>
+        <v>9212000</v>
       </c>
       <c r="F47" s="3">
-        <v>6339600</v>
+        <v>6448900</v>
       </c>
       <c r="G47" s="3">
-        <v>5610200</v>
+        <v>5706900</v>
       </c>
       <c r="H47" s="3">
-        <v>5664700</v>
+        <v>5762400</v>
       </c>
       <c r="I47" s="3">
-        <v>5416900</v>
+        <v>5510300</v>
       </c>
       <c r="J47" s="3">
-        <v>3455600</v>
+        <v>3515200</v>
       </c>
       <c r="K47" s="3">
         <v>4711900</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13459000</v>
+        <v>13691000</v>
       </c>
       <c r="E48" s="3">
-        <v>13963600</v>
+        <v>14204400</v>
       </c>
       <c r="F48" s="3">
-        <v>32249200</v>
+        <v>32805200</v>
       </c>
       <c r="G48" s="3">
-        <v>28783200</v>
+        <v>29279500</v>
       </c>
       <c r="H48" s="3">
-        <v>27092300</v>
+        <v>27559400</v>
       </c>
       <c r="I48" s="3">
-        <v>25713500</v>
+        <v>26156900</v>
       </c>
       <c r="J48" s="3">
-        <v>21778200</v>
+        <v>22153700</v>
       </c>
       <c r="K48" s="3">
         <v>36213000</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6993200</v>
+        <v>7113800</v>
       </c>
       <c r="E49" s="3">
-        <v>7138500</v>
+        <v>7261500</v>
       </c>
       <c r="F49" s="3">
-        <v>8032600</v>
+        <v>8171100</v>
       </c>
       <c r="G49" s="3">
-        <v>8783600</v>
+        <v>8935000</v>
       </c>
       <c r="H49" s="3">
-        <v>8150300</v>
+        <v>8290800</v>
       </c>
       <c r="I49" s="3">
-        <v>7605500</v>
+        <v>7736600</v>
       </c>
       <c r="J49" s="3">
-        <v>7608600</v>
+        <v>7739800</v>
       </c>
       <c r="K49" s="3">
         <v>15399600</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2383900</v>
+        <v>2425000</v>
       </c>
       <c r="E52" s="3">
-        <v>3430600</v>
+        <v>3489800</v>
       </c>
       <c r="F52" s="3">
-        <v>3814300</v>
+        <v>3880100</v>
       </c>
       <c r="G52" s="3">
-        <v>3507100</v>
+        <v>3567600</v>
       </c>
       <c r="H52" s="3">
-        <v>3054100</v>
+        <v>3106800</v>
       </c>
       <c r="I52" s="3">
-        <v>4678000</v>
+        <v>4758700</v>
       </c>
       <c r="J52" s="3">
-        <v>2720100</v>
+        <v>2767000</v>
       </c>
       <c r="K52" s="3">
         <v>7796700</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2040330000</v>
+        <v>2075510000</v>
       </c>
       <c r="E54" s="3">
-        <v>1889960000</v>
+        <v>1922540000</v>
       </c>
       <c r="F54" s="3">
-        <v>1847180000</v>
+        <v>1879020000</v>
       </c>
       <c r="G54" s="3">
-        <v>1835510000</v>
+        <v>1867150000</v>
       </c>
       <c r="H54" s="3">
-        <v>1731520000</v>
+        <v>1761370000</v>
       </c>
       <c r="I54" s="3">
-        <v>1702350000</v>
+        <v>1731700000</v>
       </c>
       <c r="J54" s="3">
-        <v>1499040000</v>
+        <v>1524880000</v>
       </c>
       <c r="K54" s="3">
         <v>1343090000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>716700</v>
+        <v>729100</v>
       </c>
       <c r="E59" s="3">
-        <v>681500</v>
+        <v>693300</v>
       </c>
       <c r="F59" s="3">
-        <v>815800</v>
+        <v>829800</v>
       </c>
       <c r="G59" s="3">
-        <v>746300</v>
+        <v>759200</v>
       </c>
       <c r="H59" s="3">
-        <v>658200</v>
+        <v>669500</v>
       </c>
       <c r="I59" s="3">
-        <v>711800</v>
+        <v>724100</v>
       </c>
       <c r="J59" s="3">
-        <v>689900</v>
+        <v>701800</v>
       </c>
       <c r="K59" s="3">
         <v>4547000</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>226864000</v>
+        <v>230775000</v>
       </c>
       <c r="E61" s="3">
-        <v>184526000</v>
+        <v>187708000</v>
       </c>
       <c r="F61" s="3">
-        <v>184551000</v>
+        <v>187733000</v>
       </c>
       <c r="G61" s="3">
-        <v>175540000</v>
+        <v>178567000</v>
       </c>
       <c r="H61" s="3">
-        <v>145541000</v>
+        <v>148050000</v>
       </c>
       <c r="I61" s="3">
-        <v>149435000</v>
+        <v>152011000</v>
       </c>
       <c r="J61" s="3">
-        <v>112397000</v>
+        <v>114335000</v>
       </c>
       <c r="K61" s="3">
         <v>58862700</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4657100</v>
+        <v>4737400</v>
       </c>
       <c r="E62" s="3">
-        <v>5790700</v>
+        <v>5890500</v>
       </c>
       <c r="F62" s="3">
-        <v>6634700</v>
+        <v>6749100</v>
       </c>
       <c r="G62" s="3">
-        <v>5797100</v>
+        <v>5897100</v>
       </c>
       <c r="H62" s="3">
-        <v>6478300</v>
+        <v>6590000</v>
       </c>
       <c r="I62" s="3">
-        <v>8203600</v>
+        <v>8345000</v>
       </c>
       <c r="J62" s="3">
-        <v>3853300</v>
+        <v>3919700</v>
       </c>
       <c r="K62" s="3">
         <v>6030000</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1940830000</v>
+        <v>1974300000</v>
       </c>
       <c r="E66" s="3">
-        <v>1789980000</v>
+        <v>1820840000</v>
       </c>
       <c r="F66" s="3">
-        <v>1750730000</v>
+        <v>1780910000</v>
       </c>
       <c r="G66" s="3">
-        <v>1745170000</v>
+        <v>1775250000</v>
       </c>
       <c r="H66" s="3">
-        <v>1648770000</v>
+        <v>1677200000</v>
       </c>
       <c r="I66" s="3">
-        <v>1618600000</v>
+        <v>1646510000</v>
       </c>
       <c r="J66" s="3">
-        <v>1431470000</v>
+        <v>1456150000</v>
       </c>
       <c r="K66" s="3">
         <v>1284350000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>58820100</v>
+        <v>59834300</v>
       </c>
       <c r="E72" s="3">
-        <v>55652100</v>
+        <v>56611700</v>
       </c>
       <c r="F72" s="3">
-        <v>51554100</v>
+        <v>52442900</v>
       </c>
       <c r="G72" s="3">
-        <v>46773400</v>
+        <v>47579800</v>
       </c>
       <c r="H72" s="3">
-        <v>42106700</v>
+        <v>42832600</v>
       </c>
       <c r="I72" s="3">
-        <v>38054600</v>
+        <v>38710700</v>
       </c>
       <c r="J72" s="3">
-        <v>32311800</v>
+        <v>32868900</v>
       </c>
       <c r="K72" s="3">
         <v>57285400</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>99500500</v>
+        <v>101216000</v>
       </c>
       <c r="E76" s="3">
-        <v>99974100</v>
+        <v>101698000</v>
       </c>
       <c r="F76" s="3">
-        <v>96449700</v>
+        <v>98112600</v>
       </c>
       <c r="G76" s="3">
-        <v>90341000</v>
+        <v>91898600</v>
       </c>
       <c r="H76" s="3">
-        <v>82746500</v>
+        <v>84173100</v>
       </c>
       <c r="I76" s="3">
-        <v>83747700</v>
+        <v>85191600</v>
       </c>
       <c r="J76" s="3">
-        <v>67567500</v>
+        <v>68732400</v>
       </c>
       <c r="K76" s="3">
         <v>58740700</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6539100</v>
+        <v>6644700</v>
       </c>
       <c r="E81" s="3">
-        <v>6750900</v>
+        <v>6859900</v>
       </c>
       <c r="F81" s="3">
-        <v>6822300</v>
+        <v>6932400</v>
       </c>
       <c r="G81" s="3">
-        <v>6563600</v>
+        <v>6669500</v>
       </c>
       <c r="H81" s="3">
-        <v>6007700</v>
+        <v>6104700</v>
       </c>
       <c r="I81" s="3">
-        <v>7001000</v>
+        <v>7114100</v>
       </c>
       <c r="J81" s="3">
-        <v>7760500</v>
+        <v>7885800</v>
       </c>
       <c r="K81" s="3">
         <v>3743300</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2106300</v>
+        <v>2140300</v>
       </c>
       <c r="E83" s="3">
-        <v>2739900</v>
+        <v>2784100</v>
       </c>
       <c r="F83" s="3">
-        <v>2849800</v>
+        <v>2895800</v>
       </c>
       <c r="G83" s="3">
-        <v>2826600</v>
+        <v>2872200</v>
       </c>
       <c r="H83" s="3">
-        <v>2471300</v>
+        <v>2511200</v>
       </c>
       <c r="I83" s="3">
-        <v>2310600</v>
+        <v>2347900</v>
       </c>
       <c r="J83" s="3">
-        <v>2140900</v>
+        <v>2175500</v>
       </c>
       <c r="K83" s="3">
         <v>2037600</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>65843200</v>
+        <v>66906400</v>
       </c>
       <c r="E89" s="3">
-        <v>42713200</v>
+        <v>43402900</v>
       </c>
       <c r="F89" s="3">
-        <v>86809100</v>
+        <v>88210800</v>
       </c>
       <c r="G89" s="3">
-        <v>41965900</v>
+        <v>42643500</v>
       </c>
       <c r="H89" s="3">
-        <v>-10472100</v>
+        <v>-10641200</v>
       </c>
       <c r="I89" s="3">
-        <v>76062700</v>
+        <v>77290800</v>
       </c>
       <c r="J89" s="3">
-        <v>77141900</v>
+        <v>78387400</v>
       </c>
       <c r="K89" s="3">
         <v>21574500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-957400</v>
+        <v>-972800</v>
       </c>
       <c r="E91" s="3">
-        <v>-4739900</v>
+        <v>-4816400</v>
       </c>
       <c r="F91" s="3">
-        <v>-6619700</v>
+        <v>-6726600</v>
       </c>
       <c r="G91" s="3">
-        <v>-4606200</v>
+        <v>-4680600</v>
       </c>
       <c r="H91" s="3">
-        <v>-4916900</v>
+        <v>-4996300</v>
       </c>
       <c r="I91" s="3">
-        <v>-5378600</v>
+        <v>-5465500</v>
       </c>
       <c r="J91" s="3">
-        <v>-4321200</v>
+        <v>-4391000</v>
       </c>
       <c r="K91" s="3">
         <v>-5273500</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-27978300</v>
+        <v>-28430100</v>
       </c>
       <c r="E94" s="3">
-        <v>9348200</v>
+        <v>9499100</v>
       </c>
       <c r="F94" s="3">
-        <v>-31542300</v>
+        <v>-32051600</v>
       </c>
       <c r="G94" s="3">
-        <v>5400700</v>
+        <v>5487900</v>
       </c>
       <c r="H94" s="3">
-        <v>48688400</v>
+        <v>49474600</v>
       </c>
       <c r="I94" s="3">
-        <v>-13537300</v>
+        <v>-13755900</v>
       </c>
       <c r="J94" s="3">
-        <v>134895700</v>
+        <v>137073700</v>
       </c>
       <c r="K94" s="3">
         <v>12797800</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2376100</v>
+        <v>-2414500</v>
       </c>
       <c r="E96" s="3">
-        <v>-2281600</v>
+        <v>-2318400</v>
       </c>
       <c r="F96" s="3">
-        <v>-2030500</v>
+        <v>-2063300</v>
       </c>
       <c r="G96" s="3">
-        <v>-1905200</v>
+        <v>-1935900</v>
       </c>
       <c r="H96" s="3">
-        <v>-1969000</v>
+        <v>-2000800</v>
       </c>
       <c r="I96" s="3">
-        <v>-1587800</v>
+        <v>-1613500</v>
       </c>
       <c r="J96" s="3">
-        <v>-1579100</v>
+        <v>-1604600</v>
       </c>
       <c r="K96" s="3">
         <v>-2458000</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-9518100</v>
+        <v>-9671800</v>
       </c>
       <c r="E100" s="3">
-        <v>-5878900</v>
+        <v>-5973800</v>
       </c>
       <c r="F100" s="3">
-        <v>-3255800</v>
+        <v>-3308400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1547000</v>
+        <v>-1572000</v>
       </c>
       <c r="H100" s="3">
-        <v>-520200</v>
+        <v>-528600</v>
       </c>
       <c r="I100" s="3">
-        <v>-2811100</v>
+        <v>-2856400</v>
       </c>
       <c r="J100" s="3">
-        <v>-9650600</v>
+        <v>-9806400</v>
       </c>
       <c r="K100" s="3">
         <v>-6725300</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-691900</v>
+        <v>-703100</v>
       </c>
       <c r="E101" s="3">
-        <v>1548100</v>
+        <v>1573100</v>
       </c>
       <c r="F101" s="3">
-        <v>-872100</v>
+        <v>-886200</v>
       </c>
       <c r="G101" s="3">
-        <v>-98100</v>
+        <v>-99600</v>
       </c>
       <c r="H101" s="3">
-        <v>-925100</v>
+        <v>-940000</v>
       </c>
       <c r="I101" s="3">
-        <v>1650900</v>
+        <v>1677500</v>
       </c>
       <c r="J101" s="3">
-        <v>51900</v>
+        <v>52700</v>
       </c>
       <c r="K101" s="3">
         <v>5676200</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>27654900</v>
+        <v>28101400</v>
       </c>
       <c r="E102" s="3">
-        <v>47730600</v>
+        <v>48501300</v>
       </c>
       <c r="F102" s="3">
-        <v>51138900</v>
+        <v>51964600</v>
       </c>
       <c r="G102" s="3">
-        <v>45721500</v>
+        <v>46459800</v>
       </c>
       <c r="H102" s="3">
-        <v>36771000</v>
+        <v>37364700</v>
       </c>
       <c r="I102" s="3">
-        <v>61365300</v>
+        <v>62356100</v>
       </c>
       <c r="J102" s="3">
-        <v>202438800</v>
+        <v>205707500</v>
       </c>
       <c r="K102" s="3">
         <v>33323200</v>

--- a/AAII_Financials/Yearly/SMFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SMFG_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>23188100</v>
+        <v>23605700</v>
       </c>
       <c r="E8" s="3">
-        <v>23495300</v>
+        <v>23918400</v>
       </c>
       <c r="F8" s="3">
-        <v>20445100</v>
+        <v>20813300</v>
       </c>
       <c r="G8" s="3">
-        <v>18049600</v>
+        <v>18374600</v>
       </c>
       <c r="H8" s="3">
-        <v>17636900</v>
+        <v>17954500</v>
       </c>
       <c r="I8" s="3">
-        <v>17859900</v>
+        <v>18181500</v>
       </c>
       <c r="J8" s="3">
-        <v>17039400</v>
+        <v>17346200</v>
       </c>
       <c r="K8" s="3">
         <v>15686800</v>
@@ -930,7 +930,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1706400</v>
+        <v>-1737200</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>5</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12680100</v>
+        <v>12908500</v>
       </c>
       <c r="E17" s="3">
-        <v>11763500</v>
+        <v>11975400</v>
       </c>
       <c r="F17" s="3">
-        <v>8108900</v>
+        <v>8254900</v>
       </c>
       <c r="G17" s="3">
-        <v>6636400</v>
+        <v>6755900</v>
       </c>
       <c r="H17" s="3">
-        <v>5047300</v>
+        <v>5138200</v>
       </c>
       <c r="I17" s="3">
-        <v>3649600</v>
+        <v>3715400</v>
       </c>
       <c r="J17" s="3">
-        <v>2453600</v>
+        <v>2497700</v>
       </c>
       <c r="K17" s="3">
         <v>2923100</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10508000</v>
+        <v>10697200</v>
       </c>
       <c r="E18" s="3">
-        <v>11731800</v>
+        <v>11943000</v>
       </c>
       <c r="F18" s="3">
-        <v>12336200</v>
+        <v>12558300</v>
       </c>
       <c r="G18" s="3">
-        <v>11413100</v>
+        <v>11618700</v>
       </c>
       <c r="H18" s="3">
-        <v>12589600</v>
+        <v>12816300</v>
       </c>
       <c r="I18" s="3">
-        <v>14210200</v>
+        <v>14466100</v>
       </c>
       <c r="J18" s="3">
-        <v>14585800</v>
+        <v>14848500</v>
       </c>
       <c r="K18" s="3">
         <v>12763800</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2119200</v>
+        <v>-2157300</v>
       </c>
       <c r="E20" s="3">
-        <v>-1125200</v>
+        <v>-1145400</v>
       </c>
       <c r="F20" s="3">
-        <v>-1868600</v>
+        <v>-1902300</v>
       </c>
       <c r="G20" s="3">
-        <v>-2168500</v>
+        <v>-2207500</v>
       </c>
       <c r="H20" s="3">
-        <v>-3336800</v>
+        <v>-3396900</v>
       </c>
       <c r="I20" s="3">
-        <v>-1849700</v>
+        <v>-1883000</v>
       </c>
       <c r="J20" s="3">
-        <v>-1155600</v>
+        <v>-1176400</v>
       </c>
       <c r="K20" s="3">
         <v>-4503500</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>10520100</v>
+        <v>10714200</v>
       </c>
       <c r="E21" s="3">
-        <v>13378900</v>
+        <v>13626000</v>
       </c>
       <c r="F21" s="3">
-        <v>13351100</v>
+        <v>13597900</v>
       </c>
       <c r="G21" s="3">
-        <v>12104700</v>
+        <v>12329000</v>
       </c>
       <c r="H21" s="3">
-        <v>11753400</v>
+        <v>11970500</v>
       </c>
       <c r="I21" s="3">
-        <v>14698400</v>
+        <v>14968300</v>
       </c>
       <c r="J21" s="3">
-        <v>15596500</v>
+        <v>15882100</v>
       </c>
       <c r="K21" s="3">
         <v>10302300</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8388800</v>
+        <v>8539900</v>
       </c>
       <c r="E23" s="3">
-        <v>10606600</v>
+        <v>10797600</v>
       </c>
       <c r="F23" s="3">
-        <v>10467500</v>
+        <v>10656000</v>
       </c>
       <c r="G23" s="3">
-        <v>9244600</v>
+        <v>9411100</v>
       </c>
       <c r="H23" s="3">
-        <v>9252800</v>
+        <v>9419400</v>
       </c>
       <c r="I23" s="3">
-        <v>12360500</v>
+        <v>12583100</v>
       </c>
       <c r="J23" s="3">
-        <v>13430200</v>
+        <v>13672100</v>
       </c>
       <c r="K23" s="3">
         <v>8260200</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1582900</v>
+        <v>1611400</v>
       </c>
       <c r="E24" s="3">
-        <v>3128600</v>
+        <v>3185000</v>
       </c>
       <c r="F24" s="3">
-        <v>2553700</v>
+        <v>2599700</v>
       </c>
       <c r="G24" s="3">
-        <v>1613800</v>
+        <v>1642800</v>
       </c>
       <c r="H24" s="3">
-        <v>2124400</v>
+        <v>2162700</v>
       </c>
       <c r="I24" s="3">
-        <v>4166500</v>
+        <v>4241500</v>
       </c>
       <c r="J24" s="3">
-        <v>4331100</v>
+        <v>4409100</v>
       </c>
       <c r="K24" s="3">
         <v>2319400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6805900</v>
+        <v>6928400</v>
       </c>
       <c r="E26" s="3">
-        <v>7477900</v>
+        <v>7612600</v>
       </c>
       <c r="F26" s="3">
-        <v>7913800</v>
+        <v>8056300</v>
       </c>
       <c r="G26" s="3">
-        <v>7630900</v>
+        <v>7768300</v>
       </c>
       <c r="H26" s="3">
-        <v>7128400</v>
+        <v>7256700</v>
       </c>
       <c r="I26" s="3">
-        <v>8194100</v>
+        <v>8341600</v>
       </c>
       <c r="J26" s="3">
-        <v>9099100</v>
+        <v>9263000</v>
       </c>
       <c r="K26" s="3">
         <v>5940900</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6644700</v>
+        <v>6764300</v>
       </c>
       <c r="E27" s="3">
-        <v>6859900</v>
+        <v>6983400</v>
       </c>
       <c r="F27" s="3">
-        <v>6932400</v>
+        <v>7057300</v>
       </c>
       <c r="G27" s="3">
-        <v>6669500</v>
+        <v>6789600</v>
       </c>
       <c r="H27" s="3">
-        <v>6104700</v>
+        <v>6214700</v>
       </c>
       <c r="I27" s="3">
-        <v>7114100</v>
+        <v>7242200</v>
       </c>
       <c r="J27" s="3">
-        <v>7885800</v>
+        <v>8027800</v>
       </c>
       <c r="K27" s="3">
         <v>3743300</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2119200</v>
+        <v>2157300</v>
       </c>
       <c r="E32" s="3">
-        <v>1125200</v>
+        <v>1145400</v>
       </c>
       <c r="F32" s="3">
-        <v>1868600</v>
+        <v>1902300</v>
       </c>
       <c r="G32" s="3">
-        <v>2168500</v>
+        <v>2207500</v>
       </c>
       <c r="H32" s="3">
-        <v>3336800</v>
+        <v>3396900</v>
       </c>
       <c r="I32" s="3">
-        <v>1849700</v>
+        <v>1883000</v>
       </c>
       <c r="J32" s="3">
-        <v>1155600</v>
+        <v>1176400</v>
       </c>
       <c r="K32" s="3">
         <v>4503500</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6644700</v>
+        <v>6764300</v>
       </c>
       <c r="E33" s="3">
-        <v>6859900</v>
+        <v>6983400</v>
       </c>
       <c r="F33" s="3">
-        <v>6932400</v>
+        <v>7057300</v>
       </c>
       <c r="G33" s="3">
-        <v>6669500</v>
+        <v>6789600</v>
       </c>
       <c r="H33" s="3">
-        <v>6104700</v>
+        <v>6214700</v>
       </c>
       <c r="I33" s="3">
-        <v>7114100</v>
+        <v>7242200</v>
       </c>
       <c r="J33" s="3">
-        <v>7885800</v>
+        <v>8027800</v>
       </c>
       <c r="K33" s="3">
         <v>3743300</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6644700</v>
+        <v>6764300</v>
       </c>
       <c r="E35" s="3">
-        <v>6859900</v>
+        <v>6983400</v>
       </c>
       <c r="F35" s="3">
-        <v>6932400</v>
+        <v>7057300</v>
       </c>
       <c r="G35" s="3">
-        <v>6669500</v>
+        <v>6789600</v>
       </c>
       <c r="H35" s="3">
-        <v>6104700</v>
+        <v>6214700</v>
       </c>
       <c r="I35" s="3">
-        <v>7114100</v>
+        <v>7242200</v>
       </c>
       <c r="J35" s="3">
-        <v>7885800</v>
+        <v>8027800</v>
       </c>
       <c r="K35" s="3">
         <v>3743300</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>583095000</v>
+        <v>593596000</v>
       </c>
       <c r="E41" s="3">
-        <v>541962000</v>
+        <v>551722000</v>
       </c>
       <c r="F41" s="3">
-        <v>507236000</v>
+        <v>516370000</v>
       </c>
       <c r="G41" s="3">
-        <v>442411000</v>
+        <v>450378000</v>
       </c>
       <c r="H41" s="3">
-        <v>403930000</v>
+        <v>411205000</v>
       </c>
       <c r="I41" s="3">
-        <v>375230000</v>
+        <v>381988000</v>
       </c>
       <c r="J41" s="3">
-        <v>311436000</v>
+        <v>317045000</v>
       </c>
       <c r="K41" s="3">
         <v>217778000</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>270358000</v>
+        <v>275227000</v>
       </c>
       <c r="E42" s="3">
-        <v>232558000</v>
+        <v>236746000</v>
       </c>
       <c r="F42" s="3">
-        <v>222123000</v>
+        <v>226124000</v>
       </c>
       <c r="G42" s="3">
-        <v>230639000</v>
+        <v>234793000</v>
       </c>
       <c r="H42" s="3">
-        <v>224197000</v>
+        <v>228235000</v>
       </c>
       <c r="I42" s="3">
-        <v>209836000</v>
+        <v>213615000</v>
       </c>
       <c r="J42" s="3">
-        <v>168521000</v>
+        <v>171556000</v>
       </c>
       <c r="K42" s="3">
         <v>183032000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8917400</v>
+        <v>9078000</v>
       </c>
       <c r="E47" s="3">
-        <v>9212000</v>
+        <v>9377900</v>
       </c>
       <c r="F47" s="3">
-        <v>6448900</v>
+        <v>6565100</v>
       </c>
       <c r="G47" s="3">
-        <v>5706900</v>
+        <v>5809700</v>
       </c>
       <c r="H47" s="3">
-        <v>5762400</v>
+        <v>5866200</v>
       </c>
       <c r="I47" s="3">
-        <v>5510300</v>
+        <v>5609500</v>
       </c>
       <c r="J47" s="3">
-        <v>3515200</v>
+        <v>3578500</v>
       </c>
       <c r="K47" s="3">
         <v>4711900</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13691000</v>
+        <v>13937600</v>
       </c>
       <c r="E48" s="3">
-        <v>14204400</v>
+        <v>14460200</v>
       </c>
       <c r="F48" s="3">
-        <v>32805200</v>
+        <v>33396000</v>
       </c>
       <c r="G48" s="3">
-        <v>29279500</v>
+        <v>29806800</v>
       </c>
       <c r="H48" s="3">
-        <v>27559400</v>
+        <v>28055700</v>
       </c>
       <c r="I48" s="3">
-        <v>26156900</v>
+        <v>26627900</v>
       </c>
       <c r="J48" s="3">
-        <v>22153700</v>
+        <v>22552600</v>
       </c>
       <c r="K48" s="3">
         <v>36213000</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7113800</v>
+        <v>7241900</v>
       </c>
       <c r="E49" s="3">
-        <v>7261500</v>
+        <v>7392300</v>
       </c>
       <c r="F49" s="3">
-        <v>8171100</v>
+        <v>8318300</v>
       </c>
       <c r="G49" s="3">
-        <v>8935000</v>
+        <v>9095900</v>
       </c>
       <c r="H49" s="3">
-        <v>8290800</v>
+        <v>8440100</v>
       </c>
       <c r="I49" s="3">
-        <v>7736600</v>
+        <v>7876000</v>
       </c>
       <c r="J49" s="3">
-        <v>7739800</v>
+        <v>7879200</v>
       </c>
       <c r="K49" s="3">
         <v>15399600</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2425000</v>
+        <v>2468700</v>
       </c>
       <c r="E52" s="3">
-        <v>3489800</v>
+        <v>3552600</v>
       </c>
       <c r="F52" s="3">
-        <v>3880100</v>
+        <v>3950000</v>
       </c>
       <c r="G52" s="3">
-        <v>3567600</v>
+        <v>3631800</v>
       </c>
       <c r="H52" s="3">
-        <v>3106800</v>
+        <v>3162700</v>
       </c>
       <c r="I52" s="3">
-        <v>4758700</v>
+        <v>4844400</v>
       </c>
       <c r="J52" s="3">
-        <v>2767000</v>
+        <v>2816800</v>
       </c>
       <c r="K52" s="3">
         <v>7796700</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2075510000</v>
+        <v>2112890000</v>
       </c>
       <c r="E54" s="3">
-        <v>1922540000</v>
+        <v>1957160000</v>
       </c>
       <c r="F54" s="3">
-        <v>1879020000</v>
+        <v>1912860000</v>
       </c>
       <c r="G54" s="3">
-        <v>1867150000</v>
+        <v>1900780000</v>
       </c>
       <c r="H54" s="3">
-        <v>1761370000</v>
+        <v>1793090000</v>
       </c>
       <c r="I54" s="3">
-        <v>1731700000</v>
+        <v>1762880000</v>
       </c>
       <c r="J54" s="3">
-        <v>1524880000</v>
+        <v>1552350000</v>
       </c>
       <c r="K54" s="3">
         <v>1343090000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>729100</v>
+        <v>742200</v>
       </c>
       <c r="E59" s="3">
-        <v>693300</v>
+        <v>705800</v>
       </c>
       <c r="F59" s="3">
-        <v>829800</v>
+        <v>844800</v>
       </c>
       <c r="G59" s="3">
-        <v>759200</v>
+        <v>772800</v>
       </c>
       <c r="H59" s="3">
-        <v>669500</v>
+        <v>681600</v>
       </c>
       <c r="I59" s="3">
-        <v>724100</v>
+        <v>737100</v>
       </c>
       <c r="J59" s="3">
-        <v>701800</v>
+        <v>714400</v>
       </c>
       <c r="K59" s="3">
         <v>4547000</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>230775000</v>
+        <v>234931000</v>
       </c>
       <c r="E61" s="3">
-        <v>187708000</v>
+        <v>191088000</v>
       </c>
       <c r="F61" s="3">
-        <v>187733000</v>
+        <v>191113000</v>
       </c>
       <c r="G61" s="3">
-        <v>178567000</v>
+        <v>181782000</v>
       </c>
       <c r="H61" s="3">
-        <v>148050000</v>
+        <v>150716000</v>
       </c>
       <c r="I61" s="3">
-        <v>152011000</v>
+        <v>154748000</v>
       </c>
       <c r="J61" s="3">
-        <v>114335000</v>
+        <v>116394000</v>
       </c>
       <c r="K61" s="3">
         <v>58862700</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4737400</v>
+        <v>4822700</v>
       </c>
       <c r="E62" s="3">
-        <v>5890500</v>
+        <v>5996600</v>
       </c>
       <c r="F62" s="3">
-        <v>6749100</v>
+        <v>6870700</v>
       </c>
       <c r="G62" s="3">
-        <v>5897100</v>
+        <v>6003300</v>
       </c>
       <c r="H62" s="3">
-        <v>6590000</v>
+        <v>6708600</v>
       </c>
       <c r="I62" s="3">
-        <v>8345000</v>
+        <v>8495300</v>
       </c>
       <c r="J62" s="3">
-        <v>3919700</v>
+        <v>3990300</v>
       </c>
       <c r="K62" s="3">
         <v>6030000</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1974300000</v>
+        <v>2009850000</v>
       </c>
       <c r="E66" s="3">
-        <v>1820840000</v>
+        <v>1853640000</v>
       </c>
       <c r="F66" s="3">
-        <v>1780910000</v>
+        <v>1812980000</v>
       </c>
       <c r="G66" s="3">
-        <v>1775250000</v>
+        <v>1807220000</v>
       </c>
       <c r="H66" s="3">
-        <v>1677200000</v>
+        <v>1707400000</v>
       </c>
       <c r="I66" s="3">
-        <v>1646510000</v>
+        <v>1676160000</v>
       </c>
       <c r="J66" s="3">
-        <v>1456150000</v>
+        <v>1482380000</v>
       </c>
       <c r="K66" s="3">
         <v>1284350000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>59834300</v>
+        <v>60911800</v>
       </c>
       <c r="E72" s="3">
-        <v>56611700</v>
+        <v>57631100</v>
       </c>
       <c r="F72" s="3">
-        <v>52442900</v>
+        <v>53387400</v>
       </c>
       <c r="G72" s="3">
-        <v>47579800</v>
+        <v>48436700</v>
       </c>
       <c r="H72" s="3">
-        <v>42832600</v>
+        <v>43604000</v>
       </c>
       <c r="I72" s="3">
-        <v>38710700</v>
+        <v>39407800</v>
       </c>
       <c r="J72" s="3">
-        <v>32868900</v>
+        <v>33460800</v>
       </c>
       <c r="K72" s="3">
         <v>57285400</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>101216000</v>
+        <v>103039000</v>
       </c>
       <c r="E76" s="3">
-        <v>101698000</v>
+        <v>103529000</v>
       </c>
       <c r="F76" s="3">
-        <v>98112600</v>
+        <v>99879500</v>
       </c>
       <c r="G76" s="3">
-        <v>91898600</v>
+        <v>93553600</v>
       </c>
       <c r="H76" s="3">
-        <v>84173100</v>
+        <v>85689000</v>
       </c>
       <c r="I76" s="3">
-        <v>85191600</v>
+        <v>86725800</v>
       </c>
       <c r="J76" s="3">
-        <v>68732400</v>
+        <v>69970200</v>
       </c>
       <c r="K76" s="3">
         <v>58740700</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6644700</v>
+        <v>6764300</v>
       </c>
       <c r="E81" s="3">
-        <v>6859900</v>
+        <v>6983400</v>
       </c>
       <c r="F81" s="3">
-        <v>6932400</v>
+        <v>7057300</v>
       </c>
       <c r="G81" s="3">
-        <v>6669500</v>
+        <v>6789600</v>
       </c>
       <c r="H81" s="3">
-        <v>6104700</v>
+        <v>6214700</v>
       </c>
       <c r="I81" s="3">
-        <v>7114100</v>
+        <v>7242200</v>
       </c>
       <c r="J81" s="3">
-        <v>7885800</v>
+        <v>8027800</v>
       </c>
       <c r="K81" s="3">
         <v>3743300</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2140300</v>
+        <v>2178900</v>
       </c>
       <c r="E83" s="3">
-        <v>2784100</v>
+        <v>2834300</v>
       </c>
       <c r="F83" s="3">
-        <v>2895800</v>
+        <v>2948000</v>
       </c>
       <c r="G83" s="3">
-        <v>2872200</v>
+        <v>2923900</v>
       </c>
       <c r="H83" s="3">
-        <v>2511200</v>
+        <v>2556400</v>
       </c>
       <c r="I83" s="3">
-        <v>2347900</v>
+        <v>2390200</v>
       </c>
       <c r="J83" s="3">
-        <v>2175500</v>
+        <v>2214700</v>
       </c>
       <c r="K83" s="3">
         <v>2037600</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>66906400</v>
+        <v>68111200</v>
       </c>
       <c r="E89" s="3">
-        <v>43402900</v>
+        <v>44184500</v>
       </c>
       <c r="F89" s="3">
-        <v>88210800</v>
+        <v>89799300</v>
       </c>
       <c r="G89" s="3">
-        <v>42643500</v>
+        <v>43411400</v>
       </c>
       <c r="H89" s="3">
-        <v>-10641200</v>
+        <v>-10832900</v>
       </c>
       <c r="I89" s="3">
-        <v>77290800</v>
+        <v>78682700</v>
       </c>
       <c r="J89" s="3">
-        <v>78387400</v>
+        <v>79799100</v>
       </c>
       <c r="K89" s="3">
         <v>21574500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-972800</v>
+        <v>-990300</v>
       </c>
       <c r="E91" s="3">
-        <v>-4816400</v>
+        <v>-4903100</v>
       </c>
       <c r="F91" s="3">
-        <v>-6726600</v>
+        <v>-6847700</v>
       </c>
       <c r="G91" s="3">
-        <v>-4680600</v>
+        <v>-4764900</v>
       </c>
       <c r="H91" s="3">
-        <v>-4996300</v>
+        <v>-5086200</v>
       </c>
       <c r="I91" s="3">
-        <v>-5465500</v>
+        <v>-5563900</v>
       </c>
       <c r="J91" s="3">
-        <v>-4391000</v>
+        <v>-4470100</v>
       </c>
       <c r="K91" s="3">
         <v>-5273500</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-28430100</v>
+        <v>-28942100</v>
       </c>
       <c r="E94" s="3">
-        <v>9499100</v>
+        <v>9670200</v>
       </c>
       <c r="F94" s="3">
-        <v>-32051600</v>
+        <v>-32628800</v>
       </c>
       <c r="G94" s="3">
-        <v>5487900</v>
+        <v>5586700</v>
       </c>
       <c r="H94" s="3">
-        <v>49474600</v>
+        <v>50365500</v>
       </c>
       <c r="I94" s="3">
-        <v>-13755900</v>
+        <v>-14003600</v>
       </c>
       <c r="J94" s="3">
-        <v>137073700</v>
+        <v>139542200</v>
       </c>
       <c r="K94" s="3">
         <v>12797800</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2414500</v>
+        <v>-2458000</v>
       </c>
       <c r="E96" s="3">
-        <v>-2318400</v>
+        <v>-2360200</v>
       </c>
       <c r="F96" s="3">
-        <v>-2063300</v>
+        <v>-2100400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1935900</v>
+        <v>-1970800</v>
       </c>
       <c r="H96" s="3">
-        <v>-2000800</v>
+        <v>-2036900</v>
       </c>
       <c r="I96" s="3">
-        <v>-1613500</v>
+        <v>-1642500</v>
       </c>
       <c r="J96" s="3">
-        <v>-1604600</v>
+        <v>-1633500</v>
       </c>
       <c r="K96" s="3">
         <v>-2458000</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-9671800</v>
+        <v>-9846000</v>
       </c>
       <c r="E100" s="3">
-        <v>-5973800</v>
+        <v>-6081400</v>
       </c>
       <c r="F100" s="3">
-        <v>-3308400</v>
+        <v>-3368000</v>
       </c>
       <c r="G100" s="3">
-        <v>-1572000</v>
+        <v>-1600300</v>
       </c>
       <c r="H100" s="3">
-        <v>-528600</v>
+        <v>-538100</v>
       </c>
       <c r="I100" s="3">
-        <v>-2856400</v>
+        <v>-2907900</v>
       </c>
       <c r="J100" s="3">
-        <v>-9806400</v>
+        <v>-9983000</v>
       </c>
       <c r="K100" s="3">
         <v>-6725300</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-703100</v>
+        <v>-715800</v>
       </c>
       <c r="E101" s="3">
-        <v>1573100</v>
+        <v>1601500</v>
       </c>
       <c r="F101" s="3">
-        <v>-886200</v>
+        <v>-902100</v>
       </c>
       <c r="G101" s="3">
-        <v>-99600</v>
+        <v>-101400</v>
       </c>
       <c r="H101" s="3">
-        <v>-940000</v>
+        <v>-957000</v>
       </c>
       <c r="I101" s="3">
-        <v>1677500</v>
+        <v>1707800</v>
       </c>
       <c r="J101" s="3">
-        <v>52700</v>
+        <v>53700</v>
       </c>
       <c r="K101" s="3">
         <v>5676200</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>28101400</v>
+        <v>28607500</v>
       </c>
       <c r="E102" s="3">
-        <v>48501300</v>
+        <v>49374700</v>
       </c>
       <c r="F102" s="3">
-        <v>51964600</v>
+        <v>52900400</v>
       </c>
       <c r="G102" s="3">
-        <v>46459800</v>
+        <v>47296500</v>
       </c>
       <c r="H102" s="3">
-        <v>37364700</v>
+        <v>38037600</v>
       </c>
       <c r="I102" s="3">
-        <v>62356100</v>
+        <v>63479000</v>
       </c>
       <c r="J102" s="3">
-        <v>205707500</v>
+        <v>209411900</v>
       </c>
       <c r="K102" s="3">
         <v>33323200</v>

--- a/AAII_Financials/Yearly/SMFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SMFG_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>23605700</v>
+        <v>22500300</v>
       </c>
       <c r="E8" s="3">
-        <v>23918400</v>
+        <v>22798400</v>
       </c>
       <c r="F8" s="3">
-        <v>20813300</v>
+        <v>19838600</v>
       </c>
       <c r="G8" s="3">
-        <v>18374600</v>
+        <v>17514200</v>
       </c>
       <c r="H8" s="3">
-        <v>17954500</v>
+        <v>17113800</v>
       </c>
       <c r="I8" s="3">
-        <v>18181500</v>
+        <v>17330100</v>
       </c>
       <c r="J8" s="3">
-        <v>17346200</v>
+        <v>16534000</v>
       </c>
       <c r="K8" s="3">
         <v>15686800</v>
@@ -930,7 +930,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1737200</v>
+        <v>-1655800</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>5</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12908500</v>
+        <v>12304000</v>
       </c>
       <c r="E17" s="3">
-        <v>11975400</v>
+        <v>11414600</v>
       </c>
       <c r="F17" s="3">
-        <v>8254900</v>
+        <v>7868400</v>
       </c>
       <c r="G17" s="3">
-        <v>6755900</v>
+        <v>6439600</v>
       </c>
       <c r="H17" s="3">
-        <v>5138200</v>
+        <v>4897600</v>
       </c>
       <c r="I17" s="3">
-        <v>3715400</v>
+        <v>3541400</v>
       </c>
       <c r="J17" s="3">
-        <v>2497700</v>
+        <v>2380800</v>
       </c>
       <c r="K17" s="3">
         <v>2923100</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10697200</v>
+        <v>10196300</v>
       </c>
       <c r="E18" s="3">
-        <v>11943000</v>
+        <v>11383800</v>
       </c>
       <c r="F18" s="3">
-        <v>12558300</v>
+        <v>11970300</v>
       </c>
       <c r="G18" s="3">
-        <v>11618700</v>
+        <v>11074600</v>
       </c>
       <c r="H18" s="3">
-        <v>12816300</v>
+        <v>12216200</v>
       </c>
       <c r="I18" s="3">
-        <v>14466100</v>
+        <v>13788700</v>
       </c>
       <c r="J18" s="3">
-        <v>14848500</v>
+        <v>14153200</v>
       </c>
       <c r="K18" s="3">
         <v>12763800</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2157300</v>
+        <v>-2056300</v>
       </c>
       <c r="E20" s="3">
-        <v>-1145400</v>
+        <v>-1091800</v>
       </c>
       <c r="F20" s="3">
-        <v>-1902300</v>
+        <v>-1813200</v>
       </c>
       <c r="G20" s="3">
-        <v>-2207500</v>
+        <v>-2104200</v>
       </c>
       <c r="H20" s="3">
-        <v>-3396900</v>
+        <v>-3237800</v>
       </c>
       <c r="I20" s="3">
-        <v>-1883000</v>
+        <v>-1794800</v>
       </c>
       <c r="J20" s="3">
-        <v>-1176400</v>
+        <v>-1121300</v>
       </c>
       <c r="K20" s="3">
         <v>-4503500</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>10714200</v>
+        <v>10225900</v>
       </c>
       <c r="E21" s="3">
-        <v>13626000</v>
+        <v>13005300</v>
       </c>
       <c r="F21" s="3">
-        <v>13597900</v>
+        <v>12979300</v>
       </c>
       <c r="G21" s="3">
-        <v>12329000</v>
+        <v>11769600</v>
       </c>
       <c r="H21" s="3">
-        <v>11970500</v>
+        <v>11425700</v>
       </c>
       <c r="I21" s="3">
-        <v>14968300</v>
+        <v>14282100</v>
       </c>
       <c r="J21" s="3">
-        <v>15882100</v>
+        <v>15152100</v>
       </c>
       <c r="K21" s="3">
         <v>10302300</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8539900</v>
+        <v>8140000</v>
       </c>
       <c r="E23" s="3">
-        <v>10797600</v>
+        <v>10292000</v>
       </c>
       <c r="F23" s="3">
-        <v>10656000</v>
+        <v>10157100</v>
       </c>
       <c r="G23" s="3">
-        <v>9411100</v>
+        <v>8970400</v>
       </c>
       <c r="H23" s="3">
-        <v>9419400</v>
+        <v>8978400</v>
       </c>
       <c r="I23" s="3">
-        <v>12583100</v>
+        <v>11993900</v>
       </c>
       <c r="J23" s="3">
-        <v>13672100</v>
+        <v>13031900</v>
       </c>
       <c r="K23" s="3">
         <v>8260200</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1611400</v>
+        <v>1536000</v>
       </c>
       <c r="E24" s="3">
-        <v>3185000</v>
+        <v>3035800</v>
       </c>
       <c r="F24" s="3">
-        <v>2599700</v>
+        <v>2478000</v>
       </c>
       <c r="G24" s="3">
-        <v>1642800</v>
+        <v>1565900</v>
       </c>
       <c r="H24" s="3">
-        <v>2162700</v>
+        <v>2061400</v>
       </c>
       <c r="I24" s="3">
-        <v>4241500</v>
+        <v>4042900</v>
       </c>
       <c r="J24" s="3">
-        <v>4409100</v>
+        <v>4202700</v>
       </c>
       <c r="K24" s="3">
         <v>2319400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6928400</v>
+        <v>6604000</v>
       </c>
       <c r="E26" s="3">
-        <v>7612600</v>
+        <v>7256100</v>
       </c>
       <c r="F26" s="3">
-        <v>8056300</v>
+        <v>7679100</v>
       </c>
       <c r="G26" s="3">
-        <v>7768300</v>
+        <v>7404500</v>
       </c>
       <c r="H26" s="3">
-        <v>7256700</v>
+        <v>6916900</v>
       </c>
       <c r="I26" s="3">
-        <v>8341600</v>
+        <v>7951000</v>
       </c>
       <c r="J26" s="3">
-        <v>9263000</v>
+        <v>8829200</v>
       </c>
       <c r="K26" s="3">
         <v>5940900</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6764300</v>
+        <v>6447600</v>
       </c>
       <c r="E27" s="3">
-        <v>6983400</v>
+        <v>6656400</v>
       </c>
       <c r="F27" s="3">
-        <v>7057300</v>
+        <v>6726800</v>
       </c>
       <c r="G27" s="3">
-        <v>6789600</v>
+        <v>6471700</v>
       </c>
       <c r="H27" s="3">
-        <v>6214700</v>
+        <v>5923700</v>
       </c>
       <c r="I27" s="3">
-        <v>7242200</v>
+        <v>6903100</v>
       </c>
       <c r="J27" s="3">
-        <v>8027800</v>
+        <v>7651900</v>
       </c>
       <c r="K27" s="3">
         <v>3743300</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2157300</v>
+        <v>2056300</v>
       </c>
       <c r="E32" s="3">
-        <v>1145400</v>
+        <v>1091800</v>
       </c>
       <c r="F32" s="3">
-        <v>1902300</v>
+        <v>1813200</v>
       </c>
       <c r="G32" s="3">
-        <v>2207500</v>
+        <v>2104200</v>
       </c>
       <c r="H32" s="3">
-        <v>3396900</v>
+        <v>3237800</v>
       </c>
       <c r="I32" s="3">
-        <v>1883000</v>
+        <v>1794800</v>
       </c>
       <c r="J32" s="3">
-        <v>1176400</v>
+        <v>1121300</v>
       </c>
       <c r="K32" s="3">
         <v>4503500</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6764300</v>
+        <v>6447600</v>
       </c>
       <c r="E33" s="3">
-        <v>6983400</v>
+        <v>6656400</v>
       </c>
       <c r="F33" s="3">
-        <v>7057300</v>
+        <v>6726800</v>
       </c>
       <c r="G33" s="3">
-        <v>6789600</v>
+        <v>6471700</v>
       </c>
       <c r="H33" s="3">
-        <v>6214700</v>
+        <v>5923700</v>
       </c>
       <c r="I33" s="3">
-        <v>7242200</v>
+        <v>6903100</v>
       </c>
       <c r="J33" s="3">
-        <v>8027800</v>
+        <v>7651900</v>
       </c>
       <c r="K33" s="3">
         <v>3743300</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6764300</v>
+        <v>6447600</v>
       </c>
       <c r="E35" s="3">
-        <v>6983400</v>
+        <v>6656400</v>
       </c>
       <c r="F35" s="3">
-        <v>7057300</v>
+        <v>6726800</v>
       </c>
       <c r="G35" s="3">
-        <v>6789600</v>
+        <v>6471700</v>
       </c>
       <c r="H35" s="3">
-        <v>6214700</v>
+        <v>5923700</v>
       </c>
       <c r="I35" s="3">
-        <v>7242200</v>
+        <v>6903100</v>
       </c>
       <c r="J35" s="3">
-        <v>8027800</v>
+        <v>7651900</v>
       </c>
       <c r="K35" s="3">
         <v>3743300</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>593596000</v>
+        <v>565800000</v>
       </c>
       <c r="E41" s="3">
-        <v>551722000</v>
+        <v>525887000</v>
       </c>
       <c r="F41" s="3">
-        <v>516370000</v>
+        <v>492191000</v>
       </c>
       <c r="G41" s="3">
-        <v>450378000</v>
+        <v>429288000</v>
       </c>
       <c r="H41" s="3">
-        <v>411205000</v>
+        <v>391949000</v>
       </c>
       <c r="I41" s="3">
-        <v>381988000</v>
+        <v>364101000</v>
       </c>
       <c r="J41" s="3">
-        <v>317045000</v>
+        <v>302199000</v>
       </c>
       <c r="K41" s="3">
         <v>217778000</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>275227000</v>
+        <v>262339000</v>
       </c>
       <c r="E42" s="3">
-        <v>236746000</v>
+        <v>225660000</v>
       </c>
       <c r="F42" s="3">
-        <v>226124000</v>
+        <v>215535000</v>
       </c>
       <c r="G42" s="3">
-        <v>234793000</v>
+        <v>223798000</v>
       </c>
       <c r="H42" s="3">
-        <v>228235000</v>
+        <v>217547000</v>
       </c>
       <c r="I42" s="3">
-        <v>213615000</v>
+        <v>203612000</v>
       </c>
       <c r="J42" s="3">
-        <v>171556000</v>
+        <v>163523000</v>
       </c>
       <c r="K42" s="3">
         <v>183032000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9078000</v>
+        <v>8652900</v>
       </c>
       <c r="E47" s="3">
-        <v>9377900</v>
+        <v>8938800</v>
       </c>
       <c r="F47" s="3">
-        <v>6565100</v>
+        <v>6257700</v>
       </c>
       <c r="G47" s="3">
-        <v>5809700</v>
+        <v>5537700</v>
       </c>
       <c r="H47" s="3">
-        <v>5866200</v>
+        <v>5591500</v>
       </c>
       <c r="I47" s="3">
-        <v>5609500</v>
+        <v>5346900</v>
       </c>
       <c r="J47" s="3">
-        <v>3578500</v>
+        <v>3411000</v>
       </c>
       <c r="K47" s="3">
         <v>4711900</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13937600</v>
+        <v>13285000</v>
       </c>
       <c r="E48" s="3">
-        <v>14460200</v>
+        <v>13783100</v>
       </c>
       <c r="F48" s="3">
-        <v>33396000</v>
+        <v>31832200</v>
       </c>
       <c r="G48" s="3">
-        <v>29806800</v>
+        <v>28411000</v>
       </c>
       <c r="H48" s="3">
-        <v>28055700</v>
+        <v>26741900</v>
       </c>
       <c r="I48" s="3">
-        <v>26627900</v>
+        <v>25381000</v>
       </c>
       <c r="J48" s="3">
-        <v>22552600</v>
+        <v>21496600</v>
       </c>
       <c r="K48" s="3">
         <v>36213000</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7241900</v>
+        <v>6902800</v>
       </c>
       <c r="E49" s="3">
-        <v>7392300</v>
+        <v>7046200</v>
       </c>
       <c r="F49" s="3">
-        <v>8318300</v>
+        <v>7928700</v>
       </c>
       <c r="G49" s="3">
-        <v>9095900</v>
+        <v>8670000</v>
       </c>
       <c r="H49" s="3">
-        <v>8440100</v>
+        <v>8044900</v>
       </c>
       <c r="I49" s="3">
-        <v>7876000</v>
+        <v>7507200</v>
       </c>
       <c r="J49" s="3">
-        <v>7879200</v>
+        <v>7510200</v>
       </c>
       <c r="K49" s="3">
         <v>15399600</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2468700</v>
+        <v>2353100</v>
       </c>
       <c r="E52" s="3">
-        <v>3552600</v>
+        <v>3386300</v>
       </c>
       <c r="F52" s="3">
-        <v>3950000</v>
+        <v>3765000</v>
       </c>
       <c r="G52" s="3">
-        <v>3631800</v>
+        <v>3461800</v>
       </c>
       <c r="H52" s="3">
-        <v>3162700</v>
+        <v>3014600</v>
       </c>
       <c r="I52" s="3">
-        <v>4844400</v>
+        <v>4617500</v>
       </c>
       <c r="J52" s="3">
-        <v>2816800</v>
+        <v>2684900</v>
       </c>
       <c r="K52" s="3">
         <v>7796700</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2112890000</v>
+        <v>2013950000</v>
       </c>
       <c r="E54" s="3">
-        <v>1957160000</v>
+        <v>1865520000</v>
       </c>
       <c r="F54" s="3">
-        <v>1912860000</v>
+        <v>1823290000</v>
       </c>
       <c r="G54" s="3">
-        <v>1900780000</v>
+        <v>1811770000</v>
       </c>
       <c r="H54" s="3">
-        <v>1793090000</v>
+        <v>1709130000</v>
       </c>
       <c r="I54" s="3">
-        <v>1762880000</v>
+        <v>1680330000</v>
       </c>
       <c r="J54" s="3">
-        <v>1552350000</v>
+        <v>1479660000</v>
       </c>
       <c r="K54" s="3">
         <v>1343090000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>742200</v>
+        <v>707400</v>
       </c>
       <c r="E59" s="3">
-        <v>705800</v>
+        <v>672700</v>
       </c>
       <c r="F59" s="3">
-        <v>844800</v>
+        <v>805200</v>
       </c>
       <c r="G59" s="3">
-        <v>772800</v>
+        <v>736600</v>
       </c>
       <c r="H59" s="3">
-        <v>681600</v>
+        <v>649600</v>
       </c>
       <c r="I59" s="3">
-        <v>737100</v>
+        <v>702600</v>
       </c>
       <c r="J59" s="3">
-        <v>714400</v>
+        <v>681000</v>
       </c>
       <c r="K59" s="3">
         <v>4547000</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>234931000</v>
+        <v>223930000</v>
       </c>
       <c r="E61" s="3">
-        <v>191088000</v>
+        <v>182140000</v>
       </c>
       <c r="F61" s="3">
-        <v>191113000</v>
+        <v>182164000</v>
       </c>
       <c r="G61" s="3">
-        <v>181782000</v>
+        <v>173270000</v>
       </c>
       <c r="H61" s="3">
-        <v>150716000</v>
+        <v>143659000</v>
       </c>
       <c r="I61" s="3">
-        <v>154748000</v>
+        <v>147502000</v>
       </c>
       <c r="J61" s="3">
-        <v>116394000</v>
+        <v>110944000</v>
       </c>
       <c r="K61" s="3">
         <v>58862700</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4822700</v>
+        <v>4596900</v>
       </c>
       <c r="E62" s="3">
-        <v>5996600</v>
+        <v>5715800</v>
       </c>
       <c r="F62" s="3">
-        <v>6870700</v>
+        <v>6548900</v>
       </c>
       <c r="G62" s="3">
-        <v>6003300</v>
+        <v>5722200</v>
       </c>
       <c r="H62" s="3">
-        <v>6708600</v>
+        <v>6394500</v>
       </c>
       <c r="I62" s="3">
-        <v>8495300</v>
+        <v>8097500</v>
       </c>
       <c r="J62" s="3">
-        <v>3990300</v>
+        <v>3803400</v>
       </c>
       <c r="K62" s="3">
         <v>6030000</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2009850000</v>
+        <v>1915740000</v>
       </c>
       <c r="E66" s="3">
-        <v>1853640000</v>
+        <v>1766840000</v>
       </c>
       <c r="F66" s="3">
-        <v>1812980000</v>
+        <v>1728090000</v>
       </c>
       <c r="G66" s="3">
-        <v>1807220000</v>
+        <v>1722600000</v>
       </c>
       <c r="H66" s="3">
-        <v>1707400000</v>
+        <v>1627450000</v>
       </c>
       <c r="I66" s="3">
-        <v>1676160000</v>
+        <v>1597670000</v>
       </c>
       <c r="J66" s="3">
-        <v>1482380000</v>
+        <v>1412960000</v>
       </c>
       <c r="K66" s="3">
         <v>1284350000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>60911800</v>
+        <v>58059500</v>
       </c>
       <c r="E72" s="3">
-        <v>57631100</v>
+        <v>54932500</v>
       </c>
       <c r="F72" s="3">
-        <v>53387400</v>
+        <v>50887400</v>
       </c>
       <c r="G72" s="3">
-        <v>48436700</v>
+        <v>46168600</v>
       </c>
       <c r="H72" s="3">
-        <v>43604000</v>
+        <v>41562200</v>
       </c>
       <c r="I72" s="3">
-        <v>39407800</v>
+        <v>37562500</v>
       </c>
       <c r="J72" s="3">
-        <v>33460800</v>
+        <v>31894000</v>
       </c>
       <c r="K72" s="3">
         <v>57285400</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>103039000</v>
+        <v>98213800</v>
       </c>
       <c r="E76" s="3">
-        <v>103529000</v>
+        <v>98681300</v>
       </c>
       <c r="F76" s="3">
-        <v>99879500</v>
+        <v>95202500</v>
       </c>
       <c r="G76" s="3">
-        <v>93553600</v>
+        <v>89172800</v>
       </c>
       <c r="H76" s="3">
-        <v>85689000</v>
+        <v>81676500</v>
       </c>
       <c r="I76" s="3">
-        <v>86725800</v>
+        <v>82664700</v>
       </c>
       <c r="J76" s="3">
-        <v>69970200</v>
+        <v>66693800</v>
       </c>
       <c r="K76" s="3">
         <v>58740700</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6764300</v>
+        <v>6447600</v>
       </c>
       <c r="E81" s="3">
-        <v>6983400</v>
+        <v>6656400</v>
       </c>
       <c r="F81" s="3">
-        <v>7057300</v>
+        <v>6726800</v>
       </c>
       <c r="G81" s="3">
-        <v>6789600</v>
+        <v>6471700</v>
       </c>
       <c r="H81" s="3">
-        <v>6214700</v>
+        <v>5923700</v>
       </c>
       <c r="I81" s="3">
-        <v>7242200</v>
+        <v>6903100</v>
       </c>
       <c r="J81" s="3">
-        <v>8027800</v>
+        <v>7651900</v>
       </c>
       <c r="K81" s="3">
         <v>3743300</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2178900</v>
+        <v>2076900</v>
       </c>
       <c r="E83" s="3">
-        <v>2834300</v>
+        <v>2701500</v>
       </c>
       <c r="F83" s="3">
-        <v>2948000</v>
+        <v>2809900</v>
       </c>
       <c r="G83" s="3">
-        <v>2923900</v>
+        <v>2787000</v>
       </c>
       <c r="H83" s="3">
-        <v>2556400</v>
+        <v>2436700</v>
       </c>
       <c r="I83" s="3">
-        <v>2390200</v>
+        <v>2278200</v>
       </c>
       <c r="J83" s="3">
-        <v>2214700</v>
+        <v>2111000</v>
       </c>
       <c r="K83" s="3">
         <v>2037600</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>68111200</v>
+        <v>64921900</v>
       </c>
       <c r="E89" s="3">
-        <v>44184500</v>
+        <v>42115500</v>
       </c>
       <c r="F89" s="3">
-        <v>89799300</v>
+        <v>85594400</v>
       </c>
       <c r="G89" s="3">
-        <v>43411400</v>
+        <v>41378600</v>
       </c>
       <c r="H89" s="3">
-        <v>-10832900</v>
+        <v>-10325600</v>
       </c>
       <c r="I89" s="3">
-        <v>78682700</v>
+        <v>74998300</v>
       </c>
       <c r="J89" s="3">
-        <v>79799100</v>
+        <v>76062400</v>
       </c>
       <c r="K89" s="3">
         <v>21574500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-990300</v>
+        <v>-944000</v>
       </c>
       <c r="E91" s="3">
-        <v>-4903100</v>
+        <v>-4673600</v>
       </c>
       <c r="F91" s="3">
-        <v>-6847700</v>
+        <v>-6527100</v>
       </c>
       <c r="G91" s="3">
-        <v>-4764900</v>
+        <v>-4541700</v>
       </c>
       <c r="H91" s="3">
-        <v>-5086200</v>
+        <v>-4848100</v>
       </c>
       <c r="I91" s="3">
-        <v>-5563900</v>
+        <v>-5303300</v>
       </c>
       <c r="J91" s="3">
-        <v>-4470100</v>
+        <v>-4260700</v>
       </c>
       <c r="K91" s="3">
         <v>-5273500</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-28942100</v>
+        <v>-27586800</v>
       </c>
       <c r="E94" s="3">
-        <v>9670200</v>
+        <v>9217300</v>
       </c>
       <c r="F94" s="3">
-        <v>-32628800</v>
+        <v>-31100900</v>
       </c>
       <c r="G94" s="3">
-        <v>5586700</v>
+        <v>5325100</v>
       </c>
       <c r="H94" s="3">
-        <v>50365500</v>
+        <v>48007100</v>
       </c>
       <c r="I94" s="3">
-        <v>-14003600</v>
+        <v>-13347800</v>
       </c>
       <c r="J94" s="3">
-        <v>139542200</v>
+        <v>133008000</v>
       </c>
       <c r="K94" s="3">
         <v>12797800</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2458000</v>
+        <v>-2342900</v>
       </c>
       <c r="E96" s="3">
-        <v>-2360200</v>
+        <v>-2249600</v>
       </c>
       <c r="F96" s="3">
-        <v>-2100400</v>
+        <v>-2002100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1970800</v>
+        <v>-1878500</v>
       </c>
       <c r="H96" s="3">
-        <v>-2036900</v>
+        <v>-1941500</v>
       </c>
       <c r="I96" s="3">
-        <v>-1642500</v>
+        <v>-1565600</v>
       </c>
       <c r="J96" s="3">
-        <v>-1633500</v>
+        <v>-1557000</v>
       </c>
       <c r="K96" s="3">
         <v>-2458000</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-9846000</v>
+        <v>-9384900</v>
       </c>
       <c r="E100" s="3">
-        <v>-6081400</v>
+        <v>-5796600</v>
       </c>
       <c r="F100" s="3">
-        <v>-3368000</v>
+        <v>-3210300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1600300</v>
+        <v>-1525400</v>
       </c>
       <c r="H100" s="3">
-        <v>-538100</v>
+        <v>-512900</v>
       </c>
       <c r="I100" s="3">
-        <v>-2907900</v>
+        <v>-2771700</v>
       </c>
       <c r="J100" s="3">
-        <v>-9983000</v>
+        <v>-9515500</v>
       </c>
       <c r="K100" s="3">
         <v>-6725300</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-715800</v>
+        <v>-682200</v>
       </c>
       <c r="E101" s="3">
-        <v>1601500</v>
+        <v>1526500</v>
       </c>
       <c r="F101" s="3">
-        <v>-902100</v>
+        <v>-859900</v>
       </c>
       <c r="G101" s="3">
-        <v>-101400</v>
+        <v>-96700</v>
       </c>
       <c r="H101" s="3">
-        <v>-957000</v>
+        <v>-912100</v>
       </c>
       <c r="I101" s="3">
-        <v>1707800</v>
+        <v>1627800</v>
       </c>
       <c r="J101" s="3">
-        <v>53700</v>
+        <v>51100</v>
       </c>
       <c r="K101" s="3">
         <v>5676200</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>28607500</v>
+        <v>27267900</v>
       </c>
       <c r="E102" s="3">
-        <v>49374700</v>
+        <v>47062700</v>
       </c>
       <c r="F102" s="3">
-        <v>52900400</v>
+        <v>50423200</v>
       </c>
       <c r="G102" s="3">
-        <v>47296500</v>
+        <v>45081700</v>
       </c>
       <c r="H102" s="3">
-        <v>38037600</v>
+        <v>36256400</v>
       </c>
       <c r="I102" s="3">
-        <v>63479000</v>
+        <v>60506500</v>
       </c>
       <c r="J102" s="3">
-        <v>209411900</v>
+        <v>199606000</v>
       </c>
       <c r="K102" s="3">
         <v>33323200</v>

--- a/AAII_Financials/Yearly/SMFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SMFG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>SMFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,93 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42825</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42460</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42094</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41729</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41364</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40999</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22500300</v>
+        <v>17029500</v>
       </c>
       <c r="E8" s="3">
-        <v>22798400</v>
+        <v>22574000</v>
       </c>
       <c r="F8" s="3">
-        <v>19838600</v>
+        <v>22873100</v>
       </c>
       <c r="G8" s="3">
-        <v>17514200</v>
+        <v>19903600</v>
       </c>
       <c r="H8" s="3">
-        <v>17113800</v>
+        <v>17571500</v>
       </c>
       <c r="I8" s="3">
-        <v>17330100</v>
+        <v>17169800</v>
       </c>
       <c r="J8" s="3">
+        <v>17386900</v>
+      </c>
+      <c r="K8" s="3">
         <v>16534000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15686800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15461400</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -776,9 +782,12 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,9 +818,12 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,9 +906,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,17 +942,20 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>-1655800</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-1661200</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>5</v>
@@ -950,15 +972,18 @@
       <c r="J15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3">
         <v>-1185200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-1099400</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12304000</v>
+        <v>6790000</v>
       </c>
       <c r="E17" s="3">
-        <v>11414600</v>
+        <v>12344300</v>
       </c>
       <c r="F17" s="3">
-        <v>7868400</v>
+        <v>11452000</v>
       </c>
       <c r="G17" s="3">
-        <v>6439600</v>
+        <v>7894200</v>
       </c>
       <c r="H17" s="3">
-        <v>4897600</v>
+        <v>6460700</v>
       </c>
       <c r="I17" s="3">
-        <v>3541400</v>
+        <v>4913600</v>
       </c>
       <c r="J17" s="3">
+        <v>3553000</v>
+      </c>
+      <c r="K17" s="3">
         <v>2380800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2923100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2835200</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10196300</v>
+        <v>10239500</v>
       </c>
       <c r="E18" s="3">
-        <v>11383800</v>
+        <v>10229700</v>
       </c>
       <c r="F18" s="3">
-        <v>11970300</v>
+        <v>11421100</v>
       </c>
       <c r="G18" s="3">
-        <v>11074600</v>
+        <v>12009500</v>
       </c>
       <c r="H18" s="3">
-        <v>12216200</v>
+        <v>11110900</v>
       </c>
       <c r="I18" s="3">
-        <v>13788700</v>
+        <v>12256200</v>
       </c>
       <c r="J18" s="3">
+        <v>13833900</v>
+      </c>
+      <c r="K18" s="3">
         <v>14153200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>12763800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>12626200</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,74 +1082,81 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2056300</v>
+        <v>-4061600</v>
       </c>
       <c r="E20" s="3">
-        <v>-1091800</v>
+        <v>-2063000</v>
       </c>
       <c r="F20" s="3">
-        <v>-1813200</v>
+        <v>-1095400</v>
       </c>
       <c r="G20" s="3">
-        <v>-2104200</v>
+        <v>-1819100</v>
       </c>
       <c r="H20" s="3">
-        <v>-3237800</v>
+        <v>-2111100</v>
       </c>
       <c r="I20" s="3">
-        <v>-1794800</v>
+        <v>-3248400</v>
       </c>
       <c r="J20" s="3">
+        <v>-1800700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1121300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4503500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4386900</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>10225900</v>
+        <v>8267900</v>
       </c>
       <c r="E21" s="3">
-        <v>13005300</v>
+        <v>10252600</v>
       </c>
       <c r="F21" s="3">
-        <v>12979300</v>
+        <v>13039000</v>
       </c>
       <c r="G21" s="3">
-        <v>11769600</v>
+        <v>13012500</v>
       </c>
       <c r="H21" s="3">
-        <v>11425700</v>
+        <v>11799000</v>
       </c>
       <c r="I21" s="3">
-        <v>14282100</v>
+        <v>11455100</v>
       </c>
       <c r="J21" s="3">
+        <v>14321400</v>
+      </c>
+      <c r="K21" s="3">
         <v>15152100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10302300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9804500</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1148,75 +1187,84 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8140000</v>
+        <v>6177900</v>
       </c>
       <c r="E23" s="3">
-        <v>10292000</v>
+        <v>8166700</v>
       </c>
       <c r="F23" s="3">
-        <v>10157100</v>
+        <v>10325700</v>
       </c>
       <c r="G23" s="3">
-        <v>8970400</v>
+        <v>10190300</v>
       </c>
       <c r="H23" s="3">
-        <v>8978400</v>
+        <v>8999800</v>
       </c>
       <c r="I23" s="3">
-        <v>11993900</v>
+        <v>9007800</v>
       </c>
       <c r="J23" s="3">
+        <v>12033200</v>
+      </c>
+      <c r="K23" s="3">
         <v>13031900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8260200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8239300</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1536000</v>
+        <v>1436800</v>
       </c>
       <c r="E24" s="3">
-        <v>3035800</v>
+        <v>1541000</v>
       </c>
       <c r="F24" s="3">
-        <v>2478000</v>
+        <v>3045800</v>
       </c>
       <c r="G24" s="3">
-        <v>1565900</v>
+        <v>2486100</v>
       </c>
       <c r="H24" s="3">
-        <v>2061400</v>
+        <v>1571000</v>
       </c>
       <c r="I24" s="3">
-        <v>4042900</v>
+        <v>2068200</v>
       </c>
       <c r="J24" s="3">
+        <v>4056100</v>
+      </c>
+      <c r="K24" s="3">
         <v>4202700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2319400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4162400</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6604000</v>
+        <v>4741000</v>
       </c>
       <c r="E26" s="3">
-        <v>7256100</v>
+        <v>6625600</v>
       </c>
       <c r="F26" s="3">
-        <v>7679100</v>
+        <v>7279900</v>
       </c>
       <c r="G26" s="3">
-        <v>7404500</v>
+        <v>7704200</v>
       </c>
       <c r="H26" s="3">
-        <v>6916900</v>
+        <v>7428800</v>
       </c>
       <c r="I26" s="3">
-        <v>7951000</v>
+        <v>6939600</v>
       </c>
       <c r="J26" s="3">
+        <v>7977100</v>
+      </c>
+      <c r="K26" s="3">
         <v>8829200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5940900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4076900</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6447600</v>
+        <v>4712700</v>
       </c>
       <c r="E27" s="3">
-        <v>6656400</v>
+        <v>6468700</v>
       </c>
       <c r="F27" s="3">
-        <v>6726800</v>
+        <v>6678200</v>
       </c>
       <c r="G27" s="3">
-        <v>6471700</v>
+        <v>6748800</v>
       </c>
       <c r="H27" s="3">
-        <v>5923700</v>
+        <v>6492900</v>
       </c>
       <c r="I27" s="3">
-        <v>6903100</v>
+        <v>5943100</v>
       </c>
       <c r="J27" s="3">
+        <v>6925700</v>
+      </c>
+      <c r="K27" s="3">
         <v>7651900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3743300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3058400</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2056300</v>
+        <v>4061600</v>
       </c>
       <c r="E32" s="3">
-        <v>1091800</v>
+        <v>2063000</v>
       </c>
       <c r="F32" s="3">
-        <v>1813200</v>
+        <v>1095400</v>
       </c>
       <c r="G32" s="3">
-        <v>2104200</v>
+        <v>1819100</v>
       </c>
       <c r="H32" s="3">
-        <v>3237800</v>
+        <v>2111100</v>
       </c>
       <c r="I32" s="3">
-        <v>1794800</v>
+        <v>3248400</v>
       </c>
       <c r="J32" s="3">
+        <v>1800700</v>
+      </c>
+      <c r="K32" s="3">
         <v>1121300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4503500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4386900</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6447600</v>
+        <v>4712700</v>
       </c>
       <c r="E33" s="3">
-        <v>6656400</v>
+        <v>6468700</v>
       </c>
       <c r="F33" s="3">
-        <v>6726800</v>
+        <v>6678200</v>
       </c>
       <c r="G33" s="3">
-        <v>6471700</v>
+        <v>6748800</v>
       </c>
       <c r="H33" s="3">
-        <v>5923700</v>
+        <v>6492900</v>
       </c>
       <c r="I33" s="3">
-        <v>6903100</v>
+        <v>5943100</v>
       </c>
       <c r="J33" s="3">
+        <v>6925700</v>
+      </c>
+      <c r="K33" s="3">
         <v>7651900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3743300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3058400</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6447600</v>
+        <v>4712700</v>
       </c>
       <c r="E35" s="3">
-        <v>6656400</v>
+        <v>6468700</v>
       </c>
       <c r="F35" s="3">
-        <v>6726800</v>
+        <v>6678200</v>
       </c>
       <c r="G35" s="3">
-        <v>6471700</v>
+        <v>6748800</v>
       </c>
       <c r="H35" s="3">
-        <v>5923700</v>
+        <v>6492900</v>
       </c>
       <c r="I35" s="3">
-        <v>6903100</v>
+        <v>5943100</v>
       </c>
       <c r="J35" s="3">
+        <v>6925700</v>
+      </c>
+      <c r="K35" s="3">
         <v>7651900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3743300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3058400</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42825</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42460</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42094</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41729</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41364</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40999</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,74 +1731,81 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>565800000</v>
+        <v>666908000</v>
       </c>
       <c r="E41" s="3">
-        <v>525887000</v>
+        <v>567653000</v>
       </c>
       <c r="F41" s="3">
-        <v>492191000</v>
+        <v>527610000</v>
       </c>
       <c r="G41" s="3">
-        <v>429288000</v>
+        <v>493802000</v>
       </c>
       <c r="H41" s="3">
-        <v>391949000</v>
+        <v>430694000</v>
       </c>
       <c r="I41" s="3">
-        <v>364101000</v>
+        <v>393233000</v>
       </c>
       <c r="J41" s="3">
+        <v>365293000</v>
+      </c>
+      <c r="K41" s="3">
         <v>302199000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>217778000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>84465200</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>262339000</v>
+        <v>251748000</v>
       </c>
       <c r="E42" s="3">
-        <v>225660000</v>
+        <v>263198000</v>
       </c>
       <c r="F42" s="3">
-        <v>215535000</v>
+        <v>226399000</v>
       </c>
       <c r="G42" s="3">
-        <v>223798000</v>
+        <v>216241000</v>
       </c>
       <c r="H42" s="3">
-        <v>217547000</v>
+        <v>224531000</v>
       </c>
       <c r="I42" s="3">
-        <v>203612000</v>
+        <v>218260000</v>
       </c>
       <c r="J42" s="3">
+        <v>204279000</v>
+      </c>
+      <c r="K42" s="3">
         <v>163523000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>183032000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>39736300</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1744,9 +1836,12 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1777,9 +1872,12 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1810,9 +1908,12 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1843,108 +1944,120 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>8652900</v>
+      <c r="D47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E47" s="3">
-        <v>8938800</v>
+        <v>8681300</v>
       </c>
       <c r="F47" s="3">
-        <v>6257700</v>
+        <v>8968100</v>
       </c>
       <c r="G47" s="3">
-        <v>5537700</v>
+        <v>6278200</v>
       </c>
       <c r="H47" s="3">
-        <v>5591500</v>
+        <v>5555800</v>
       </c>
       <c r="I47" s="3">
-        <v>5346900</v>
+        <v>5609800</v>
       </c>
       <c r="J47" s="3">
+        <v>5364400</v>
+      </c>
+      <c r="K47" s="3">
         <v>3411000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4711900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1868200</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13285000</v>
+        <v>13408100</v>
       </c>
       <c r="E48" s="3">
-        <v>13783100</v>
+        <v>13328500</v>
       </c>
       <c r="F48" s="3">
-        <v>31832200</v>
+        <v>13828200</v>
       </c>
       <c r="G48" s="3">
-        <v>28411000</v>
+        <v>31936500</v>
       </c>
       <c r="H48" s="3">
-        <v>26741900</v>
+        <v>28504100</v>
       </c>
       <c r="I48" s="3">
-        <v>25381000</v>
+        <v>26829500</v>
       </c>
       <c r="J48" s="3">
+        <v>25464100</v>
+      </c>
+      <c r="K48" s="3">
         <v>21496600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>36213000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20247600</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6902800</v>
+        <v>6789200</v>
       </c>
       <c r="E49" s="3">
-        <v>7046200</v>
+        <v>6925400</v>
       </c>
       <c r="F49" s="3">
-        <v>7928700</v>
+        <v>7069200</v>
       </c>
       <c r="G49" s="3">
-        <v>8670000</v>
+        <v>7954700</v>
       </c>
       <c r="H49" s="3">
-        <v>8044900</v>
+        <v>8698400</v>
       </c>
       <c r="I49" s="3">
-        <v>7507200</v>
+        <v>8071300</v>
       </c>
       <c r="J49" s="3">
+        <v>7531800</v>
+      </c>
+      <c r="K49" s="3">
         <v>7510200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>15399600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>16256900</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2353100</v>
+        <v>5471500</v>
       </c>
       <c r="E52" s="3">
-        <v>3386300</v>
+        <v>2360800</v>
       </c>
       <c r="F52" s="3">
-        <v>3765000</v>
+        <v>3397400</v>
       </c>
       <c r="G52" s="3">
-        <v>3461800</v>
+        <v>3777300</v>
       </c>
       <c r="H52" s="3">
-        <v>3014600</v>
+        <v>3473100</v>
       </c>
       <c r="I52" s="3">
-        <v>4617500</v>
+        <v>3024500</v>
       </c>
       <c r="J52" s="3">
+        <v>4632600</v>
+      </c>
+      <c r="K52" s="3">
         <v>2684900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7796700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8355100</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2013950000</v>
+        <v>2229350000</v>
       </c>
       <c r="E54" s="3">
-        <v>1865520000</v>
+        <v>2020550000</v>
       </c>
       <c r="F54" s="3">
-        <v>1823290000</v>
+        <v>1871630000</v>
       </c>
       <c r="G54" s="3">
-        <v>1811770000</v>
+        <v>1829260000</v>
       </c>
       <c r="H54" s="3">
-        <v>1709130000</v>
+        <v>1817700000</v>
       </c>
       <c r="I54" s="3">
-        <v>1680330000</v>
+        <v>1714720000</v>
       </c>
       <c r="J54" s="3">
+        <v>1685840000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1479660000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1343090000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1281880000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,8 +2267,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2170,9 +2300,12 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2203,42 +2336,48 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>707400</v>
+        <v>863200</v>
       </c>
       <c r="E59" s="3">
-        <v>672700</v>
+        <v>709700</v>
       </c>
       <c r="F59" s="3">
-        <v>805200</v>
+        <v>674900</v>
       </c>
       <c r="G59" s="3">
-        <v>736600</v>
+        <v>807900</v>
       </c>
       <c r="H59" s="3">
-        <v>649600</v>
+        <v>739100</v>
       </c>
       <c r="I59" s="3">
-        <v>702600</v>
+        <v>651800</v>
       </c>
       <c r="J59" s="3">
+        <v>704900</v>
+      </c>
+      <c r="K59" s="3">
         <v>681000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4547000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2359800</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2269,75 +2408,84 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>223930000</v>
+        <v>245582000</v>
       </c>
       <c r="E61" s="3">
-        <v>182140000</v>
+        <v>224664000</v>
       </c>
       <c r="F61" s="3">
-        <v>182164000</v>
+        <v>182736000</v>
       </c>
       <c r="G61" s="3">
-        <v>173270000</v>
+        <v>182761000</v>
       </c>
       <c r="H61" s="3">
-        <v>143659000</v>
+        <v>173838000</v>
       </c>
       <c r="I61" s="3">
-        <v>147502000</v>
+        <v>144129000</v>
       </c>
       <c r="J61" s="3">
+        <v>147985000</v>
+      </c>
+      <c r="K61" s="3">
         <v>110944000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>58862700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>94132200</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4596900</v>
+        <v>7145300</v>
       </c>
       <c r="E62" s="3">
-        <v>5715800</v>
+        <v>4611900</v>
       </c>
       <c r="F62" s="3">
-        <v>6548900</v>
+        <v>5734500</v>
       </c>
       <c r="G62" s="3">
-        <v>5722200</v>
+        <v>6570400</v>
       </c>
       <c r="H62" s="3">
-        <v>6394500</v>
+        <v>5740900</v>
       </c>
       <c r="I62" s="3">
-        <v>8097500</v>
+        <v>6415400</v>
       </c>
       <c r="J62" s="3">
+        <v>8124000</v>
+      </c>
+      <c r="K62" s="3">
         <v>3803400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6030000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1152100</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1915740000</v>
+        <v>2120650000</v>
       </c>
       <c r="E66" s="3">
-        <v>1766840000</v>
+        <v>1922010000</v>
       </c>
       <c r="F66" s="3">
-        <v>1728090000</v>
+        <v>1772620000</v>
       </c>
       <c r="G66" s="3">
-        <v>1722600000</v>
+        <v>1733750000</v>
       </c>
       <c r="H66" s="3">
-        <v>1627450000</v>
+        <v>1728240000</v>
       </c>
       <c r="I66" s="3">
-        <v>1597670000</v>
+        <v>1632780000</v>
       </c>
       <c r="J66" s="3">
+        <v>1602900000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1412960000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1284350000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1233310000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>58059500</v>
+        <v>59683300</v>
       </c>
       <c r="E72" s="3">
-        <v>54932500</v>
+        <v>58249700</v>
       </c>
       <c r="F72" s="3">
-        <v>50887400</v>
+        <v>55112400</v>
       </c>
       <c r="G72" s="3">
-        <v>46168600</v>
+        <v>51054100</v>
       </c>
       <c r="H72" s="3">
-        <v>41562200</v>
+        <v>46319800</v>
       </c>
       <c r="I72" s="3">
-        <v>37562500</v>
+        <v>41698300</v>
       </c>
       <c r="J72" s="3">
+        <v>37685500</v>
+      </c>
+      <c r="K72" s="3">
         <v>31894000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>57285400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>21765900</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>98213800</v>
+        <v>108701000</v>
       </c>
       <c r="E76" s="3">
-        <v>98681300</v>
+        <v>98535500</v>
       </c>
       <c r="F76" s="3">
-        <v>95202500</v>
+        <v>99004500</v>
       </c>
       <c r="G76" s="3">
-        <v>89172800</v>
+        <v>95514300</v>
       </c>
       <c r="H76" s="3">
-        <v>81676500</v>
+        <v>89464900</v>
       </c>
       <c r="I76" s="3">
-        <v>82664700</v>
+        <v>81944000</v>
       </c>
       <c r="J76" s="3">
+        <v>82935500</v>
+      </c>
+      <c r="K76" s="3">
         <v>66693800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>58740700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>48567700</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42825</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42460</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42094</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41729</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41364</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40999</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6447600</v>
+        <v>4712700</v>
       </c>
       <c r="E81" s="3">
-        <v>6656400</v>
+        <v>6468700</v>
       </c>
       <c r="F81" s="3">
-        <v>6726800</v>
+        <v>6678200</v>
       </c>
       <c r="G81" s="3">
-        <v>6471700</v>
+        <v>6748800</v>
       </c>
       <c r="H81" s="3">
-        <v>5923700</v>
+        <v>6492900</v>
       </c>
       <c r="I81" s="3">
-        <v>6903100</v>
+        <v>5943100</v>
       </c>
       <c r="J81" s="3">
+        <v>6925700</v>
+      </c>
+      <c r="K81" s="3">
         <v>7651900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3743300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3058400</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2076900</v>
+        <v>2087800</v>
       </c>
       <c r="E83" s="3">
-        <v>2701500</v>
+        <v>2083700</v>
       </c>
       <c r="F83" s="3">
-        <v>2809900</v>
+        <v>2710400</v>
       </c>
       <c r="G83" s="3">
-        <v>2787000</v>
+        <v>2819100</v>
       </c>
       <c r="H83" s="3">
-        <v>2436700</v>
+        <v>2796100</v>
       </c>
       <c r="I83" s="3">
-        <v>2278200</v>
+        <v>2444700</v>
       </c>
       <c r="J83" s="3">
+        <v>2285700</v>
+      </c>
+      <c r="K83" s="3">
         <v>2111000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2037600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1563500</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>64921900</v>
+        <v>172734800</v>
       </c>
       <c r="E89" s="3">
-        <v>42115500</v>
+        <v>65134500</v>
       </c>
       <c r="F89" s="3">
-        <v>85594400</v>
+        <v>42253400</v>
       </c>
       <c r="G89" s="3">
-        <v>41378600</v>
+        <v>85874700</v>
       </c>
       <c r="H89" s="3">
-        <v>-10325600</v>
+        <v>41514200</v>
       </c>
       <c r="I89" s="3">
-        <v>74998300</v>
+        <v>-10359400</v>
       </c>
       <c r="J89" s="3">
+        <v>75243900</v>
+      </c>
+      <c r="K89" s="3">
         <v>76062400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>21574500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>11941900</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-944000</v>
+        <v>-1341200</v>
       </c>
       <c r="E91" s="3">
-        <v>-4673600</v>
+        <v>-947000</v>
       </c>
       <c r="F91" s="3">
-        <v>-6527100</v>
+        <v>-4688900</v>
       </c>
       <c r="G91" s="3">
-        <v>-4541700</v>
+        <v>-6548500</v>
       </c>
       <c r="H91" s="3">
-        <v>-4848100</v>
+        <v>-4556600</v>
       </c>
       <c r="I91" s="3">
-        <v>-5303300</v>
+        <v>-4863900</v>
       </c>
       <c r="J91" s="3">
+        <v>-5320700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4260700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5273500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1175100</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-27586800</v>
+        <v>-70578100</v>
       </c>
       <c r="E94" s="3">
-        <v>9217300</v>
+        <v>-27677200</v>
       </c>
       <c r="F94" s="3">
-        <v>-31100900</v>
+        <v>9247500</v>
       </c>
       <c r="G94" s="3">
-        <v>5325100</v>
+        <v>-31202800</v>
       </c>
       <c r="H94" s="3">
-        <v>48007100</v>
+        <v>5342600</v>
       </c>
       <c r="I94" s="3">
-        <v>-13347800</v>
+        <v>48164300</v>
       </c>
       <c r="J94" s="3">
+        <v>-13391600</v>
+      </c>
+      <c r="K94" s="3">
         <v>133008000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>12797800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-22347400</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2342900</v>
+        <v>-2454800</v>
       </c>
       <c r="E96" s="3">
-        <v>-2249600</v>
+        <v>-2350500</v>
       </c>
       <c r="F96" s="3">
-        <v>-2002100</v>
+        <v>-2257000</v>
       </c>
       <c r="G96" s="3">
-        <v>-1878500</v>
+        <v>-2008600</v>
       </c>
       <c r="H96" s="3">
-        <v>-1941500</v>
+        <v>-1884700</v>
       </c>
       <c r="I96" s="3">
-        <v>-1565600</v>
+        <v>-1947800</v>
       </c>
       <c r="J96" s="3">
+        <v>-1570700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1557000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2458000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1283000</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-9384900</v>
+        <v>-5170100</v>
       </c>
       <c r="E100" s="3">
-        <v>-5796600</v>
+        <v>-9415700</v>
       </c>
       <c r="F100" s="3">
-        <v>-3210300</v>
+        <v>-5815600</v>
       </c>
       <c r="G100" s="3">
-        <v>-1525400</v>
+        <v>-3220800</v>
       </c>
       <c r="H100" s="3">
-        <v>-512900</v>
+        <v>-1530400</v>
       </c>
       <c r="I100" s="3">
-        <v>-2771700</v>
+        <v>-514600</v>
       </c>
       <c r="J100" s="3">
+        <v>-2780800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-9515500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6725300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2759000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-682200</v>
+        <v>1469600</v>
       </c>
       <c r="E101" s="3">
-        <v>1526500</v>
+        <v>-684500</v>
       </c>
       <c r="F101" s="3">
-        <v>-859900</v>
+        <v>1531500</v>
       </c>
       <c r="G101" s="3">
-        <v>-96700</v>
+        <v>-862700</v>
       </c>
       <c r="H101" s="3">
-        <v>-912100</v>
+        <v>-97000</v>
       </c>
       <c r="I101" s="3">
-        <v>1627800</v>
+        <v>-915100</v>
       </c>
       <c r="J101" s="3">
+        <v>1633100</v>
+      </c>
+      <c r="K101" s="3">
         <v>51100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5676200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-557600</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>27267900</v>
+        <v>98456200</v>
       </c>
       <c r="E102" s="3">
-        <v>47062700</v>
+        <v>27357200</v>
       </c>
       <c r="F102" s="3">
-        <v>50423200</v>
+        <v>47216800</v>
       </c>
       <c r="G102" s="3">
-        <v>45081700</v>
+        <v>50588400</v>
       </c>
       <c r="H102" s="3">
-        <v>36256400</v>
+        <v>45229400</v>
       </c>
       <c r="I102" s="3">
-        <v>60506500</v>
+        <v>36375200</v>
       </c>
       <c r="J102" s="3">
+        <v>60704700</v>
+      </c>
+      <c r="K102" s="3">
         <v>199606000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>33323200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-13722100</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SMFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SMFG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>SMFG</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17029500</v>
+        <v>16881200</v>
       </c>
       <c r="E8" s="3">
-        <v>22574000</v>
+        <v>22377500</v>
       </c>
       <c r="F8" s="3">
-        <v>22873100</v>
+        <v>22673900</v>
       </c>
       <c r="G8" s="3">
-        <v>19903600</v>
+        <v>19730400</v>
       </c>
       <c r="H8" s="3">
-        <v>17571500</v>
+        <v>17418600</v>
       </c>
       <c r="I8" s="3">
-        <v>17169800</v>
+        <v>17020400</v>
       </c>
       <c r="J8" s="3">
-        <v>17386900</v>
+        <v>17235500</v>
       </c>
       <c r="K8" s="3">
         <v>16534000</v>
@@ -951,11 +951,11 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
+      <c r="D15" s="3">
+        <v>-1660200</v>
       </c>
       <c r="E15" s="3">
-        <v>-1661200</v>
+        <v>-1646800</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>5</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6790000</v>
+        <v>7800500</v>
       </c>
       <c r="E17" s="3">
-        <v>12344300</v>
+        <v>12236900</v>
       </c>
       <c r="F17" s="3">
-        <v>11452000</v>
+        <v>11352300</v>
       </c>
       <c r="G17" s="3">
-        <v>7894200</v>
+        <v>7825400</v>
       </c>
       <c r="H17" s="3">
-        <v>6460700</v>
+        <v>6404400</v>
       </c>
       <c r="I17" s="3">
-        <v>4913600</v>
+        <v>4870900</v>
       </c>
       <c r="J17" s="3">
-        <v>3553000</v>
+        <v>3522000</v>
       </c>
       <c r="K17" s="3">
         <v>2380800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10239500</v>
+        <v>9080700</v>
       </c>
       <c r="E18" s="3">
-        <v>10229700</v>
+        <v>10140600</v>
       </c>
       <c r="F18" s="3">
-        <v>11421100</v>
+        <v>11321700</v>
       </c>
       <c r="G18" s="3">
-        <v>12009500</v>
+        <v>11904900</v>
       </c>
       <c r="H18" s="3">
-        <v>11110900</v>
+        <v>11014100</v>
       </c>
       <c r="I18" s="3">
-        <v>12256200</v>
+        <v>12149500</v>
       </c>
       <c r="J18" s="3">
-        <v>13833900</v>
+        <v>13713500</v>
       </c>
       <c r="K18" s="3">
         <v>14153200</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4061600</v>
+        <v>-2956600</v>
       </c>
       <c r="E20" s="3">
-        <v>-2063000</v>
+        <v>-2045100</v>
       </c>
       <c r="F20" s="3">
-        <v>-1095400</v>
+        <v>-1085800</v>
       </c>
       <c r="G20" s="3">
-        <v>-1819100</v>
+        <v>-1803300</v>
       </c>
       <c r="H20" s="3">
-        <v>-2111100</v>
+        <v>-2092700</v>
       </c>
       <c r="I20" s="3">
-        <v>-3248400</v>
+        <v>-3220100</v>
       </c>
       <c r="J20" s="3">
-        <v>-1800700</v>
+        <v>-1785000</v>
       </c>
       <c r="K20" s="3">
         <v>-1121300</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8267900</v>
+        <v>8193700</v>
       </c>
       <c r="E21" s="3">
-        <v>10252600</v>
+        <v>10161100</v>
       </c>
       <c r="F21" s="3">
-        <v>13039000</v>
+        <v>12922600</v>
       </c>
       <c r="G21" s="3">
-        <v>13012500</v>
+        <v>12896200</v>
       </c>
       <c r="H21" s="3">
-        <v>11799000</v>
+        <v>11693300</v>
       </c>
       <c r="I21" s="3">
-        <v>11455100</v>
+        <v>11352800</v>
       </c>
       <c r="J21" s="3">
-        <v>14321400</v>
+        <v>14194200</v>
       </c>
       <c r="K21" s="3">
         <v>15152100</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6177900</v>
+        <v>6124100</v>
       </c>
       <c r="E23" s="3">
-        <v>8166700</v>
+        <v>8095600</v>
       </c>
       <c r="F23" s="3">
-        <v>10325700</v>
+        <v>10235800</v>
       </c>
       <c r="G23" s="3">
-        <v>10190300</v>
+        <v>10101600</v>
       </c>
       <c r="H23" s="3">
-        <v>8999800</v>
+        <v>8921500</v>
       </c>
       <c r="I23" s="3">
-        <v>9007800</v>
+        <v>8929300</v>
       </c>
       <c r="J23" s="3">
-        <v>12033200</v>
+        <v>11928400</v>
       </c>
       <c r="K23" s="3">
         <v>13031900</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1436800</v>
+        <v>1424300</v>
       </c>
       <c r="E24" s="3">
-        <v>1541000</v>
+        <v>1527600</v>
       </c>
       <c r="F24" s="3">
-        <v>3045800</v>
+        <v>3019300</v>
       </c>
       <c r="G24" s="3">
-        <v>2486100</v>
+        <v>2464500</v>
       </c>
       <c r="H24" s="3">
-        <v>1571000</v>
+        <v>1557400</v>
       </c>
       <c r="I24" s="3">
-        <v>2068200</v>
+        <v>2050200</v>
       </c>
       <c r="J24" s="3">
-        <v>4056100</v>
+        <v>4020800</v>
       </c>
       <c r="K24" s="3">
         <v>4202700</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4741000</v>
+        <v>4699800</v>
       </c>
       <c r="E26" s="3">
-        <v>6625600</v>
+        <v>6568000</v>
       </c>
       <c r="F26" s="3">
-        <v>7279900</v>
+        <v>7216500</v>
       </c>
       <c r="G26" s="3">
-        <v>7704200</v>
+        <v>7637100</v>
       </c>
       <c r="H26" s="3">
-        <v>7428800</v>
+        <v>7364100</v>
       </c>
       <c r="I26" s="3">
-        <v>6939600</v>
+        <v>6879200</v>
       </c>
       <c r="J26" s="3">
-        <v>7977100</v>
+        <v>7907600</v>
       </c>
       <c r="K26" s="3">
         <v>8829200</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4712700</v>
+        <v>4671700</v>
       </c>
       <c r="E27" s="3">
-        <v>6468700</v>
+        <v>6412400</v>
       </c>
       <c r="F27" s="3">
-        <v>6678200</v>
+        <v>6620100</v>
       </c>
       <c r="G27" s="3">
-        <v>6748800</v>
+        <v>6690100</v>
       </c>
       <c r="H27" s="3">
-        <v>6492900</v>
+        <v>6436400</v>
       </c>
       <c r="I27" s="3">
-        <v>5943100</v>
+        <v>5891300</v>
       </c>
       <c r="J27" s="3">
-        <v>6925700</v>
+        <v>6865400</v>
       </c>
       <c r="K27" s="3">
         <v>7651900</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4061600</v>
+        <v>2956600</v>
       </c>
       <c r="E32" s="3">
-        <v>2063000</v>
+        <v>2045100</v>
       </c>
       <c r="F32" s="3">
-        <v>1095400</v>
+        <v>1085800</v>
       </c>
       <c r="G32" s="3">
-        <v>1819100</v>
+        <v>1803300</v>
       </c>
       <c r="H32" s="3">
-        <v>2111100</v>
+        <v>2092700</v>
       </c>
       <c r="I32" s="3">
-        <v>3248400</v>
+        <v>3220100</v>
       </c>
       <c r="J32" s="3">
-        <v>1800700</v>
+        <v>1785000</v>
       </c>
       <c r="K32" s="3">
         <v>1121300</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4712700</v>
+        <v>4671700</v>
       </c>
       <c r="E33" s="3">
-        <v>6468700</v>
+        <v>6412400</v>
       </c>
       <c r="F33" s="3">
-        <v>6678200</v>
+        <v>6620100</v>
       </c>
       <c r="G33" s="3">
-        <v>6748800</v>
+        <v>6690100</v>
       </c>
       <c r="H33" s="3">
-        <v>6492900</v>
+        <v>6436400</v>
       </c>
       <c r="I33" s="3">
-        <v>5943100</v>
+        <v>5891300</v>
       </c>
       <c r="J33" s="3">
-        <v>6925700</v>
+        <v>6865400</v>
       </c>
       <c r="K33" s="3">
         <v>7651900</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4712700</v>
+        <v>4671700</v>
       </c>
       <c r="E35" s="3">
-        <v>6468700</v>
+        <v>6412400</v>
       </c>
       <c r="F35" s="3">
-        <v>6678200</v>
+        <v>6620100</v>
       </c>
       <c r="G35" s="3">
-        <v>6748800</v>
+        <v>6690100</v>
       </c>
       <c r="H35" s="3">
-        <v>6492900</v>
+        <v>6436400</v>
       </c>
       <c r="I35" s="3">
-        <v>5943100</v>
+        <v>5891300</v>
       </c>
       <c r="J35" s="3">
-        <v>6925700</v>
+        <v>6865400</v>
       </c>
       <c r="K35" s="3">
         <v>7651900</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>666908000</v>
+        <v>661103000</v>
       </c>
       <c r="E41" s="3">
-        <v>567653000</v>
+        <v>562712000</v>
       </c>
       <c r="F41" s="3">
-        <v>527610000</v>
+        <v>523017000</v>
       </c>
       <c r="G41" s="3">
-        <v>493802000</v>
+        <v>489504000</v>
       </c>
       <c r="H41" s="3">
-        <v>430694000</v>
+        <v>426945000</v>
       </c>
       <c r="I41" s="3">
-        <v>393233000</v>
+        <v>389810000</v>
       </c>
       <c r="J41" s="3">
-        <v>365293000</v>
+        <v>362113000</v>
       </c>
       <c r="K41" s="3">
         <v>302199000</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>251748000</v>
+        <v>249556000</v>
       </c>
       <c r="E42" s="3">
-        <v>263198000</v>
+        <v>260907000</v>
       </c>
       <c r="F42" s="3">
-        <v>226399000</v>
+        <v>224428000</v>
       </c>
       <c r="G42" s="3">
-        <v>216241000</v>
+        <v>214359000</v>
       </c>
       <c r="H42" s="3">
-        <v>224531000</v>
+        <v>222577000</v>
       </c>
       <c r="I42" s="3">
-        <v>218260000</v>
+        <v>216360000</v>
       </c>
       <c r="J42" s="3">
-        <v>204279000</v>
+        <v>202501000</v>
       </c>
       <c r="K42" s="3">
         <v>163523000</v>
@@ -1953,26 +1953,26 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
+      <c r="D47" s="3">
+        <v>8760900</v>
       </c>
       <c r="E47" s="3">
-        <v>8681300</v>
+        <v>8605700</v>
       </c>
       <c r="F47" s="3">
-        <v>8968100</v>
+        <v>8890000</v>
       </c>
       <c r="G47" s="3">
-        <v>6278200</v>
+        <v>6223500</v>
       </c>
       <c r="H47" s="3">
-        <v>5555800</v>
+        <v>5507400</v>
       </c>
       <c r="I47" s="3">
-        <v>5609800</v>
+        <v>5560900</v>
       </c>
       <c r="J47" s="3">
-        <v>5364400</v>
+        <v>5317700</v>
       </c>
       <c r="K47" s="3">
         <v>3411000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13408100</v>
+        <v>13291400</v>
       </c>
       <c r="E48" s="3">
-        <v>13328500</v>
+        <v>13212400</v>
       </c>
       <c r="F48" s="3">
-        <v>13828200</v>
+        <v>13707800</v>
       </c>
       <c r="G48" s="3">
-        <v>31936500</v>
+        <v>31658400</v>
       </c>
       <c r="H48" s="3">
-        <v>28504100</v>
+        <v>28256000</v>
       </c>
       <c r="I48" s="3">
-        <v>26829500</v>
+        <v>26596000</v>
       </c>
       <c r="J48" s="3">
-        <v>25464100</v>
+        <v>25242500</v>
       </c>
       <c r="K48" s="3">
         <v>21496600</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6789200</v>
+        <v>6730100</v>
       </c>
       <c r="E49" s="3">
-        <v>6925400</v>
+        <v>6865100</v>
       </c>
       <c r="F49" s="3">
-        <v>7069200</v>
+        <v>7007700</v>
       </c>
       <c r="G49" s="3">
-        <v>7954700</v>
+        <v>7885500</v>
       </c>
       <c r="H49" s="3">
-        <v>8698400</v>
+        <v>8622700</v>
       </c>
       <c r="I49" s="3">
-        <v>8071300</v>
+        <v>8001000</v>
       </c>
       <c r="J49" s="3">
-        <v>7531800</v>
+        <v>7466200</v>
       </c>
       <c r="K49" s="3">
         <v>7510200</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5471500</v>
+        <v>5423900</v>
       </c>
       <c r="E52" s="3">
-        <v>2360800</v>
+        <v>2340200</v>
       </c>
       <c r="F52" s="3">
-        <v>3397400</v>
+        <v>3367800</v>
       </c>
       <c r="G52" s="3">
-        <v>3777300</v>
+        <v>3744500</v>
       </c>
       <c r="H52" s="3">
-        <v>3473100</v>
+        <v>3442900</v>
       </c>
       <c r="I52" s="3">
-        <v>3024500</v>
+        <v>2998200</v>
       </c>
       <c r="J52" s="3">
-        <v>4632600</v>
+        <v>4592300</v>
       </c>
       <c r="K52" s="3">
         <v>2684900</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2229350000</v>
+        <v>2209940000</v>
       </c>
       <c r="E54" s="3">
-        <v>2020550000</v>
+        <v>2002960000</v>
       </c>
       <c r="F54" s="3">
-        <v>1871630000</v>
+        <v>1855330000</v>
       </c>
       <c r="G54" s="3">
-        <v>1829260000</v>
+        <v>1813340000</v>
       </c>
       <c r="H54" s="3">
-        <v>1817700000</v>
+        <v>1801880000</v>
       </c>
       <c r="I54" s="3">
-        <v>1714720000</v>
+        <v>1699800000</v>
       </c>
       <c r="J54" s="3">
-        <v>1685840000</v>
+        <v>1671160000</v>
       </c>
       <c r="K54" s="3">
         <v>1479660000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>863200</v>
+        <v>855700</v>
       </c>
       <c r="E59" s="3">
-        <v>709700</v>
+        <v>703600</v>
       </c>
       <c r="F59" s="3">
-        <v>674900</v>
+        <v>669100</v>
       </c>
       <c r="G59" s="3">
-        <v>807900</v>
+        <v>800800</v>
       </c>
       <c r="H59" s="3">
-        <v>739100</v>
+        <v>732600</v>
       </c>
       <c r="I59" s="3">
-        <v>651800</v>
+        <v>646100</v>
       </c>
       <c r="J59" s="3">
-        <v>704900</v>
+        <v>698800</v>
       </c>
       <c r="K59" s="3">
         <v>681000</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>245582000</v>
+        <v>243444000</v>
       </c>
       <c r="E61" s="3">
-        <v>224664000</v>
+        <v>222708000</v>
       </c>
       <c r="F61" s="3">
-        <v>182736000</v>
+        <v>181146000</v>
       </c>
       <c r="G61" s="3">
-        <v>182761000</v>
+        <v>181170000</v>
       </c>
       <c r="H61" s="3">
-        <v>173838000</v>
+        <v>172324000</v>
       </c>
       <c r="I61" s="3">
-        <v>144129000</v>
+        <v>142875000</v>
       </c>
       <c r="J61" s="3">
-        <v>147985000</v>
+        <v>146697000</v>
       </c>
       <c r="K61" s="3">
         <v>110944000</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7145300</v>
+        <v>7083100</v>
       </c>
       <c r="E62" s="3">
-        <v>4611900</v>
+        <v>4571800</v>
       </c>
       <c r="F62" s="3">
-        <v>5734500</v>
+        <v>5684600</v>
       </c>
       <c r="G62" s="3">
-        <v>6570400</v>
+        <v>6513200</v>
       </c>
       <c r="H62" s="3">
-        <v>5740900</v>
+        <v>5690900</v>
       </c>
       <c r="I62" s="3">
-        <v>6415400</v>
+        <v>6359600</v>
       </c>
       <c r="J62" s="3">
-        <v>8124000</v>
+        <v>8053300</v>
       </c>
       <c r="K62" s="3">
         <v>3803400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2120650000</v>
+        <v>2102190000</v>
       </c>
       <c r="E66" s="3">
-        <v>1922010000</v>
+        <v>1905280000</v>
       </c>
       <c r="F66" s="3">
-        <v>1772620000</v>
+        <v>1757190000</v>
       </c>
       <c r="G66" s="3">
-        <v>1733750000</v>
+        <v>1718650000</v>
       </c>
       <c r="H66" s="3">
-        <v>1728240000</v>
+        <v>1713200000</v>
       </c>
       <c r="I66" s="3">
-        <v>1632780000</v>
+        <v>1618570000</v>
       </c>
       <c r="J66" s="3">
-        <v>1602900000</v>
+        <v>1588950000</v>
       </c>
       <c r="K66" s="3">
         <v>1412960000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>59683300</v>
+        <v>59163800</v>
       </c>
       <c r="E72" s="3">
-        <v>58249700</v>
+        <v>57742600</v>
       </c>
       <c r="F72" s="3">
-        <v>55112400</v>
+        <v>54632600</v>
       </c>
       <c r="G72" s="3">
-        <v>51054100</v>
+        <v>50609700</v>
       </c>
       <c r="H72" s="3">
-        <v>46319800</v>
+        <v>45916600</v>
       </c>
       <c r="I72" s="3">
-        <v>41698300</v>
+        <v>41335300</v>
       </c>
       <c r="J72" s="3">
-        <v>37685500</v>
+        <v>37357500</v>
       </c>
       <c r="K72" s="3">
         <v>31894000</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>108701000</v>
+        <v>107755000</v>
       </c>
       <c r="E76" s="3">
-        <v>98535500</v>
+        <v>97677700</v>
       </c>
       <c r="F76" s="3">
-        <v>99004500</v>
+        <v>98142700</v>
       </c>
       <c r="G76" s="3">
-        <v>95514300</v>
+        <v>94682900</v>
       </c>
       <c r="H76" s="3">
-        <v>89464900</v>
+        <v>88686100</v>
       </c>
       <c r="I76" s="3">
-        <v>81944000</v>
+        <v>81230700</v>
       </c>
       <c r="J76" s="3">
-        <v>82935500</v>
+        <v>82213500</v>
       </c>
       <c r="K76" s="3">
         <v>66693800</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4712700</v>
+        <v>4671700</v>
       </c>
       <c r="E81" s="3">
-        <v>6468700</v>
+        <v>6412400</v>
       </c>
       <c r="F81" s="3">
-        <v>6678200</v>
+        <v>6620100</v>
       </c>
       <c r="G81" s="3">
-        <v>6748800</v>
+        <v>6690100</v>
       </c>
       <c r="H81" s="3">
-        <v>6492900</v>
+        <v>6436400</v>
       </c>
       <c r="I81" s="3">
-        <v>5943100</v>
+        <v>5891300</v>
       </c>
       <c r="J81" s="3">
-        <v>6925700</v>
+        <v>6865400</v>
       </c>
       <c r="K81" s="3">
         <v>7651900</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2087800</v>
+        <v>2069600</v>
       </c>
       <c r="E83" s="3">
-        <v>2083700</v>
+        <v>2065500</v>
       </c>
       <c r="F83" s="3">
-        <v>2710400</v>
+        <v>2686800</v>
       </c>
       <c r="G83" s="3">
-        <v>2819100</v>
+        <v>2794600</v>
       </c>
       <c r="H83" s="3">
-        <v>2796100</v>
+        <v>2771800</v>
       </c>
       <c r="I83" s="3">
-        <v>2444700</v>
+        <v>2423400</v>
       </c>
       <c r="J83" s="3">
-        <v>2285700</v>
+        <v>2265800</v>
       </c>
       <c r="K83" s="3">
         <v>2111000</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>172734800</v>
+        <v>171231100</v>
       </c>
       <c r="E89" s="3">
-        <v>65134500</v>
+        <v>64567500</v>
       </c>
       <c r="F89" s="3">
-        <v>42253400</v>
+        <v>41885600</v>
       </c>
       <c r="G89" s="3">
-        <v>85874700</v>
+        <v>85127100</v>
       </c>
       <c r="H89" s="3">
-        <v>41514200</v>
+        <v>41152800</v>
       </c>
       <c r="I89" s="3">
-        <v>-10359400</v>
+        <v>-10269200</v>
       </c>
       <c r="J89" s="3">
-        <v>75243900</v>
+        <v>74588900</v>
       </c>
       <c r="K89" s="3">
         <v>76062400</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1341200</v>
+        <v>-1329600</v>
       </c>
       <c r="E91" s="3">
-        <v>-947000</v>
+        <v>-938800</v>
       </c>
       <c r="F91" s="3">
-        <v>-4688900</v>
+        <v>-4648000</v>
       </c>
       <c r="G91" s="3">
-        <v>-6548500</v>
+        <v>-6491400</v>
       </c>
       <c r="H91" s="3">
-        <v>-4556600</v>
+        <v>-4516900</v>
       </c>
       <c r="I91" s="3">
-        <v>-4863900</v>
+        <v>-4821600</v>
       </c>
       <c r="J91" s="3">
-        <v>-5320700</v>
+        <v>-5274400</v>
       </c>
       <c r="K91" s="3">
         <v>-4260700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-70578100</v>
+        <v>-69963700</v>
       </c>
       <c r="E94" s="3">
-        <v>-27677200</v>
+        <v>-27436200</v>
       </c>
       <c r="F94" s="3">
-        <v>9247500</v>
+        <v>9167000</v>
       </c>
       <c r="G94" s="3">
-        <v>-31202800</v>
+        <v>-30931200</v>
       </c>
       <c r="H94" s="3">
-        <v>5342600</v>
+        <v>5296100</v>
       </c>
       <c r="I94" s="3">
-        <v>48164300</v>
+        <v>47745100</v>
       </c>
       <c r="J94" s="3">
-        <v>-13391600</v>
+        <v>-13275000</v>
       </c>
       <c r="K94" s="3">
         <v>133008000</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2454800</v>
+        <v>-2433500</v>
       </c>
       <c r="E96" s="3">
-        <v>-2350500</v>
+        <v>-2330100</v>
       </c>
       <c r="F96" s="3">
-        <v>-2257000</v>
+        <v>-2237400</v>
       </c>
       <c r="G96" s="3">
-        <v>-2008600</v>
+        <v>-1991200</v>
       </c>
       <c r="H96" s="3">
-        <v>-1884700</v>
+        <v>-1868300</v>
       </c>
       <c r="I96" s="3">
-        <v>-1947800</v>
+        <v>-1930900</v>
       </c>
       <c r="J96" s="3">
-        <v>-1570700</v>
+        <v>-1557100</v>
       </c>
       <c r="K96" s="3">
         <v>-1557000</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5170100</v>
+        <v>-5125100</v>
       </c>
       <c r="E100" s="3">
-        <v>-9415700</v>
+        <v>-9333700</v>
       </c>
       <c r="F100" s="3">
-        <v>-5815600</v>
+        <v>-5765000</v>
       </c>
       <c r="G100" s="3">
-        <v>-3220800</v>
+        <v>-3192800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1530400</v>
+        <v>-1517000</v>
       </c>
       <c r="I100" s="3">
-        <v>-514600</v>
+        <v>-510100</v>
       </c>
       <c r="J100" s="3">
-        <v>-2780800</v>
+        <v>-2756600</v>
       </c>
       <c r="K100" s="3">
         <v>-9515500</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1469600</v>
+        <v>1456800</v>
       </c>
       <c r="E101" s="3">
-        <v>-684500</v>
+        <v>-678500</v>
       </c>
       <c r="F101" s="3">
-        <v>1531500</v>
+        <v>1518100</v>
       </c>
       <c r="G101" s="3">
-        <v>-862700</v>
+        <v>-855200</v>
       </c>
       <c r="H101" s="3">
-        <v>-97000</v>
+        <v>-96200</v>
       </c>
       <c r="I101" s="3">
-        <v>-915100</v>
+        <v>-907200</v>
       </c>
       <c r="J101" s="3">
-        <v>1633100</v>
+        <v>1618900</v>
       </c>
       <c r="K101" s="3">
         <v>51100</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>98456200</v>
+        <v>97599100</v>
       </c>
       <c r="E102" s="3">
-        <v>27357200</v>
+        <v>27119100</v>
       </c>
       <c r="F102" s="3">
-        <v>47216800</v>
+        <v>46805800</v>
       </c>
       <c r="G102" s="3">
-        <v>50588400</v>
+        <v>50148000</v>
       </c>
       <c r="H102" s="3">
-        <v>45229400</v>
+        <v>44835700</v>
       </c>
       <c r="I102" s="3">
-        <v>36375200</v>
+        <v>36058500</v>
       </c>
       <c r="J102" s="3">
-        <v>60704700</v>
+        <v>60176300</v>
       </c>
       <c r="K102" s="3">
         <v>199606000</v>

--- a/AAII_Financials/Yearly/SMFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SMFG_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16881200</v>
+        <v>16325300</v>
       </c>
       <c r="E8" s="3">
-        <v>22377500</v>
+        <v>21640600</v>
       </c>
       <c r="F8" s="3">
-        <v>22673900</v>
+        <v>21927300</v>
       </c>
       <c r="G8" s="3">
-        <v>19730400</v>
+        <v>19080600</v>
       </c>
       <c r="H8" s="3">
-        <v>17418600</v>
+        <v>16845000</v>
       </c>
       <c r="I8" s="3">
-        <v>17020400</v>
+        <v>16459900</v>
       </c>
       <c r="J8" s="3">
-        <v>17235500</v>
+        <v>16667900</v>
       </c>
       <c r="K8" s="3">
         <v>16534000</v>
@@ -952,10 +952,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1660200</v>
+        <v>-1605500</v>
       </c>
       <c r="E15" s="3">
-        <v>-1646800</v>
+        <v>-1592500</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>5</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7800500</v>
+        <v>7543700</v>
       </c>
       <c r="E17" s="3">
-        <v>12236900</v>
+        <v>11833900</v>
       </c>
       <c r="F17" s="3">
-        <v>11352300</v>
+        <v>10978400</v>
       </c>
       <c r="G17" s="3">
-        <v>7825400</v>
+        <v>7567700</v>
       </c>
       <c r="H17" s="3">
-        <v>6404400</v>
+        <v>6193500</v>
       </c>
       <c r="I17" s="3">
-        <v>4870900</v>
+        <v>4710500</v>
       </c>
       <c r="J17" s="3">
-        <v>3522000</v>
+        <v>3406100</v>
       </c>
       <c r="K17" s="3">
         <v>2380800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9080700</v>
+        <v>8781600</v>
       </c>
       <c r="E18" s="3">
-        <v>10140600</v>
+        <v>9806700</v>
       </c>
       <c r="F18" s="3">
-        <v>11321700</v>
+        <v>10948800</v>
       </c>
       <c r="G18" s="3">
-        <v>11904900</v>
+        <v>11512900</v>
       </c>
       <c r="H18" s="3">
-        <v>11014100</v>
+        <v>10651400</v>
       </c>
       <c r="I18" s="3">
-        <v>12149500</v>
+        <v>11749400</v>
       </c>
       <c r="J18" s="3">
-        <v>13713500</v>
+        <v>13261900</v>
       </c>
       <c r="K18" s="3">
         <v>14153200</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2956600</v>
+        <v>-2859200</v>
       </c>
       <c r="E20" s="3">
-        <v>-2045100</v>
+        <v>-1977700</v>
       </c>
       <c r="F20" s="3">
-        <v>-1085800</v>
+        <v>-1050100</v>
       </c>
       <c r="G20" s="3">
-        <v>-1803300</v>
+        <v>-1743900</v>
       </c>
       <c r="H20" s="3">
-        <v>-2092700</v>
+        <v>-2023800</v>
       </c>
       <c r="I20" s="3">
-        <v>-3220100</v>
+        <v>-3114100</v>
       </c>
       <c r="J20" s="3">
-        <v>-1785000</v>
+        <v>-1726300</v>
       </c>
       <c r="K20" s="3">
         <v>-1121300</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8193700</v>
+        <v>7928400</v>
       </c>
       <c r="E21" s="3">
-        <v>10161100</v>
+        <v>9831000</v>
       </c>
       <c r="F21" s="3">
-        <v>12922600</v>
+        <v>12503000</v>
       </c>
       <c r="G21" s="3">
-        <v>12896200</v>
+        <v>12477700</v>
       </c>
       <c r="H21" s="3">
-        <v>11693300</v>
+        <v>11314300</v>
       </c>
       <c r="I21" s="3">
-        <v>11352800</v>
+        <v>10984200</v>
       </c>
       <c r="J21" s="3">
-        <v>14194200</v>
+        <v>13731800</v>
       </c>
       <c r="K21" s="3">
         <v>15152100</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6124100</v>
+        <v>5922400</v>
       </c>
       <c r="E23" s="3">
-        <v>8095600</v>
+        <v>7829000</v>
       </c>
       <c r="F23" s="3">
-        <v>10235800</v>
+        <v>9898700</v>
       </c>
       <c r="G23" s="3">
-        <v>10101600</v>
+        <v>9769000</v>
       </c>
       <c r="H23" s="3">
-        <v>8921500</v>
+        <v>8627700</v>
       </c>
       <c r="I23" s="3">
-        <v>8929300</v>
+        <v>8635300</v>
       </c>
       <c r="J23" s="3">
-        <v>11928400</v>
+        <v>11535600</v>
       </c>
       <c r="K23" s="3">
         <v>13031900</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1424300</v>
+        <v>1377400</v>
       </c>
       <c r="E24" s="3">
-        <v>1527600</v>
+        <v>1477300</v>
       </c>
       <c r="F24" s="3">
-        <v>3019300</v>
+        <v>2919800</v>
       </c>
       <c r="G24" s="3">
-        <v>2464500</v>
+        <v>2383300</v>
       </c>
       <c r="H24" s="3">
-        <v>1557400</v>
+        <v>1506100</v>
       </c>
       <c r="I24" s="3">
-        <v>2050200</v>
+        <v>1982700</v>
       </c>
       <c r="J24" s="3">
-        <v>4020800</v>
+        <v>3888400</v>
       </c>
       <c r="K24" s="3">
         <v>4202700</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4699800</v>
+        <v>4545000</v>
       </c>
       <c r="E26" s="3">
-        <v>6568000</v>
+        <v>6351700</v>
       </c>
       <c r="F26" s="3">
-        <v>7216500</v>
+        <v>6978900</v>
       </c>
       <c r="G26" s="3">
-        <v>7637100</v>
+        <v>7385700</v>
       </c>
       <c r="H26" s="3">
-        <v>7364100</v>
+        <v>7121600</v>
       </c>
       <c r="I26" s="3">
-        <v>6879200</v>
+        <v>6652600</v>
       </c>
       <c r="J26" s="3">
-        <v>7907600</v>
+        <v>7647200</v>
       </c>
       <c r="K26" s="3">
         <v>8829200</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4671700</v>
+        <v>4517900</v>
       </c>
       <c r="E27" s="3">
-        <v>6412400</v>
+        <v>6201200</v>
       </c>
       <c r="F27" s="3">
-        <v>6620100</v>
+        <v>6402100</v>
       </c>
       <c r="G27" s="3">
-        <v>6690100</v>
+        <v>6469800</v>
       </c>
       <c r="H27" s="3">
-        <v>6436400</v>
+        <v>6224400</v>
       </c>
       <c r="I27" s="3">
-        <v>5891300</v>
+        <v>5697300</v>
       </c>
       <c r="J27" s="3">
-        <v>6865400</v>
+        <v>6639300</v>
       </c>
       <c r="K27" s="3">
         <v>7651900</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2956600</v>
+        <v>2859200</v>
       </c>
       <c r="E32" s="3">
-        <v>2045100</v>
+        <v>1977700</v>
       </c>
       <c r="F32" s="3">
-        <v>1085800</v>
+        <v>1050100</v>
       </c>
       <c r="G32" s="3">
-        <v>1803300</v>
+        <v>1743900</v>
       </c>
       <c r="H32" s="3">
-        <v>2092700</v>
+        <v>2023800</v>
       </c>
       <c r="I32" s="3">
-        <v>3220100</v>
+        <v>3114100</v>
       </c>
       <c r="J32" s="3">
-        <v>1785000</v>
+        <v>1726300</v>
       </c>
       <c r="K32" s="3">
         <v>1121300</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4671700</v>
+        <v>4517900</v>
       </c>
       <c r="E33" s="3">
-        <v>6412400</v>
+        <v>6201200</v>
       </c>
       <c r="F33" s="3">
-        <v>6620100</v>
+        <v>6402100</v>
       </c>
       <c r="G33" s="3">
-        <v>6690100</v>
+        <v>6469800</v>
       </c>
       <c r="H33" s="3">
-        <v>6436400</v>
+        <v>6224400</v>
       </c>
       <c r="I33" s="3">
-        <v>5891300</v>
+        <v>5697300</v>
       </c>
       <c r="J33" s="3">
-        <v>6865400</v>
+        <v>6639300</v>
       </c>
       <c r="K33" s="3">
         <v>7651900</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4671700</v>
+        <v>4517900</v>
       </c>
       <c r="E35" s="3">
-        <v>6412400</v>
+        <v>6201200</v>
       </c>
       <c r="F35" s="3">
-        <v>6620100</v>
+        <v>6402100</v>
       </c>
       <c r="G35" s="3">
-        <v>6690100</v>
+        <v>6469800</v>
       </c>
       <c r="H35" s="3">
-        <v>6436400</v>
+        <v>6224400</v>
       </c>
       <c r="I35" s="3">
-        <v>5891300</v>
+        <v>5697300</v>
       </c>
       <c r="J35" s="3">
-        <v>6865400</v>
+        <v>6639300</v>
       </c>
       <c r="K35" s="3">
         <v>7651900</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>661103000</v>
+        <v>639332000</v>
       </c>
       <c r="E41" s="3">
-        <v>562712000</v>
+        <v>544181000</v>
       </c>
       <c r="F41" s="3">
-        <v>523017000</v>
+        <v>505793000</v>
       </c>
       <c r="G41" s="3">
-        <v>489504000</v>
+        <v>473384000</v>
       </c>
       <c r="H41" s="3">
-        <v>426945000</v>
+        <v>412885000</v>
       </c>
       <c r="I41" s="3">
-        <v>389810000</v>
+        <v>376973000</v>
       </c>
       <c r="J41" s="3">
-        <v>362113000</v>
+        <v>350189000</v>
       </c>
       <c r="K41" s="3">
         <v>302199000</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>249556000</v>
+        <v>241338000</v>
       </c>
       <c r="E42" s="3">
-        <v>260907000</v>
+        <v>252315000</v>
       </c>
       <c r="F42" s="3">
-        <v>224428000</v>
+        <v>217037000</v>
       </c>
       <c r="G42" s="3">
-        <v>214359000</v>
+        <v>207300000</v>
       </c>
       <c r="H42" s="3">
-        <v>222577000</v>
+        <v>215247000</v>
       </c>
       <c r="I42" s="3">
-        <v>216360000</v>
+        <v>209235000</v>
       </c>
       <c r="J42" s="3">
-        <v>202501000</v>
+        <v>195832000</v>
       </c>
       <c r="K42" s="3">
         <v>163523000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8760900</v>
+        <v>8472400</v>
       </c>
       <c r="E47" s="3">
-        <v>8605700</v>
+        <v>8322300</v>
       </c>
       <c r="F47" s="3">
-        <v>8890000</v>
+        <v>8597200</v>
       </c>
       <c r="G47" s="3">
-        <v>6223500</v>
+        <v>6018600</v>
       </c>
       <c r="H47" s="3">
-        <v>5507400</v>
+        <v>5326100</v>
       </c>
       <c r="I47" s="3">
-        <v>5560900</v>
+        <v>5377800</v>
       </c>
       <c r="J47" s="3">
-        <v>5317700</v>
+        <v>5142600</v>
       </c>
       <c r="K47" s="3">
         <v>3411000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13291400</v>
+        <v>12853700</v>
       </c>
       <c r="E48" s="3">
-        <v>13212400</v>
+        <v>12777300</v>
       </c>
       <c r="F48" s="3">
-        <v>13707800</v>
+        <v>13256400</v>
       </c>
       <c r="G48" s="3">
-        <v>31658400</v>
+        <v>30615900</v>
       </c>
       <c r="H48" s="3">
-        <v>28256000</v>
+        <v>27325500</v>
       </c>
       <c r="I48" s="3">
-        <v>26596000</v>
+        <v>25720100</v>
       </c>
       <c r="J48" s="3">
-        <v>25242500</v>
+        <v>24411200</v>
       </c>
       <c r="K48" s="3">
         <v>21496600</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6730100</v>
+        <v>6508500</v>
       </c>
       <c r="E49" s="3">
-        <v>6865100</v>
+        <v>6639000</v>
       </c>
       <c r="F49" s="3">
-        <v>7007700</v>
+        <v>6776900</v>
       </c>
       <c r="G49" s="3">
-        <v>7885500</v>
+        <v>7625800</v>
       </c>
       <c r="H49" s="3">
-        <v>8622700</v>
+        <v>8338700</v>
       </c>
       <c r="I49" s="3">
-        <v>8001000</v>
+        <v>7737500</v>
       </c>
       <c r="J49" s="3">
-        <v>7466200</v>
+        <v>7220300</v>
       </c>
       <c r="K49" s="3">
         <v>7510200</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5423900</v>
+        <v>5245200</v>
       </c>
       <c r="E52" s="3">
-        <v>2340200</v>
+        <v>2263200</v>
       </c>
       <c r="F52" s="3">
-        <v>3367800</v>
+        <v>3256900</v>
       </c>
       <c r="G52" s="3">
-        <v>3744500</v>
+        <v>3621100</v>
       </c>
       <c r="H52" s="3">
-        <v>3442900</v>
+        <v>3329500</v>
       </c>
       <c r="I52" s="3">
-        <v>2998200</v>
+        <v>2899400</v>
       </c>
       <c r="J52" s="3">
-        <v>4592300</v>
+        <v>4441100</v>
       </c>
       <c r="K52" s="3">
         <v>2684900</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2209940000</v>
+        <v>2137170000</v>
       </c>
       <c r="E54" s="3">
-        <v>2002960000</v>
+        <v>1937000000</v>
       </c>
       <c r="F54" s="3">
-        <v>1855330000</v>
+        <v>1794240000</v>
       </c>
       <c r="G54" s="3">
-        <v>1813340000</v>
+        <v>1753620000</v>
       </c>
       <c r="H54" s="3">
-        <v>1801880000</v>
+        <v>1742540000</v>
       </c>
       <c r="I54" s="3">
-        <v>1699800000</v>
+        <v>1643820000</v>
       </c>
       <c r="J54" s="3">
-        <v>1671160000</v>
+        <v>1616130000</v>
       </c>
       <c r="K54" s="3">
         <v>1479660000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>855700</v>
+        <v>827500</v>
       </c>
       <c r="E59" s="3">
-        <v>703600</v>
+        <v>680400</v>
       </c>
       <c r="F59" s="3">
-        <v>669100</v>
+        <v>647000</v>
       </c>
       <c r="G59" s="3">
-        <v>800800</v>
+        <v>774500</v>
       </c>
       <c r="H59" s="3">
-        <v>732600</v>
+        <v>708500</v>
       </c>
       <c r="I59" s="3">
-        <v>646100</v>
+        <v>624800</v>
       </c>
       <c r="J59" s="3">
-        <v>698800</v>
+        <v>675800</v>
       </c>
       <c r="K59" s="3">
         <v>681000</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>243444000</v>
+        <v>235427000</v>
       </c>
       <c r="E61" s="3">
-        <v>222708000</v>
+        <v>215374000</v>
       </c>
       <c r="F61" s="3">
-        <v>181146000</v>
+        <v>175180000</v>
       </c>
       <c r="G61" s="3">
-        <v>181170000</v>
+        <v>175204000</v>
       </c>
       <c r="H61" s="3">
-        <v>172324000</v>
+        <v>166650000</v>
       </c>
       <c r="I61" s="3">
-        <v>142875000</v>
+        <v>138170000</v>
       </c>
       <c r="J61" s="3">
-        <v>146697000</v>
+        <v>141866000</v>
       </c>
       <c r="K61" s="3">
         <v>110944000</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7083100</v>
+        <v>6849800</v>
       </c>
       <c r="E62" s="3">
-        <v>4571800</v>
+        <v>4421200</v>
       </c>
       <c r="F62" s="3">
-        <v>5684600</v>
+        <v>5497400</v>
       </c>
       <c r="G62" s="3">
-        <v>6513200</v>
+        <v>6298700</v>
       </c>
       <c r="H62" s="3">
-        <v>5690900</v>
+        <v>5503500</v>
       </c>
       <c r="I62" s="3">
-        <v>6359600</v>
+        <v>6150200</v>
       </c>
       <c r="J62" s="3">
-        <v>8053300</v>
+        <v>7788100</v>
       </c>
       <c r="K62" s="3">
         <v>3803400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2102190000</v>
+        <v>2032960000</v>
       </c>
       <c r="E66" s="3">
-        <v>1905280000</v>
+        <v>1842540000</v>
       </c>
       <c r="F66" s="3">
-        <v>1757190000</v>
+        <v>1699330000</v>
       </c>
       <c r="G66" s="3">
-        <v>1718650000</v>
+        <v>1662060000</v>
       </c>
       <c r="H66" s="3">
-        <v>1713200000</v>
+        <v>1656780000</v>
       </c>
       <c r="I66" s="3">
-        <v>1618570000</v>
+        <v>1565270000</v>
       </c>
       <c r="J66" s="3">
-        <v>1588950000</v>
+        <v>1536620000</v>
       </c>
       <c r="K66" s="3">
         <v>1412960000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>59163800</v>
+        <v>57215500</v>
       </c>
       <c r="E72" s="3">
-        <v>57742600</v>
+        <v>55841100</v>
       </c>
       <c r="F72" s="3">
-        <v>54632600</v>
+        <v>52833500</v>
       </c>
       <c r="G72" s="3">
-        <v>50609700</v>
+        <v>48943000</v>
       </c>
       <c r="H72" s="3">
-        <v>45916600</v>
+        <v>44404500</v>
       </c>
       <c r="I72" s="3">
-        <v>41335300</v>
+        <v>39974100</v>
       </c>
       <c r="J72" s="3">
-        <v>37357500</v>
+        <v>36127200</v>
       </c>
       <c r="K72" s="3">
         <v>31894000</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>107755000</v>
+        <v>104207000</v>
       </c>
       <c r="E76" s="3">
-        <v>97677700</v>
+        <v>94461100</v>
       </c>
       <c r="F76" s="3">
-        <v>98142700</v>
+        <v>94910800</v>
       </c>
       <c r="G76" s="3">
-        <v>94682900</v>
+        <v>91564900</v>
       </c>
       <c r="H76" s="3">
-        <v>88686100</v>
+        <v>85765500</v>
       </c>
       <c r="I76" s="3">
-        <v>81230700</v>
+        <v>78555700</v>
       </c>
       <c r="J76" s="3">
-        <v>82213500</v>
+        <v>79506100</v>
       </c>
       <c r="K76" s="3">
         <v>66693800</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4671700</v>
+        <v>4517900</v>
       </c>
       <c r="E81" s="3">
-        <v>6412400</v>
+        <v>6201200</v>
       </c>
       <c r="F81" s="3">
-        <v>6620100</v>
+        <v>6402100</v>
       </c>
       <c r="G81" s="3">
-        <v>6690100</v>
+        <v>6469800</v>
       </c>
       <c r="H81" s="3">
-        <v>6436400</v>
+        <v>6224400</v>
       </c>
       <c r="I81" s="3">
-        <v>5891300</v>
+        <v>5697300</v>
       </c>
       <c r="J81" s="3">
-        <v>6865400</v>
+        <v>6639300</v>
       </c>
       <c r="K81" s="3">
         <v>7651900</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2069600</v>
+        <v>2001500</v>
       </c>
       <c r="E83" s="3">
-        <v>2065500</v>
+        <v>1997500</v>
       </c>
       <c r="F83" s="3">
-        <v>2686800</v>
+        <v>2598300</v>
       </c>
       <c r="G83" s="3">
-        <v>2794600</v>
+        <v>2702600</v>
       </c>
       <c r="H83" s="3">
-        <v>2771800</v>
+        <v>2680500</v>
       </c>
       <c r="I83" s="3">
-        <v>2423400</v>
+        <v>2343600</v>
       </c>
       <c r="J83" s="3">
-        <v>2265800</v>
+        <v>2191200</v>
       </c>
       <c r="K83" s="3">
         <v>2111000</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>171231100</v>
+        <v>165592300</v>
       </c>
       <c r="E89" s="3">
-        <v>64567500</v>
+        <v>62441200</v>
       </c>
       <c r="F89" s="3">
-        <v>41885600</v>
+        <v>40506300</v>
       </c>
       <c r="G89" s="3">
-        <v>85127100</v>
+        <v>82323800</v>
       </c>
       <c r="H89" s="3">
-        <v>41152800</v>
+        <v>39797600</v>
       </c>
       <c r="I89" s="3">
-        <v>-10269200</v>
+        <v>-9931100</v>
       </c>
       <c r="J89" s="3">
-        <v>74588900</v>
+        <v>72132700</v>
       </c>
       <c r="K89" s="3">
         <v>76062400</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1329600</v>
+        <v>-1285800</v>
       </c>
       <c r="E91" s="3">
-        <v>-938800</v>
+        <v>-907900</v>
       </c>
       <c r="F91" s="3">
-        <v>-4648000</v>
+        <v>-4495000</v>
       </c>
       <c r="G91" s="3">
-        <v>-6491400</v>
+        <v>-6277700</v>
       </c>
       <c r="H91" s="3">
-        <v>-4516900</v>
+        <v>-4368200</v>
       </c>
       <c r="I91" s="3">
-        <v>-4821600</v>
+        <v>-4662800</v>
       </c>
       <c r="J91" s="3">
-        <v>-5274400</v>
+        <v>-5100700</v>
       </c>
       <c r="K91" s="3">
         <v>-4260700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-69963700</v>
+        <v>-67659700</v>
       </c>
       <c r="E94" s="3">
-        <v>-27436200</v>
+        <v>-26532700</v>
       </c>
       <c r="F94" s="3">
-        <v>9167000</v>
+        <v>8865200</v>
       </c>
       <c r="G94" s="3">
-        <v>-30931200</v>
+        <v>-29912600</v>
       </c>
       <c r="H94" s="3">
-        <v>5296100</v>
+        <v>5121700</v>
       </c>
       <c r="I94" s="3">
-        <v>47745100</v>
+        <v>46172800</v>
       </c>
       <c r="J94" s="3">
-        <v>-13275000</v>
+        <v>-12837800</v>
       </c>
       <c r="K94" s="3">
         <v>133008000</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2433500</v>
+        <v>-2353300</v>
       </c>
       <c r="E96" s="3">
-        <v>-2330100</v>
+        <v>-2253300</v>
       </c>
       <c r="F96" s="3">
-        <v>-2237400</v>
+        <v>-2163700</v>
       </c>
       <c r="G96" s="3">
-        <v>-1991200</v>
+        <v>-1925600</v>
       </c>
       <c r="H96" s="3">
-        <v>-1868300</v>
+        <v>-1806700</v>
       </c>
       <c r="I96" s="3">
-        <v>-1930900</v>
+        <v>-1867300</v>
       </c>
       <c r="J96" s="3">
-        <v>-1557100</v>
+        <v>-1505800</v>
       </c>
       <c r="K96" s="3">
         <v>-1557000</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5125100</v>
+        <v>-4956300</v>
       </c>
       <c r="E100" s="3">
-        <v>-9333700</v>
+        <v>-9026300</v>
       </c>
       <c r="F100" s="3">
-        <v>-5765000</v>
+        <v>-5575100</v>
       </c>
       <c r="G100" s="3">
-        <v>-3192800</v>
+        <v>-3087600</v>
       </c>
       <c r="H100" s="3">
-        <v>-1517000</v>
+        <v>-1467100</v>
       </c>
       <c r="I100" s="3">
-        <v>-510100</v>
+        <v>-493300</v>
       </c>
       <c r="J100" s="3">
-        <v>-2756600</v>
+        <v>-2665800</v>
       </c>
       <c r="K100" s="3">
         <v>-9515500</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1456800</v>
+        <v>1408800</v>
       </c>
       <c r="E101" s="3">
-        <v>-678500</v>
+        <v>-656200</v>
       </c>
       <c r="F101" s="3">
-        <v>1518100</v>
+        <v>1468200</v>
       </c>
       <c r="G101" s="3">
-        <v>-855200</v>
+        <v>-827000</v>
       </c>
       <c r="H101" s="3">
-        <v>-96200</v>
+        <v>-93000</v>
       </c>
       <c r="I101" s="3">
-        <v>-907200</v>
+        <v>-877300</v>
       </c>
       <c r="J101" s="3">
-        <v>1618900</v>
+        <v>1565600</v>
       </c>
       <c r="K101" s="3">
         <v>51100</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>97599100</v>
+        <v>94385100</v>
       </c>
       <c r="E102" s="3">
-        <v>27119100</v>
+        <v>26226000</v>
       </c>
       <c r="F102" s="3">
-        <v>46805800</v>
+        <v>45264400</v>
       </c>
       <c r="G102" s="3">
-        <v>50148000</v>
+        <v>48496600</v>
       </c>
       <c r="H102" s="3">
-        <v>44835700</v>
+        <v>43359200</v>
       </c>
       <c r="I102" s="3">
-        <v>36058500</v>
+        <v>34871100</v>
       </c>
       <c r="J102" s="3">
-        <v>60176300</v>
+        <v>58194600</v>
       </c>
       <c r="K102" s="3">
         <v>199606000</v>

--- a/AAII_Financials/Yearly/SMFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SMFG_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16325300</v>
+        <v>15806400</v>
       </c>
       <c r="E8" s="3">
-        <v>21640600</v>
+        <v>20952800</v>
       </c>
       <c r="F8" s="3">
-        <v>21927300</v>
+        <v>21230400</v>
       </c>
       <c r="G8" s="3">
-        <v>19080600</v>
+        <v>18474200</v>
       </c>
       <c r="H8" s="3">
-        <v>16845000</v>
+        <v>16309600</v>
       </c>
       <c r="I8" s="3">
-        <v>16459900</v>
+        <v>15936700</v>
       </c>
       <c r="J8" s="3">
-        <v>16667900</v>
+        <v>16138200</v>
       </c>
       <c r="K8" s="3">
         <v>16534000</v>
@@ -952,10 +952,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1605500</v>
+        <v>-1554500</v>
       </c>
       <c r="E15" s="3">
-        <v>-1592500</v>
+        <v>-1541900</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>5</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7543700</v>
+        <v>7303900</v>
       </c>
       <c r="E17" s="3">
-        <v>11833900</v>
+        <v>11457800</v>
       </c>
       <c r="F17" s="3">
-        <v>10978400</v>
+        <v>10629500</v>
       </c>
       <c r="G17" s="3">
-        <v>7567700</v>
+        <v>7327200</v>
       </c>
       <c r="H17" s="3">
-        <v>6193500</v>
+        <v>5996700</v>
       </c>
       <c r="I17" s="3">
-        <v>4710500</v>
+        <v>4560800</v>
       </c>
       <c r="J17" s="3">
-        <v>3406100</v>
+        <v>3297800</v>
       </c>
       <c r="K17" s="3">
         <v>2380800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8781600</v>
+        <v>8502500</v>
       </c>
       <c r="E18" s="3">
-        <v>9806700</v>
+        <v>9495000</v>
       </c>
       <c r="F18" s="3">
-        <v>10948800</v>
+        <v>10600800</v>
       </c>
       <c r="G18" s="3">
-        <v>11512900</v>
+        <v>11147000</v>
       </c>
       <c r="H18" s="3">
-        <v>10651400</v>
+        <v>10312900</v>
       </c>
       <c r="I18" s="3">
-        <v>11749400</v>
+        <v>11376000</v>
       </c>
       <c r="J18" s="3">
-        <v>13261900</v>
+        <v>12840400</v>
       </c>
       <c r="K18" s="3">
         <v>14153200</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2859200</v>
+        <v>-2768400</v>
       </c>
       <c r="E20" s="3">
-        <v>-1977700</v>
+        <v>-1914900</v>
       </c>
       <c r="F20" s="3">
-        <v>-1050100</v>
+        <v>-1016700</v>
       </c>
       <c r="G20" s="3">
-        <v>-1743900</v>
+        <v>-1688500</v>
       </c>
       <c r="H20" s="3">
-        <v>-2023800</v>
+        <v>-1959400</v>
       </c>
       <c r="I20" s="3">
-        <v>-3114100</v>
+        <v>-3015100</v>
       </c>
       <c r="J20" s="3">
-        <v>-1726300</v>
+        <v>-1671400</v>
       </c>
       <c r="K20" s="3">
         <v>-1121300</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7928400</v>
+        <v>7694700</v>
       </c>
       <c r="E21" s="3">
-        <v>9831000</v>
+        <v>9536800</v>
       </c>
       <c r="F21" s="3">
-        <v>12503000</v>
+        <v>12129400</v>
       </c>
       <c r="G21" s="3">
-        <v>12477700</v>
+        <v>12105800</v>
       </c>
       <c r="H21" s="3">
-        <v>11314300</v>
+        <v>10979200</v>
       </c>
       <c r="I21" s="3">
-        <v>10984200</v>
+        <v>10656600</v>
       </c>
       <c r="J21" s="3">
-        <v>13731800</v>
+        <v>13315400</v>
       </c>
       <c r="K21" s="3">
         <v>15152100</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5922400</v>
+        <v>5734200</v>
       </c>
       <c r="E23" s="3">
-        <v>7829000</v>
+        <v>7580200</v>
       </c>
       <c r="F23" s="3">
-        <v>9898700</v>
+        <v>9584100</v>
       </c>
       <c r="G23" s="3">
-        <v>9769000</v>
+        <v>9458500</v>
       </c>
       <c r="H23" s="3">
-        <v>8627700</v>
+        <v>8353500</v>
       </c>
       <c r="I23" s="3">
-        <v>8635300</v>
+        <v>8360900</v>
       </c>
       <c r="J23" s="3">
-        <v>11535600</v>
+        <v>11169000</v>
       </c>
       <c r="K23" s="3">
         <v>13031900</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1377400</v>
+        <v>1333600</v>
       </c>
       <c r="E24" s="3">
-        <v>1477300</v>
+        <v>1430300</v>
       </c>
       <c r="F24" s="3">
-        <v>2919800</v>
+        <v>2827000</v>
       </c>
       <c r="G24" s="3">
-        <v>2383300</v>
+        <v>2307600</v>
       </c>
       <c r="H24" s="3">
-        <v>1506100</v>
+        <v>1458200</v>
       </c>
       <c r="I24" s="3">
-        <v>1982700</v>
+        <v>1919700</v>
       </c>
       <c r="J24" s="3">
-        <v>3888400</v>
+        <v>3764800</v>
       </c>
       <c r="K24" s="3">
         <v>4202700</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4545000</v>
+        <v>4400600</v>
       </c>
       <c r="E26" s="3">
-        <v>6351700</v>
+        <v>6149800</v>
       </c>
       <c r="F26" s="3">
-        <v>6978900</v>
+        <v>6757100</v>
       </c>
       <c r="G26" s="3">
-        <v>7385700</v>
+        <v>7150900</v>
       </c>
       <c r="H26" s="3">
-        <v>7121600</v>
+        <v>6895300</v>
       </c>
       <c r="I26" s="3">
-        <v>6652600</v>
+        <v>6441200</v>
       </c>
       <c r="J26" s="3">
-        <v>7647200</v>
+        <v>7404200</v>
       </c>
       <c r="K26" s="3">
         <v>8829200</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4517900</v>
+        <v>4374300</v>
       </c>
       <c r="E27" s="3">
-        <v>6201200</v>
+        <v>6004100</v>
       </c>
       <c r="F27" s="3">
-        <v>6402100</v>
+        <v>6198600</v>
       </c>
       <c r="G27" s="3">
-        <v>6469800</v>
+        <v>6264200</v>
       </c>
       <c r="H27" s="3">
-        <v>6224400</v>
+        <v>6026600</v>
       </c>
       <c r="I27" s="3">
-        <v>5697300</v>
+        <v>5516200</v>
       </c>
       <c r="J27" s="3">
-        <v>6639300</v>
+        <v>6428300</v>
       </c>
       <c r="K27" s="3">
         <v>7651900</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2859200</v>
+        <v>2768400</v>
       </c>
       <c r="E32" s="3">
-        <v>1977700</v>
+        <v>1914900</v>
       </c>
       <c r="F32" s="3">
-        <v>1050100</v>
+        <v>1016700</v>
       </c>
       <c r="G32" s="3">
-        <v>1743900</v>
+        <v>1688500</v>
       </c>
       <c r="H32" s="3">
-        <v>2023800</v>
+        <v>1959400</v>
       </c>
       <c r="I32" s="3">
-        <v>3114100</v>
+        <v>3015100</v>
       </c>
       <c r="J32" s="3">
-        <v>1726300</v>
+        <v>1671400</v>
       </c>
       <c r="K32" s="3">
         <v>1121300</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4517900</v>
+        <v>4374300</v>
       </c>
       <c r="E33" s="3">
-        <v>6201200</v>
+        <v>6004100</v>
       </c>
       <c r="F33" s="3">
-        <v>6402100</v>
+        <v>6198600</v>
       </c>
       <c r="G33" s="3">
-        <v>6469800</v>
+        <v>6264200</v>
       </c>
       <c r="H33" s="3">
-        <v>6224400</v>
+        <v>6026600</v>
       </c>
       <c r="I33" s="3">
-        <v>5697300</v>
+        <v>5516200</v>
       </c>
       <c r="J33" s="3">
-        <v>6639300</v>
+        <v>6428300</v>
       </c>
       <c r="K33" s="3">
         <v>7651900</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4517900</v>
+        <v>4374300</v>
       </c>
       <c r="E35" s="3">
-        <v>6201200</v>
+        <v>6004100</v>
       </c>
       <c r="F35" s="3">
-        <v>6402100</v>
+        <v>6198600</v>
       </c>
       <c r="G35" s="3">
-        <v>6469800</v>
+        <v>6264200</v>
       </c>
       <c r="H35" s="3">
-        <v>6224400</v>
+        <v>6026600</v>
       </c>
       <c r="I35" s="3">
-        <v>5697300</v>
+        <v>5516200</v>
       </c>
       <c r="J35" s="3">
-        <v>6639300</v>
+        <v>6428300</v>
       </c>
       <c r="K35" s="3">
         <v>7651900</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>639332000</v>
+        <v>619013000</v>
       </c>
       <c r="E41" s="3">
-        <v>544181000</v>
+        <v>526886000</v>
       </c>
       <c r="F41" s="3">
-        <v>505793000</v>
+        <v>489718000</v>
       </c>
       <c r="G41" s="3">
-        <v>473384000</v>
+        <v>458339000</v>
       </c>
       <c r="H41" s="3">
-        <v>412885000</v>
+        <v>399763000</v>
       </c>
       <c r="I41" s="3">
-        <v>376973000</v>
+        <v>364992000</v>
       </c>
       <c r="J41" s="3">
-        <v>350189000</v>
+        <v>339059000</v>
       </c>
       <c r="K41" s="3">
         <v>302199000</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>241338000</v>
+        <v>233668000</v>
       </c>
       <c r="E42" s="3">
-        <v>252315000</v>
+        <v>244296000</v>
       </c>
       <c r="F42" s="3">
-        <v>217037000</v>
+        <v>210140000</v>
       </c>
       <c r="G42" s="3">
-        <v>207300000</v>
+        <v>200711000</v>
       </c>
       <c r="H42" s="3">
-        <v>215247000</v>
+        <v>208406000</v>
       </c>
       <c r="I42" s="3">
-        <v>209235000</v>
+        <v>202585000</v>
       </c>
       <c r="J42" s="3">
-        <v>195832000</v>
+        <v>189608000</v>
       </c>
       <c r="K42" s="3">
         <v>163523000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8472400</v>
+        <v>8203100</v>
       </c>
       <c r="E47" s="3">
-        <v>8322300</v>
+        <v>8057800</v>
       </c>
       <c r="F47" s="3">
-        <v>8597200</v>
+        <v>8324000</v>
       </c>
       <c r="G47" s="3">
-        <v>6018600</v>
+        <v>5827300</v>
       </c>
       <c r="H47" s="3">
-        <v>5326100</v>
+        <v>5156800</v>
       </c>
       <c r="I47" s="3">
-        <v>5377800</v>
+        <v>5206900</v>
       </c>
       <c r="J47" s="3">
-        <v>5142600</v>
+        <v>4979100</v>
       </c>
       <c r="K47" s="3">
         <v>3411000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12853700</v>
+        <v>12445200</v>
       </c>
       <c r="E48" s="3">
-        <v>12777300</v>
+        <v>12371300</v>
       </c>
       <c r="F48" s="3">
-        <v>13256400</v>
+        <v>12835100</v>
       </c>
       <c r="G48" s="3">
-        <v>30615900</v>
+        <v>29642900</v>
       </c>
       <c r="H48" s="3">
-        <v>27325500</v>
+        <v>26457000</v>
       </c>
       <c r="I48" s="3">
-        <v>25720100</v>
+        <v>24902700</v>
       </c>
       <c r="J48" s="3">
-        <v>24411200</v>
+        <v>23635400</v>
       </c>
       <c r="K48" s="3">
         <v>21496600</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6508500</v>
+        <v>6301600</v>
       </c>
       <c r="E49" s="3">
-        <v>6639000</v>
+        <v>6428000</v>
       </c>
       <c r="F49" s="3">
-        <v>6776900</v>
+        <v>6561500</v>
       </c>
       <c r="G49" s="3">
-        <v>7625800</v>
+        <v>7383400</v>
       </c>
       <c r="H49" s="3">
-        <v>8338700</v>
+        <v>8073700</v>
       </c>
       <c r="I49" s="3">
-        <v>7737500</v>
+        <v>7491600</v>
       </c>
       <c r="J49" s="3">
-        <v>7220300</v>
+        <v>6990800</v>
       </c>
       <c r="K49" s="3">
         <v>7510200</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5245200</v>
+        <v>5078500</v>
       </c>
       <c r="E52" s="3">
-        <v>2263200</v>
+        <v>2191200</v>
       </c>
       <c r="F52" s="3">
-        <v>3256900</v>
+        <v>3153400</v>
       </c>
       <c r="G52" s="3">
-        <v>3621100</v>
+        <v>3506100</v>
       </c>
       <c r="H52" s="3">
-        <v>3329500</v>
+        <v>3223700</v>
       </c>
       <c r="I52" s="3">
-        <v>2899400</v>
+        <v>2807300</v>
       </c>
       <c r="J52" s="3">
-        <v>4441100</v>
+        <v>4299900</v>
       </c>
       <c r="K52" s="3">
         <v>2684900</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2137170000</v>
+        <v>2069240000</v>
       </c>
       <c r="E54" s="3">
-        <v>1937000000</v>
+        <v>1875440000</v>
       </c>
       <c r="F54" s="3">
-        <v>1794240000</v>
+        <v>1737210000</v>
       </c>
       <c r="G54" s="3">
-        <v>1753620000</v>
+        <v>1697890000</v>
       </c>
       <c r="H54" s="3">
-        <v>1742540000</v>
+        <v>1687160000</v>
       </c>
       <c r="I54" s="3">
-        <v>1643820000</v>
+        <v>1591580000</v>
       </c>
       <c r="J54" s="3">
-        <v>1616130000</v>
+        <v>1564770000</v>
       </c>
       <c r="K54" s="3">
         <v>1479660000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>827500</v>
+        <v>801200</v>
       </c>
       <c r="E59" s="3">
-        <v>680400</v>
+        <v>658800</v>
       </c>
       <c r="F59" s="3">
-        <v>647000</v>
+        <v>626500</v>
       </c>
       <c r="G59" s="3">
-        <v>774500</v>
+        <v>749800</v>
       </c>
       <c r="H59" s="3">
-        <v>708500</v>
+        <v>686000</v>
       </c>
       <c r="I59" s="3">
-        <v>624800</v>
+        <v>605000</v>
       </c>
       <c r="J59" s="3">
-        <v>675800</v>
+        <v>654300</v>
       </c>
       <c r="K59" s="3">
         <v>681000</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>235427000</v>
+        <v>227945000</v>
       </c>
       <c r="E61" s="3">
-        <v>215374000</v>
+        <v>208529000</v>
       </c>
       <c r="F61" s="3">
-        <v>175180000</v>
+        <v>169613000</v>
       </c>
       <c r="G61" s="3">
-        <v>175204000</v>
+        <v>169636000</v>
       </c>
       <c r="H61" s="3">
-        <v>166650000</v>
+        <v>161353000</v>
       </c>
       <c r="I61" s="3">
-        <v>138170000</v>
+        <v>133778000</v>
       </c>
       <c r="J61" s="3">
-        <v>141866000</v>
+        <v>137357000</v>
       </c>
       <c r="K61" s="3">
         <v>110944000</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6849800</v>
+        <v>6632100</v>
       </c>
       <c r="E62" s="3">
-        <v>4421200</v>
+        <v>4280700</v>
       </c>
       <c r="F62" s="3">
-        <v>5497400</v>
+        <v>5322700</v>
       </c>
       <c r="G62" s="3">
-        <v>6298700</v>
+        <v>6098500</v>
       </c>
       <c r="H62" s="3">
-        <v>5503500</v>
+        <v>5328600</v>
       </c>
       <c r="I62" s="3">
-        <v>6150200</v>
+        <v>5954700</v>
       </c>
       <c r="J62" s="3">
-        <v>7788100</v>
+        <v>7540600</v>
       </c>
       <c r="K62" s="3">
         <v>3803400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2032960000</v>
+        <v>1968350000</v>
       </c>
       <c r="E66" s="3">
-        <v>1842540000</v>
+        <v>1783980000</v>
       </c>
       <c r="F66" s="3">
-        <v>1699330000</v>
+        <v>1645320000</v>
       </c>
       <c r="G66" s="3">
-        <v>1662060000</v>
+        <v>1609230000</v>
       </c>
       <c r="H66" s="3">
-        <v>1656780000</v>
+        <v>1604120000</v>
       </c>
       <c r="I66" s="3">
-        <v>1565270000</v>
+        <v>1515520000</v>
       </c>
       <c r="J66" s="3">
-        <v>1536620000</v>
+        <v>1487790000</v>
       </c>
       <c r="K66" s="3">
         <v>1412960000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>57215500</v>
+        <v>55397000</v>
       </c>
       <c r="E72" s="3">
-        <v>55841100</v>
+        <v>54066300</v>
       </c>
       <c r="F72" s="3">
-        <v>52833500</v>
+        <v>51154400</v>
       </c>
       <c r="G72" s="3">
-        <v>48943000</v>
+        <v>47387500</v>
       </c>
       <c r="H72" s="3">
-        <v>44404500</v>
+        <v>42993200</v>
       </c>
       <c r="I72" s="3">
-        <v>39974100</v>
+        <v>38703600</v>
       </c>
       <c r="J72" s="3">
-        <v>36127200</v>
+        <v>34979000</v>
       </c>
       <c r="K72" s="3">
         <v>31894000</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>104207000</v>
+        <v>100895000</v>
       </c>
       <c r="E76" s="3">
-        <v>94461100</v>
+        <v>91459000</v>
       </c>
       <c r="F76" s="3">
-        <v>94910800</v>
+        <v>91894300</v>
       </c>
       <c r="G76" s="3">
-        <v>91564900</v>
+        <v>88654700</v>
       </c>
       <c r="H76" s="3">
-        <v>85765500</v>
+        <v>83039700</v>
       </c>
       <c r="I76" s="3">
-        <v>78555700</v>
+        <v>76059000</v>
       </c>
       <c r="J76" s="3">
-        <v>79506100</v>
+        <v>76979300</v>
       </c>
       <c r="K76" s="3">
         <v>66693800</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4517900</v>
+        <v>4374300</v>
       </c>
       <c r="E81" s="3">
-        <v>6201200</v>
+        <v>6004100</v>
       </c>
       <c r="F81" s="3">
-        <v>6402100</v>
+        <v>6198600</v>
       </c>
       <c r="G81" s="3">
-        <v>6469800</v>
+        <v>6264200</v>
       </c>
       <c r="H81" s="3">
-        <v>6224400</v>
+        <v>6026600</v>
       </c>
       <c r="I81" s="3">
-        <v>5697300</v>
+        <v>5516200</v>
       </c>
       <c r="J81" s="3">
-        <v>6639300</v>
+        <v>6428300</v>
       </c>
       <c r="K81" s="3">
         <v>7651900</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2001500</v>
+        <v>1937800</v>
       </c>
       <c r="E83" s="3">
-        <v>1997500</v>
+        <v>1934000</v>
       </c>
       <c r="F83" s="3">
-        <v>2598300</v>
+        <v>2515700</v>
       </c>
       <c r="G83" s="3">
-        <v>2702600</v>
+        <v>2616700</v>
       </c>
       <c r="H83" s="3">
-        <v>2680500</v>
+        <v>2595300</v>
       </c>
       <c r="I83" s="3">
-        <v>2343600</v>
+        <v>2269100</v>
       </c>
       <c r="J83" s="3">
-        <v>2191200</v>
+        <v>2121500</v>
       </c>
       <c r="K83" s="3">
         <v>2111000</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>165592300</v>
+        <v>160329500</v>
       </c>
       <c r="E89" s="3">
-        <v>62441200</v>
+        <v>60456700</v>
       </c>
       <c r="F89" s="3">
-        <v>40506300</v>
+        <v>39218900</v>
       </c>
       <c r="G89" s="3">
-        <v>82323800</v>
+        <v>79707400</v>
       </c>
       <c r="H89" s="3">
-        <v>39797600</v>
+        <v>38532700</v>
       </c>
       <c r="I89" s="3">
-        <v>-9931100</v>
+        <v>-9615400</v>
       </c>
       <c r="J89" s="3">
-        <v>72132700</v>
+        <v>69840100</v>
       </c>
       <c r="K89" s="3">
         <v>76062400</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1285800</v>
+        <v>-1244900</v>
       </c>
       <c r="E91" s="3">
-        <v>-907900</v>
+        <v>-879000</v>
       </c>
       <c r="F91" s="3">
-        <v>-4495000</v>
+        <v>-4352100</v>
       </c>
       <c r="G91" s="3">
-        <v>-6277700</v>
+        <v>-6078200</v>
       </c>
       <c r="H91" s="3">
-        <v>-4368200</v>
+        <v>-4229400</v>
       </c>
       <c r="I91" s="3">
-        <v>-4662800</v>
+        <v>-4514600</v>
       </c>
       <c r="J91" s="3">
-        <v>-5100700</v>
+        <v>-4938600</v>
       </c>
       <c r="K91" s="3">
         <v>-4260700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-67659700</v>
+        <v>-65509400</v>
       </c>
       <c r="E94" s="3">
-        <v>-26532700</v>
+        <v>-25689500</v>
       </c>
       <c r="F94" s="3">
-        <v>8865200</v>
+        <v>8583400</v>
       </c>
       <c r="G94" s="3">
-        <v>-29912600</v>
+        <v>-28961900</v>
       </c>
       <c r="H94" s="3">
-        <v>5121700</v>
+        <v>4958900</v>
       </c>
       <c r="I94" s="3">
-        <v>46172800</v>
+        <v>44705300</v>
       </c>
       <c r="J94" s="3">
-        <v>-12837800</v>
+        <v>-12429800</v>
       </c>
       <c r="K94" s="3">
         <v>133008000</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2353300</v>
+        <v>-2278500</v>
       </c>
       <c r="E96" s="3">
-        <v>-2253300</v>
+        <v>-2181700</v>
       </c>
       <c r="F96" s="3">
-        <v>-2163700</v>
+        <v>-2094900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1925600</v>
+        <v>-1864400</v>
       </c>
       <c r="H96" s="3">
-        <v>-1806700</v>
+        <v>-1749300</v>
       </c>
       <c r="I96" s="3">
-        <v>-1867300</v>
+        <v>-1808000</v>
       </c>
       <c r="J96" s="3">
-        <v>-1505800</v>
+        <v>-1457900</v>
       </c>
       <c r="K96" s="3">
         <v>-1557000</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4956300</v>
+        <v>-4798800</v>
       </c>
       <c r="E100" s="3">
-        <v>-9026300</v>
+        <v>-8739400</v>
       </c>
       <c r="F100" s="3">
-        <v>-5575100</v>
+        <v>-5397900</v>
       </c>
       <c r="G100" s="3">
-        <v>-3087600</v>
+        <v>-2989500</v>
       </c>
       <c r="H100" s="3">
-        <v>-1467100</v>
+        <v>-1420400</v>
       </c>
       <c r="I100" s="3">
-        <v>-493300</v>
+        <v>-477600</v>
       </c>
       <c r="J100" s="3">
-        <v>-2665800</v>
+        <v>-2581100</v>
       </c>
       <c r="K100" s="3">
         <v>-9515500</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1408800</v>
+        <v>1364000</v>
       </c>
       <c r="E101" s="3">
-        <v>-656200</v>
+        <v>-635300</v>
       </c>
       <c r="F101" s="3">
-        <v>1468200</v>
+        <v>1421500</v>
       </c>
       <c r="G101" s="3">
-        <v>-827000</v>
+        <v>-800700</v>
       </c>
       <c r="H101" s="3">
-        <v>-93000</v>
+        <v>-90000</v>
       </c>
       <c r="I101" s="3">
-        <v>-877300</v>
+        <v>-849400</v>
       </c>
       <c r="J101" s="3">
-        <v>1565600</v>
+        <v>1515800</v>
       </c>
       <c r="K101" s="3">
         <v>51100</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>94385100</v>
+        <v>91385300</v>
       </c>
       <c r="E102" s="3">
-        <v>26226000</v>
+        <v>25392500</v>
       </c>
       <c r="F102" s="3">
-        <v>45264400</v>
+        <v>43825800</v>
       </c>
       <c r="G102" s="3">
-        <v>48496600</v>
+        <v>46955300</v>
       </c>
       <c r="H102" s="3">
-        <v>43359200</v>
+        <v>41981100</v>
       </c>
       <c r="I102" s="3">
-        <v>34871100</v>
+        <v>33762800</v>
       </c>
       <c r="J102" s="3">
-        <v>58194600</v>
+        <v>56345100</v>
       </c>
       <c r="K102" s="3">
         <v>199606000</v>

--- a/AAII_Financials/Yearly/SMFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SMFG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>SMFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,99 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42825</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42460</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42094</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41729</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41364</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40999</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15806400</v>
+        <v>14863300</v>
       </c>
       <c r="E8" s="3">
-        <v>20952800</v>
+        <v>14435200</v>
       </c>
       <c r="F8" s="3">
-        <v>21230400</v>
+        <v>19135100</v>
       </c>
       <c r="G8" s="3">
-        <v>18474200</v>
+        <v>19388600</v>
       </c>
       <c r="H8" s="3">
-        <v>16309600</v>
+        <v>16871500</v>
       </c>
       <c r="I8" s="3">
-        <v>15936700</v>
+        <v>14894700</v>
       </c>
       <c r="J8" s="3">
+        <v>14554200</v>
+      </c>
+      <c r="K8" s="3">
         <v>16138200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16534000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15686800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15461400</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -785,9 +791,12 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -821,9 +830,12 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,9 +925,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,20 +964,23 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>-1554500</v>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E15" s="3">
-        <v>-1541900</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
+        <v>-1419600</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-1408200</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>5</v>
@@ -975,15 +997,18 @@
       <c r="K15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3">
         <v>-1185200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-1099400</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7303900</v>
+        <v>4256900</v>
       </c>
       <c r="E17" s="3">
-        <v>11457800</v>
+        <v>6670300</v>
       </c>
       <c r="F17" s="3">
-        <v>10629500</v>
+        <v>10463800</v>
       </c>
       <c r="G17" s="3">
-        <v>7327200</v>
+        <v>9707400</v>
       </c>
       <c r="H17" s="3">
-        <v>5996700</v>
+        <v>6691600</v>
       </c>
       <c r="I17" s="3">
-        <v>4560800</v>
+        <v>5476500</v>
       </c>
       <c r="J17" s="3">
+        <v>4165100</v>
+      </c>
+      <c r="K17" s="3">
         <v>3297800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2380800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2923100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2835200</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8502500</v>
+        <v>10606300</v>
       </c>
       <c r="E18" s="3">
-        <v>9495000</v>
+        <v>7764900</v>
       </c>
       <c r="F18" s="3">
-        <v>10600800</v>
+        <v>8671300</v>
       </c>
       <c r="G18" s="3">
-        <v>11147000</v>
+        <v>9681200</v>
       </c>
       <c r="H18" s="3">
-        <v>10312900</v>
+        <v>10179900</v>
       </c>
       <c r="I18" s="3">
-        <v>11376000</v>
+        <v>9418200</v>
       </c>
       <c r="J18" s="3">
+        <v>10389100</v>
+      </c>
+      <c r="K18" s="3">
         <v>12840400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>14153200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>12763800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>12626200</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,80 +1115,87 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2768400</v>
+        <v>-3364900</v>
       </c>
       <c r="E20" s="3">
-        <v>-1914900</v>
+        <v>-2528200</v>
       </c>
       <c r="F20" s="3">
-        <v>-1016700</v>
+        <v>-1748800</v>
       </c>
       <c r="G20" s="3">
-        <v>-1688500</v>
+        <v>-928500</v>
       </c>
       <c r="H20" s="3">
-        <v>-1959400</v>
+        <v>-1542000</v>
       </c>
       <c r="I20" s="3">
-        <v>-3015100</v>
+        <v>-1789500</v>
       </c>
       <c r="J20" s="3">
+        <v>-2753600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1671400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1121300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4503500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4386900</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7694700</v>
+        <v>8988500</v>
       </c>
       <c r="E21" s="3">
-        <v>9536800</v>
+        <v>6980300</v>
       </c>
       <c r="F21" s="3">
-        <v>12129400</v>
+        <v>9190600</v>
       </c>
       <c r="G21" s="3">
-        <v>12105800</v>
+        <v>11111700</v>
       </c>
       <c r="H21" s="3">
-        <v>10979200</v>
+        <v>10977700</v>
       </c>
       <c r="I21" s="3">
-        <v>10656600</v>
+        <v>9674500</v>
       </c>
       <c r="J21" s="3">
+        <v>9548200</v>
+      </c>
+      <c r="K21" s="3">
         <v>13315400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>15152100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>10302300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9804500</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1190,81 +1229,90 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5734200</v>
+        <v>7241500</v>
       </c>
       <c r="E23" s="3">
-        <v>7580200</v>
+        <v>5236700</v>
       </c>
       <c r="F23" s="3">
-        <v>9584100</v>
+        <v>6922600</v>
       </c>
       <c r="G23" s="3">
-        <v>9458500</v>
+        <v>8752700</v>
       </c>
       <c r="H23" s="3">
-        <v>8353500</v>
+        <v>8637900</v>
       </c>
       <c r="I23" s="3">
-        <v>8360900</v>
+        <v>7628800</v>
       </c>
       <c r="J23" s="3">
+        <v>7635500</v>
+      </c>
+      <c r="K23" s="3">
         <v>11169000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>13031900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8260200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8239300</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1333600</v>
+        <v>1671200</v>
       </c>
       <c r="E24" s="3">
-        <v>1430300</v>
+        <v>1217900</v>
       </c>
       <c r="F24" s="3">
-        <v>2827000</v>
+        <v>1306300</v>
       </c>
       <c r="G24" s="3">
-        <v>2307600</v>
+        <v>2581800</v>
       </c>
       <c r="H24" s="3">
-        <v>1458200</v>
+        <v>2107400</v>
       </c>
       <c r="I24" s="3">
-        <v>1919700</v>
+        <v>1331700</v>
       </c>
       <c r="J24" s="3">
+        <v>1753100</v>
+      </c>
+      <c r="K24" s="3">
         <v>3764800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4202700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2319400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4162400</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4400600</v>
+        <v>5570300</v>
       </c>
       <c r="E26" s="3">
-        <v>6149800</v>
+        <v>4018800</v>
       </c>
       <c r="F26" s="3">
-        <v>6757100</v>
+        <v>5616300</v>
       </c>
       <c r="G26" s="3">
-        <v>7150900</v>
+        <v>6170900</v>
       </c>
       <c r="H26" s="3">
-        <v>6895300</v>
+        <v>6530600</v>
       </c>
       <c r="I26" s="3">
-        <v>6441200</v>
+        <v>6297100</v>
       </c>
       <c r="J26" s="3">
+        <v>5882400</v>
+      </c>
+      <c r="K26" s="3">
         <v>7404200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8829200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5940900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4076900</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4374300</v>
+        <v>5504700</v>
       </c>
       <c r="E27" s="3">
-        <v>6004100</v>
+        <v>3994800</v>
       </c>
       <c r="F27" s="3">
-        <v>6198600</v>
+        <v>5483200</v>
       </c>
       <c r="G27" s="3">
-        <v>6264200</v>
+        <v>5660800</v>
       </c>
       <c r="H27" s="3">
-        <v>6026600</v>
+        <v>5720700</v>
       </c>
       <c r="I27" s="3">
-        <v>5516200</v>
+        <v>5503800</v>
       </c>
       <c r="J27" s="3">
+        <v>5037700</v>
+      </c>
+      <c r="K27" s="3">
         <v>6428300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7651900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3743300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3058400</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2768400</v>
+        <v>3364900</v>
       </c>
       <c r="E32" s="3">
-        <v>1914900</v>
+        <v>2528200</v>
       </c>
       <c r="F32" s="3">
-        <v>1016700</v>
+        <v>1748800</v>
       </c>
       <c r="G32" s="3">
-        <v>1688500</v>
+        <v>928500</v>
       </c>
       <c r="H32" s="3">
-        <v>1959400</v>
+        <v>1542000</v>
       </c>
       <c r="I32" s="3">
-        <v>3015100</v>
+        <v>1789500</v>
       </c>
       <c r="J32" s="3">
+        <v>2753600</v>
+      </c>
+      <c r="K32" s="3">
         <v>1671400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1121300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4503500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4386900</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4374300</v>
+        <v>5504700</v>
       </c>
       <c r="E33" s="3">
-        <v>6004100</v>
+        <v>3994800</v>
       </c>
       <c r="F33" s="3">
-        <v>6198600</v>
+        <v>5483200</v>
       </c>
       <c r="G33" s="3">
-        <v>6264200</v>
+        <v>5660800</v>
       </c>
       <c r="H33" s="3">
-        <v>6026600</v>
+        <v>5720700</v>
       </c>
       <c r="I33" s="3">
-        <v>5516200</v>
+        <v>5503800</v>
       </c>
       <c r="J33" s="3">
+        <v>5037700</v>
+      </c>
+      <c r="K33" s="3">
         <v>6428300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7651900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3743300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3058400</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4374300</v>
+        <v>5504700</v>
       </c>
       <c r="E35" s="3">
-        <v>6004100</v>
+        <v>3994800</v>
       </c>
       <c r="F35" s="3">
-        <v>6198600</v>
+        <v>5483200</v>
       </c>
       <c r="G35" s="3">
-        <v>6264200</v>
+        <v>5660800</v>
       </c>
       <c r="H35" s="3">
-        <v>6026600</v>
+        <v>5720700</v>
       </c>
       <c r="I35" s="3">
-        <v>5516200</v>
+        <v>5503800</v>
       </c>
       <c r="J35" s="3">
+        <v>5037700</v>
+      </c>
+      <c r="K35" s="3">
         <v>6428300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7651900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3743300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3058400</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42825</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42460</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42094</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41729</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41364</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40999</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,80 +1817,87 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>619013000</v>
+        <v>582631000</v>
       </c>
       <c r="E41" s="3">
-        <v>526886000</v>
+        <v>565312000</v>
       </c>
       <c r="F41" s="3">
-        <v>489718000</v>
+        <v>481177000</v>
       </c>
       <c r="G41" s="3">
-        <v>458339000</v>
+        <v>447234000</v>
       </c>
       <c r="H41" s="3">
-        <v>399763000</v>
+        <v>418577000</v>
       </c>
       <c r="I41" s="3">
-        <v>364992000</v>
+        <v>365083000</v>
       </c>
       <c r="J41" s="3">
+        <v>333328000</v>
+      </c>
+      <c r="K41" s="3">
         <v>339059000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>302199000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>217778000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>84465200</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>233668000</v>
+        <v>227348000</v>
       </c>
       <c r="E42" s="3">
-        <v>244296000</v>
+        <v>213397000</v>
       </c>
       <c r="F42" s="3">
-        <v>210140000</v>
+        <v>223103000</v>
       </c>
       <c r="G42" s="3">
-        <v>200711000</v>
+        <v>191909000</v>
       </c>
       <c r="H42" s="3">
-        <v>208406000</v>
+        <v>183299000</v>
       </c>
       <c r="I42" s="3">
-        <v>202585000</v>
+        <v>190326000</v>
       </c>
       <c r="J42" s="3">
+        <v>185010000</v>
+      </c>
+      <c r="K42" s="3">
         <v>189608000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>163523000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>183032000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>39736300</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1839,9 +1931,12 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1875,9 +1970,12 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1911,9 +2009,12 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1947,117 +2048,129 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>8203100</v>
+      <c r="D47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E47" s="3">
-        <v>8057800</v>
+        <v>7491500</v>
       </c>
       <c r="F47" s="3">
-        <v>8324000</v>
+        <v>7358800</v>
       </c>
       <c r="G47" s="3">
-        <v>5827300</v>
+        <v>7601900</v>
       </c>
       <c r="H47" s="3">
-        <v>5156800</v>
+        <v>5321700</v>
       </c>
       <c r="I47" s="3">
-        <v>5206900</v>
+        <v>4709400</v>
       </c>
       <c r="J47" s="3">
+        <v>4755200</v>
+      </c>
+      <c r="K47" s="3">
         <v>4979100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3411000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4711900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1868200</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12445200</v>
+        <v>11352000</v>
       </c>
       <c r="E48" s="3">
-        <v>12371300</v>
+        <v>11365500</v>
       </c>
       <c r="F48" s="3">
-        <v>12835100</v>
+        <v>11298000</v>
       </c>
       <c r="G48" s="3">
-        <v>29642900</v>
+        <v>11721600</v>
       </c>
       <c r="H48" s="3">
-        <v>26457000</v>
+        <v>27071300</v>
       </c>
       <c r="I48" s="3">
-        <v>24902700</v>
+        <v>24161800</v>
       </c>
       <c r="J48" s="3">
+        <v>22742300</v>
+      </c>
+      <c r="K48" s="3">
         <v>23635400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21496600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>36213000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>20247600</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6301600</v>
+        <v>7001800</v>
       </c>
       <c r="E49" s="3">
-        <v>6428000</v>
+        <v>5754900</v>
       </c>
       <c r="F49" s="3">
-        <v>6561500</v>
+        <v>5870400</v>
       </c>
       <c r="G49" s="3">
-        <v>7383400</v>
+        <v>5992300</v>
       </c>
       <c r="H49" s="3">
-        <v>8073700</v>
+        <v>6742900</v>
       </c>
       <c r="I49" s="3">
-        <v>7491600</v>
+        <v>7373300</v>
       </c>
       <c r="J49" s="3">
+        <v>6841700</v>
+      </c>
+      <c r="K49" s="3">
         <v>6990800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7510200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>15399600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>16256900</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5078500</v>
+        <v>5373300</v>
       </c>
       <c r="E52" s="3">
-        <v>2191200</v>
+        <v>4638000</v>
       </c>
       <c r="F52" s="3">
-        <v>3153400</v>
+        <v>2001100</v>
       </c>
       <c r="G52" s="3">
-        <v>3506100</v>
+        <v>2879800</v>
       </c>
       <c r="H52" s="3">
-        <v>3223700</v>
+        <v>3201900</v>
       </c>
       <c r="I52" s="3">
-        <v>2807300</v>
+        <v>2944000</v>
       </c>
       <c r="J52" s="3">
+        <v>2563700</v>
+      </c>
+      <c r="K52" s="3">
         <v>4299900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2684900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7796700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8355100</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2069240000</v>
+        <v>2007520000</v>
       </c>
       <c r="E54" s="3">
-        <v>1875440000</v>
+        <v>1889730000</v>
       </c>
       <c r="F54" s="3">
-        <v>1737210000</v>
+        <v>1712740000</v>
       </c>
       <c r="G54" s="3">
-        <v>1697890000</v>
+        <v>1586500000</v>
       </c>
       <c r="H54" s="3">
-        <v>1687160000</v>
+        <v>1550590000</v>
       </c>
       <c r="I54" s="3">
-        <v>1591580000</v>
+        <v>1540800000</v>
       </c>
       <c r="J54" s="3">
+        <v>1453500000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1564770000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1479660000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1343090000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1281880000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,8 +2397,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2303,9 +2433,12 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2339,45 +2472,51 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>801200</v>
+        <v>731900</v>
       </c>
       <c r="E59" s="3">
-        <v>658800</v>
+        <v>731700</v>
       </c>
       <c r="F59" s="3">
+        <v>601600</v>
+      </c>
+      <c r="G59" s="3">
+        <v>572100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>684800</v>
+      </c>
+      <c r="I59" s="3">
         <v>626500</v>
       </c>
-      <c r="G59" s="3">
-        <v>749800</v>
-      </c>
-      <c r="H59" s="3">
-        <v>686000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>605000</v>
-      </c>
       <c r="J59" s="3">
+        <v>552500</v>
+      </c>
+      <c r="K59" s="3">
         <v>654300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>681000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4547000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2359800</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2411,81 +2550,90 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>227945000</v>
+        <v>223465000</v>
       </c>
       <c r="E61" s="3">
-        <v>208529000</v>
+        <v>208170000</v>
       </c>
       <c r="F61" s="3">
-        <v>169613000</v>
+        <v>190439000</v>
       </c>
       <c r="G61" s="3">
-        <v>169636000</v>
+        <v>154898000</v>
       </c>
       <c r="H61" s="3">
-        <v>161353000</v>
+        <v>154919000</v>
       </c>
       <c r="I61" s="3">
-        <v>133778000</v>
+        <v>147355000</v>
       </c>
       <c r="J61" s="3">
+        <v>122173000</v>
+      </c>
+      <c r="K61" s="3">
         <v>137357000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>110944000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>58862700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>94132200</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6632100</v>
+        <v>4023300</v>
       </c>
       <c r="E62" s="3">
-        <v>4280700</v>
+        <v>6056800</v>
       </c>
       <c r="F62" s="3">
-        <v>5322700</v>
+        <v>3909300</v>
       </c>
       <c r="G62" s="3">
-        <v>6098500</v>
+        <v>4860900</v>
       </c>
       <c r="H62" s="3">
-        <v>5328600</v>
+        <v>5569500</v>
       </c>
       <c r="I62" s="3">
-        <v>5954700</v>
+        <v>4866300</v>
       </c>
       <c r="J62" s="3">
+        <v>5438100</v>
+      </c>
+      <c r="K62" s="3">
         <v>7540600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3803400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6030000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1152100</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1968350000</v>
+        <v>1913260000</v>
       </c>
       <c r="E66" s="3">
-        <v>1783980000</v>
+        <v>1797590000</v>
       </c>
       <c r="F66" s="3">
-        <v>1645320000</v>
+        <v>1629210000</v>
       </c>
       <c r="G66" s="3">
-        <v>1609230000</v>
+        <v>1502580000</v>
       </c>
       <c r="H66" s="3">
-        <v>1604120000</v>
+        <v>1469630000</v>
       </c>
       <c r="I66" s="3">
-        <v>1515520000</v>
+        <v>1464960000</v>
       </c>
       <c r="J66" s="3">
+        <v>1384040000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1487790000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1412960000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1284350000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1233310000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>55397000</v>
+        <v>53890800</v>
       </c>
       <c r="E72" s="3">
-        <v>54066300</v>
+        <v>50591200</v>
       </c>
       <c r="F72" s="3">
-        <v>51154400</v>
+        <v>49375900</v>
       </c>
       <c r="G72" s="3">
-        <v>47387500</v>
+        <v>46716600</v>
       </c>
       <c r="H72" s="3">
-        <v>42993200</v>
+        <v>43276500</v>
       </c>
       <c r="I72" s="3">
-        <v>38703600</v>
+        <v>39263500</v>
       </c>
       <c r="J72" s="3">
+        <v>35346000</v>
+      </c>
+      <c r="K72" s="3">
         <v>34979000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>31894000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>57285400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>21765900</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>100895000</v>
+        <v>94256600</v>
       </c>
       <c r="E76" s="3">
-        <v>91459000</v>
+        <v>92141800</v>
       </c>
       <c r="F76" s="3">
-        <v>91894300</v>
+        <v>83524600</v>
       </c>
       <c r="G76" s="3">
-        <v>88654700</v>
+        <v>83922200</v>
       </c>
       <c r="H76" s="3">
-        <v>83039700</v>
+        <v>80963700</v>
       </c>
       <c r="I76" s="3">
-        <v>76059000</v>
+        <v>75835800</v>
       </c>
       <c r="J76" s="3">
+        <v>69460700</v>
+      </c>
+      <c r="K76" s="3">
         <v>76979300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>66693800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>58740700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>48567700</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42825</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42460</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42094</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41729</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41364</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40999</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4374300</v>
+        <v>5504700</v>
       </c>
       <c r="E81" s="3">
-        <v>6004100</v>
+        <v>3994800</v>
       </c>
       <c r="F81" s="3">
-        <v>6198600</v>
+        <v>5483200</v>
       </c>
       <c r="G81" s="3">
-        <v>6264200</v>
+        <v>5660800</v>
       </c>
       <c r="H81" s="3">
-        <v>6026600</v>
+        <v>5720700</v>
       </c>
       <c r="I81" s="3">
-        <v>5516200</v>
+        <v>5503800</v>
       </c>
       <c r="J81" s="3">
+        <v>5037700</v>
+      </c>
+      <c r="K81" s="3">
         <v>6428300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7651900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3743300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3058400</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1937800</v>
+        <v>1884500</v>
       </c>
       <c r="E83" s="3">
-        <v>1934000</v>
+        <v>1769700</v>
       </c>
       <c r="F83" s="3">
-        <v>2515700</v>
+        <v>1766200</v>
       </c>
       <c r="G83" s="3">
-        <v>2616700</v>
+        <v>2297500</v>
       </c>
       <c r="H83" s="3">
-        <v>2595300</v>
+        <v>2389700</v>
       </c>
       <c r="I83" s="3">
-        <v>2269100</v>
+        <v>2370200</v>
       </c>
       <c r="J83" s="3">
+        <v>2072300</v>
+      </c>
+      <c r="K83" s="3">
         <v>2121500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2111000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2037600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1563500</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>160329500</v>
+        <v>12038900</v>
       </c>
       <c r="E89" s="3">
-        <v>60456700</v>
+        <v>146420500</v>
       </c>
       <c r="F89" s="3">
-        <v>39218900</v>
+        <v>55211900</v>
       </c>
       <c r="G89" s="3">
-        <v>79707400</v>
+        <v>35816600</v>
       </c>
       <c r="H89" s="3">
-        <v>38532700</v>
+        <v>72792600</v>
       </c>
       <c r="I89" s="3">
-        <v>-9615400</v>
+        <v>35189900</v>
       </c>
       <c r="J89" s="3">
+        <v>-8781300</v>
+      </c>
+      <c r="K89" s="3">
         <v>69840100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>76062400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>21574500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>11941900</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1244900</v>
+        <v>-721300</v>
       </c>
       <c r="E91" s="3">
-        <v>-879000</v>
+        <v>-1136900</v>
       </c>
       <c r="F91" s="3">
-        <v>-4352100</v>
+        <v>-802800</v>
       </c>
       <c r="G91" s="3">
-        <v>-6078200</v>
+        <v>-3974600</v>
       </c>
       <c r="H91" s="3">
-        <v>-4229400</v>
+        <v>-5550900</v>
       </c>
       <c r="I91" s="3">
-        <v>-4514600</v>
+        <v>-3862500</v>
       </c>
       <c r="J91" s="3">
+        <v>-4123000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4938600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4260700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5273500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1175100</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-65509400</v>
+        <v>-18749000</v>
       </c>
       <c r="E94" s="3">
-        <v>-25689500</v>
+        <v>-59826200</v>
       </c>
       <c r="F94" s="3">
-        <v>8583400</v>
+        <v>-23460800</v>
       </c>
       <c r="G94" s="3">
-        <v>-28961900</v>
+        <v>7838800</v>
       </c>
       <c r="H94" s="3">
-        <v>4958900</v>
+        <v>-26449400</v>
       </c>
       <c r="I94" s="3">
-        <v>44705300</v>
+        <v>4528700</v>
       </c>
       <c r="J94" s="3">
+        <v>40827000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-12429800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>133008000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>12797800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-22347400</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2278500</v>
+        <v>-2134900</v>
       </c>
       <c r="E96" s="3">
-        <v>-2181700</v>
+        <v>-2080900</v>
       </c>
       <c r="F96" s="3">
-        <v>-2094900</v>
+        <v>-1992500</v>
       </c>
       <c r="G96" s="3">
-        <v>-1864400</v>
+        <v>-1913200</v>
       </c>
       <c r="H96" s="3">
-        <v>-1749300</v>
+        <v>-1702700</v>
       </c>
       <c r="I96" s="3">
-        <v>-1808000</v>
+        <v>-1597600</v>
       </c>
       <c r="J96" s="3">
+        <v>-1651100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1457900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1557000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2458000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1283000</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4798800</v>
+        <v>-3780800</v>
       </c>
       <c r="E100" s="3">
-        <v>-8739400</v>
+        <v>-4382500</v>
       </c>
       <c r="F100" s="3">
-        <v>-5397900</v>
+        <v>-7981300</v>
       </c>
       <c r="G100" s="3">
-        <v>-2989500</v>
+        <v>-4929700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1420400</v>
+        <v>-2730100</v>
       </c>
       <c r="I100" s="3">
-        <v>-477600</v>
+        <v>-1297200</v>
       </c>
       <c r="J100" s="3">
+        <v>-436200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2581100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-9515500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6725300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2759000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1364000</v>
+        <v>2863500</v>
       </c>
       <c r="E101" s="3">
-        <v>-635300</v>
+        <v>1245700</v>
       </c>
       <c r="F101" s="3">
-        <v>1421500</v>
+        <v>-580200</v>
       </c>
       <c r="G101" s="3">
-        <v>-800700</v>
+        <v>1298200</v>
       </c>
       <c r="H101" s="3">
-        <v>-90000</v>
+        <v>-731300</v>
       </c>
       <c r="I101" s="3">
-        <v>-849400</v>
+        <v>-82200</v>
       </c>
       <c r="J101" s="3">
+        <v>-775700</v>
+      </c>
+      <c r="K101" s="3">
         <v>1515800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>51100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5676200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-557600</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>91385300</v>
+        <v>-7627500</v>
       </c>
       <c r="E102" s="3">
-        <v>25392500</v>
+        <v>83457400</v>
       </c>
       <c r="F102" s="3">
-        <v>43825800</v>
+        <v>23189600</v>
       </c>
       <c r="G102" s="3">
-        <v>46955300</v>
+        <v>40023800</v>
       </c>
       <c r="H102" s="3">
-        <v>41981100</v>
+        <v>42881800</v>
       </c>
       <c r="I102" s="3">
-        <v>33762800</v>
+        <v>38339200</v>
       </c>
       <c r="J102" s="3">
+        <v>30833800</v>
+      </c>
+      <c r="K102" s="3">
         <v>56345100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>199606000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>33323200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-13722100</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SMFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SMFG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>SMFG</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14863300</v>
+        <v>13985600</v>
       </c>
       <c r="E8" s="3">
-        <v>14435200</v>
+        <v>13582800</v>
       </c>
       <c r="F8" s="3">
-        <v>19135100</v>
+        <v>18005200</v>
       </c>
       <c r="G8" s="3">
-        <v>19388600</v>
+        <v>18243700</v>
       </c>
       <c r="H8" s="3">
-        <v>16871500</v>
+        <v>15875200</v>
       </c>
       <c r="I8" s="3">
-        <v>14894700</v>
+        <v>14015200</v>
       </c>
       <c r="J8" s="3">
-        <v>14554200</v>
+        <v>13694800</v>
       </c>
       <c r="K8" s="3">
         <v>16138200</v>
@@ -973,14 +973,14 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
+      <c r="D15" s="3">
+        <v>-1425600</v>
       </c>
       <c r="E15" s="3">
-        <v>-1419600</v>
+        <v>-1335800</v>
       </c>
       <c r="F15" s="3">
-        <v>-1408200</v>
+        <v>-1325000</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>5</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4256900</v>
+        <v>4588900</v>
       </c>
       <c r="E17" s="3">
-        <v>6670300</v>
+        <v>6276400</v>
       </c>
       <c r="F17" s="3">
-        <v>10463800</v>
+        <v>9845900</v>
       </c>
       <c r="G17" s="3">
-        <v>9707400</v>
+        <v>9134200</v>
       </c>
       <c r="H17" s="3">
-        <v>6691600</v>
+        <v>6296400</v>
       </c>
       <c r="I17" s="3">
-        <v>5476500</v>
+        <v>5153100</v>
       </c>
       <c r="J17" s="3">
-        <v>4165100</v>
+        <v>3919100</v>
       </c>
       <c r="K17" s="3">
         <v>3297800</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10606300</v>
+        <v>9396700</v>
       </c>
       <c r="E18" s="3">
-        <v>7764900</v>
+        <v>7306400</v>
       </c>
       <c r="F18" s="3">
-        <v>8671300</v>
+        <v>8159300</v>
       </c>
       <c r="G18" s="3">
-        <v>9681200</v>
+        <v>9109500</v>
       </c>
       <c r="H18" s="3">
-        <v>10179900</v>
+        <v>9578800</v>
       </c>
       <c r="I18" s="3">
-        <v>9418200</v>
+        <v>8862100</v>
       </c>
       <c r="J18" s="3">
-        <v>10389100</v>
+        <v>9775600</v>
       </c>
       <c r="K18" s="3">
         <v>12840400</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3364900</v>
+        <v>-2582900</v>
       </c>
       <c r="E20" s="3">
-        <v>-2528200</v>
+        <v>-2378900</v>
       </c>
       <c r="F20" s="3">
-        <v>-1748800</v>
+        <v>-1645500</v>
       </c>
       <c r="G20" s="3">
-        <v>-928500</v>
+        <v>-873700</v>
       </c>
       <c r="H20" s="3">
-        <v>-1542000</v>
+        <v>-1450900</v>
       </c>
       <c r="I20" s="3">
-        <v>-1789500</v>
+        <v>-1683800</v>
       </c>
       <c r="J20" s="3">
-        <v>-2753600</v>
+        <v>-2591000</v>
       </c>
       <c r="K20" s="3">
         <v>-1671400</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8988500</v>
+        <v>8577400</v>
       </c>
       <c r="E21" s="3">
-        <v>6980300</v>
+        <v>6583600</v>
       </c>
       <c r="F21" s="3">
-        <v>9190600</v>
+        <v>8166600</v>
       </c>
       <c r="G21" s="3">
-        <v>11111700</v>
+        <v>10385900</v>
       </c>
       <c r="H21" s="3">
-        <v>10977700</v>
+        <v>10364200</v>
       </c>
       <c r="I21" s="3">
-        <v>9674500</v>
+        <v>9396400</v>
       </c>
       <c r="J21" s="3">
-        <v>9548200</v>
+        <v>9123900</v>
       </c>
       <c r="K21" s="3">
         <v>13315400</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7241500</v>
+        <v>6813900</v>
       </c>
       <c r="E23" s="3">
-        <v>5236700</v>
+        <v>4927500</v>
       </c>
       <c r="F23" s="3">
-        <v>6922600</v>
+        <v>6513800</v>
       </c>
       <c r="G23" s="3">
-        <v>8752700</v>
+        <v>8235800</v>
       </c>
       <c r="H23" s="3">
-        <v>8637900</v>
+        <v>8127900</v>
       </c>
       <c r="I23" s="3">
-        <v>7628800</v>
+        <v>7178300</v>
       </c>
       <c r="J23" s="3">
-        <v>7635500</v>
+        <v>7184600</v>
       </c>
       <c r="K23" s="3">
         <v>11169000</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1671200</v>
+        <v>1572500</v>
       </c>
       <c r="E24" s="3">
-        <v>1217900</v>
+        <v>1146000</v>
       </c>
       <c r="F24" s="3">
-        <v>1306300</v>
+        <v>1229100</v>
       </c>
       <c r="G24" s="3">
-        <v>2581800</v>
+        <v>2429300</v>
       </c>
       <c r="H24" s="3">
-        <v>2107400</v>
+        <v>1982900</v>
       </c>
       <c r="I24" s="3">
-        <v>1331700</v>
+        <v>1253100</v>
       </c>
       <c r="J24" s="3">
-        <v>1753100</v>
+        <v>1649600</v>
       </c>
       <c r="K24" s="3">
         <v>3764800</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5570300</v>
+        <v>5241300</v>
       </c>
       <c r="E26" s="3">
-        <v>4018800</v>
+        <v>3781500</v>
       </c>
       <c r="F26" s="3">
-        <v>5616300</v>
+        <v>5284700</v>
       </c>
       <c r="G26" s="3">
-        <v>6170900</v>
+        <v>5806500</v>
       </c>
       <c r="H26" s="3">
-        <v>6530600</v>
+        <v>6144900</v>
       </c>
       <c r="I26" s="3">
-        <v>6297100</v>
+        <v>5925200</v>
       </c>
       <c r="J26" s="3">
-        <v>5882400</v>
+        <v>5535100</v>
       </c>
       <c r="K26" s="3">
         <v>7404200</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5504700</v>
+        <v>5179600</v>
       </c>
       <c r="E27" s="3">
-        <v>3994800</v>
+        <v>3758900</v>
       </c>
       <c r="F27" s="3">
-        <v>5483200</v>
+        <v>5159500</v>
       </c>
       <c r="G27" s="3">
-        <v>5660800</v>
+        <v>5326600</v>
       </c>
       <c r="H27" s="3">
-        <v>5720700</v>
+        <v>5382900</v>
       </c>
       <c r="I27" s="3">
-        <v>5503800</v>
+        <v>5178800</v>
       </c>
       <c r="J27" s="3">
-        <v>5037700</v>
+        <v>4740200</v>
       </c>
       <c r="K27" s="3">
         <v>6428300</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3364900</v>
+        <v>2582900</v>
       </c>
       <c r="E32" s="3">
-        <v>2528200</v>
+        <v>2378900</v>
       </c>
       <c r="F32" s="3">
-        <v>1748800</v>
+        <v>1645500</v>
       </c>
       <c r="G32" s="3">
-        <v>928500</v>
+        <v>873700</v>
       </c>
       <c r="H32" s="3">
-        <v>1542000</v>
+        <v>1450900</v>
       </c>
       <c r="I32" s="3">
-        <v>1789500</v>
+        <v>1683800</v>
       </c>
       <c r="J32" s="3">
-        <v>2753600</v>
+        <v>2591000</v>
       </c>
       <c r="K32" s="3">
         <v>1671400</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5504700</v>
+        <v>5179600</v>
       </c>
       <c r="E33" s="3">
-        <v>3994800</v>
+        <v>3758900</v>
       </c>
       <c r="F33" s="3">
-        <v>5483200</v>
+        <v>5159500</v>
       </c>
       <c r="G33" s="3">
-        <v>5660800</v>
+        <v>5326600</v>
       </c>
       <c r="H33" s="3">
-        <v>5720700</v>
+        <v>5382900</v>
       </c>
       <c r="I33" s="3">
-        <v>5503800</v>
+        <v>5178800</v>
       </c>
       <c r="J33" s="3">
-        <v>5037700</v>
+        <v>4740200</v>
       </c>
       <c r="K33" s="3">
         <v>6428300</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5504700</v>
+        <v>5179600</v>
       </c>
       <c r="E35" s="3">
-        <v>3994800</v>
+        <v>3758900</v>
       </c>
       <c r="F35" s="3">
-        <v>5483200</v>
+        <v>5159500</v>
       </c>
       <c r="G35" s="3">
-        <v>5660800</v>
+        <v>5326600</v>
       </c>
       <c r="H35" s="3">
-        <v>5720700</v>
+        <v>5382900</v>
       </c>
       <c r="I35" s="3">
-        <v>5503800</v>
+        <v>5178800</v>
       </c>
       <c r="J35" s="3">
-        <v>5037700</v>
+        <v>4740200</v>
       </c>
       <c r="K35" s="3">
         <v>6428300</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>582631000</v>
+        <v>548226000</v>
       </c>
       <c r="E41" s="3">
-        <v>565312000</v>
+        <v>531930000</v>
       </c>
       <c r="F41" s="3">
-        <v>481177000</v>
+        <v>452764000</v>
       </c>
       <c r="G41" s="3">
-        <v>447234000</v>
+        <v>420825000</v>
       </c>
       <c r="H41" s="3">
-        <v>418577000</v>
+        <v>393860000</v>
       </c>
       <c r="I41" s="3">
-        <v>365083000</v>
+        <v>343524000</v>
       </c>
       <c r="J41" s="3">
-        <v>333328000</v>
+        <v>313645000</v>
       </c>
       <c r="K41" s="3">
         <v>339059000</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>227348000</v>
+        <v>213923000</v>
       </c>
       <c r="E42" s="3">
-        <v>213397000</v>
+        <v>200796000</v>
       </c>
       <c r="F42" s="3">
-        <v>223103000</v>
+        <v>209928000</v>
       </c>
       <c r="G42" s="3">
-        <v>191909000</v>
+        <v>180577000</v>
       </c>
       <c r="H42" s="3">
-        <v>183299000</v>
+        <v>172475000</v>
       </c>
       <c r="I42" s="3">
-        <v>190326000</v>
+        <v>179087000</v>
       </c>
       <c r="J42" s="3">
-        <v>185010000</v>
+        <v>174085000</v>
       </c>
       <c r="K42" s="3">
         <v>189608000</v>
@@ -2057,26 +2057,26 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
+      <c r="D47" s="3">
+        <v>8700500</v>
       </c>
       <c r="E47" s="3">
-        <v>7491500</v>
+        <v>7049100</v>
       </c>
       <c r="F47" s="3">
-        <v>7358800</v>
+        <v>6924200</v>
       </c>
       <c r="G47" s="3">
-        <v>7601900</v>
+        <v>7153000</v>
       </c>
       <c r="H47" s="3">
-        <v>5321700</v>
+        <v>5007500</v>
       </c>
       <c r="I47" s="3">
-        <v>4709400</v>
+        <v>4431300</v>
       </c>
       <c r="J47" s="3">
-        <v>4755200</v>
+        <v>4474400</v>
       </c>
       <c r="K47" s="3">
         <v>4979100</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11352000</v>
+        <v>10681700</v>
       </c>
       <c r="E48" s="3">
-        <v>11365500</v>
+        <v>10694400</v>
       </c>
       <c r="F48" s="3">
-        <v>11298000</v>
+        <v>10630900</v>
       </c>
       <c r="G48" s="3">
-        <v>11721600</v>
+        <v>11029500</v>
       </c>
       <c r="H48" s="3">
-        <v>27071300</v>
+        <v>25472700</v>
       </c>
       <c r="I48" s="3">
-        <v>24161800</v>
+        <v>22735000</v>
       </c>
       <c r="J48" s="3">
-        <v>22742300</v>
+        <v>21399400</v>
       </c>
       <c r="K48" s="3">
         <v>23635400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7001800</v>
+        <v>6588300</v>
       </c>
       <c r="E49" s="3">
-        <v>5754900</v>
+        <v>5415100</v>
       </c>
       <c r="F49" s="3">
-        <v>5870400</v>
+        <v>5523700</v>
       </c>
       <c r="G49" s="3">
-        <v>5992300</v>
+        <v>5638500</v>
       </c>
       <c r="H49" s="3">
-        <v>6742900</v>
+        <v>6344700</v>
       </c>
       <c r="I49" s="3">
-        <v>7373300</v>
+        <v>6937900</v>
       </c>
       <c r="J49" s="3">
-        <v>6841700</v>
+        <v>6437700</v>
       </c>
       <c r="K49" s="3">
         <v>6990800</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5373300</v>
+        <v>5056000</v>
       </c>
       <c r="E52" s="3">
-        <v>4638000</v>
+        <v>4364100</v>
       </c>
       <c r="F52" s="3">
-        <v>2001100</v>
+        <v>1883000</v>
       </c>
       <c r="G52" s="3">
-        <v>2879800</v>
+        <v>2709700</v>
       </c>
       <c r="H52" s="3">
-        <v>3201900</v>
+        <v>3012800</v>
       </c>
       <c r="I52" s="3">
-        <v>2944000</v>
+        <v>2770200</v>
       </c>
       <c r="J52" s="3">
-        <v>2563700</v>
+        <v>2412300</v>
       </c>
       <c r="K52" s="3">
         <v>4299900</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2007520000</v>
+        <v>1888970000</v>
       </c>
       <c r="E54" s="3">
-        <v>1889730000</v>
+        <v>1778140000</v>
       </c>
       <c r="F54" s="3">
-        <v>1712740000</v>
+        <v>1611600000</v>
       </c>
       <c r="G54" s="3">
-        <v>1586500000</v>
+        <v>1492820000</v>
       </c>
       <c r="H54" s="3">
-        <v>1550590000</v>
+        <v>1459030000</v>
       </c>
       <c r="I54" s="3">
-        <v>1540800000</v>
+        <v>1449810000</v>
       </c>
       <c r="J54" s="3">
-        <v>1453500000</v>
+        <v>1367670000</v>
       </c>
       <c r="K54" s="3">
         <v>1564770000</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>731900</v>
+        <v>688700</v>
       </c>
       <c r="E59" s="3">
-        <v>731700</v>
+        <v>688500</v>
       </c>
       <c r="F59" s="3">
-        <v>601600</v>
+        <v>566100</v>
       </c>
       <c r="G59" s="3">
-        <v>572100</v>
+        <v>538300</v>
       </c>
       <c r="H59" s="3">
-        <v>684800</v>
+        <v>644400</v>
       </c>
       <c r="I59" s="3">
-        <v>626500</v>
+        <v>589500</v>
       </c>
       <c r="J59" s="3">
-        <v>552500</v>
+        <v>519900</v>
       </c>
       <c r="K59" s="3">
         <v>654300</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>223465000</v>
+        <v>210269000</v>
       </c>
       <c r="E61" s="3">
-        <v>208170000</v>
+        <v>195878000</v>
       </c>
       <c r="F61" s="3">
-        <v>190439000</v>
+        <v>179193000</v>
       </c>
       <c r="G61" s="3">
-        <v>154898000</v>
+        <v>145752000</v>
       </c>
       <c r="H61" s="3">
-        <v>154919000</v>
+        <v>145771000</v>
       </c>
       <c r="I61" s="3">
-        <v>147355000</v>
+        <v>138654000</v>
       </c>
       <c r="J61" s="3">
-        <v>122173000</v>
+        <v>114958000</v>
       </c>
       <c r="K61" s="3">
         <v>137357000</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4023300</v>
+        <v>3785700</v>
       </c>
       <c r="E62" s="3">
-        <v>6056800</v>
+        <v>5699100</v>
       </c>
       <c r="F62" s="3">
-        <v>3909300</v>
+        <v>3678500</v>
       </c>
       <c r="G62" s="3">
-        <v>4860900</v>
+        <v>4573900</v>
       </c>
       <c r="H62" s="3">
-        <v>5569500</v>
+        <v>5240600</v>
       </c>
       <c r="I62" s="3">
-        <v>4866300</v>
+        <v>4579000</v>
       </c>
       <c r="J62" s="3">
-        <v>5438100</v>
+        <v>5117000</v>
       </c>
       <c r="K62" s="3">
         <v>7540600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1913260000</v>
+        <v>1800280000</v>
       </c>
       <c r="E66" s="3">
-        <v>1797590000</v>
+        <v>1691440000</v>
       </c>
       <c r="F66" s="3">
-        <v>1629210000</v>
+        <v>1533010000</v>
       </c>
       <c r="G66" s="3">
-        <v>1502580000</v>
+        <v>1413850000</v>
       </c>
       <c r="H66" s="3">
-        <v>1469630000</v>
+        <v>1382850000</v>
       </c>
       <c r="I66" s="3">
-        <v>1464960000</v>
+        <v>1378450000</v>
       </c>
       <c r="J66" s="3">
-        <v>1384040000</v>
+        <v>1302320000</v>
       </c>
       <c r="K66" s="3">
         <v>1487790000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>53890800</v>
+        <v>50708500</v>
       </c>
       <c r="E72" s="3">
-        <v>50591200</v>
+        <v>47603800</v>
       </c>
       <c r="F72" s="3">
-        <v>49375900</v>
+        <v>46460300</v>
       </c>
       <c r="G72" s="3">
-        <v>46716600</v>
+        <v>43958000</v>
       </c>
       <c r="H72" s="3">
-        <v>43276500</v>
+        <v>40721100</v>
       </c>
       <c r="I72" s="3">
-        <v>39263500</v>
+        <v>36944900</v>
       </c>
       <c r="J72" s="3">
-        <v>35346000</v>
+        <v>33258800</v>
       </c>
       <c r="K72" s="3">
         <v>34979000</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>94256600</v>
+        <v>88690700</v>
       </c>
       <c r="E76" s="3">
-        <v>92141800</v>
+        <v>86700800</v>
       </c>
       <c r="F76" s="3">
-        <v>83524600</v>
+        <v>78592500</v>
       </c>
       <c r="G76" s="3">
-        <v>83922200</v>
+        <v>78966600</v>
       </c>
       <c r="H76" s="3">
-        <v>80963700</v>
+        <v>76182800</v>
       </c>
       <c r="I76" s="3">
-        <v>75835800</v>
+        <v>71357700</v>
       </c>
       <c r="J76" s="3">
-        <v>69460700</v>
+        <v>65359000</v>
       </c>
       <c r="K76" s="3">
         <v>76979300</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5504700</v>
+        <v>5179600</v>
       </c>
       <c r="E81" s="3">
-        <v>3994800</v>
+        <v>3758900</v>
       </c>
       <c r="F81" s="3">
-        <v>5483200</v>
+        <v>5159500</v>
       </c>
       <c r="G81" s="3">
-        <v>5660800</v>
+        <v>5326600</v>
       </c>
       <c r="H81" s="3">
-        <v>5720700</v>
+        <v>5382900</v>
       </c>
       <c r="I81" s="3">
-        <v>5503800</v>
+        <v>5178800</v>
       </c>
       <c r="J81" s="3">
-        <v>5037700</v>
+        <v>4740200</v>
       </c>
       <c r="K81" s="3">
         <v>6428300</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1884500</v>
+        <v>1773200</v>
       </c>
       <c r="E83" s="3">
-        <v>1769700</v>
+        <v>1665200</v>
       </c>
       <c r="F83" s="3">
-        <v>1766200</v>
+        <v>1661900</v>
       </c>
       <c r="G83" s="3">
-        <v>2297500</v>
+        <v>2161800</v>
       </c>
       <c r="H83" s="3">
-        <v>2389700</v>
+        <v>2248600</v>
       </c>
       <c r="I83" s="3">
-        <v>2370200</v>
+        <v>2230200</v>
       </c>
       <c r="J83" s="3">
-        <v>2072300</v>
+        <v>1949900</v>
       </c>
       <c r="K83" s="3">
         <v>2121500</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12038900</v>
+        <v>11328000</v>
       </c>
       <c r="E89" s="3">
-        <v>146420500</v>
+        <v>137774300</v>
       </c>
       <c r="F89" s="3">
-        <v>55211900</v>
+        <v>51951700</v>
       </c>
       <c r="G89" s="3">
-        <v>35816600</v>
+        <v>33701600</v>
       </c>
       <c r="H89" s="3">
-        <v>72792600</v>
+        <v>68494200</v>
       </c>
       <c r="I89" s="3">
-        <v>35189900</v>
+        <v>33111900</v>
       </c>
       <c r="J89" s="3">
-        <v>-8781300</v>
+        <v>-8262700</v>
       </c>
       <c r="K89" s="3">
         <v>69840100</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-721300</v>
+        <v>-678700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1136900</v>
+        <v>-1069800</v>
       </c>
       <c r="F91" s="3">
-        <v>-802800</v>
+        <v>-755400</v>
       </c>
       <c r="G91" s="3">
-        <v>-3974600</v>
+        <v>-3739900</v>
       </c>
       <c r="H91" s="3">
-        <v>-5550900</v>
+        <v>-5223100</v>
       </c>
       <c r="I91" s="3">
-        <v>-3862500</v>
+        <v>-3634400</v>
       </c>
       <c r="J91" s="3">
-        <v>-4123000</v>
+        <v>-3879500</v>
       </c>
       <c r="K91" s="3">
         <v>-4938600</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-18749000</v>
+        <v>-17641900</v>
       </c>
       <c r="E94" s="3">
-        <v>-59826200</v>
+        <v>-56293500</v>
       </c>
       <c r="F94" s="3">
-        <v>-23460800</v>
+        <v>-22075500</v>
       </c>
       <c r="G94" s="3">
-        <v>7838800</v>
+        <v>7375900</v>
       </c>
       <c r="H94" s="3">
-        <v>-26449400</v>
+        <v>-24887500</v>
       </c>
       <c r="I94" s="3">
-        <v>4528700</v>
+        <v>4261300</v>
       </c>
       <c r="J94" s="3">
-        <v>40827000</v>
+        <v>38416200</v>
       </c>
       <c r="K94" s="3">
         <v>-12429800</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2134900</v>
+        <v>-2008800</v>
       </c>
       <c r="E96" s="3">
-        <v>-2080900</v>
+        <v>-1958000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1992500</v>
+        <v>-1874800</v>
       </c>
       <c r="G96" s="3">
-        <v>-1913200</v>
+        <v>-1800200</v>
       </c>
       <c r="H96" s="3">
-        <v>-1702700</v>
+        <v>-1602100</v>
       </c>
       <c r="I96" s="3">
-        <v>-1597600</v>
+        <v>-1503200</v>
       </c>
       <c r="J96" s="3">
-        <v>-1651100</v>
+        <v>-1553600</v>
       </c>
       <c r="K96" s="3">
         <v>-1457900</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3780800</v>
+        <v>-3557500</v>
       </c>
       <c r="E100" s="3">
-        <v>-4382500</v>
+        <v>-4123700</v>
       </c>
       <c r="F100" s="3">
-        <v>-7981300</v>
+        <v>-7510000</v>
       </c>
       <c r="G100" s="3">
-        <v>-4929700</v>
+        <v>-4638600</v>
       </c>
       <c r="H100" s="3">
-        <v>-2730100</v>
+        <v>-2568900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1297200</v>
+        <v>-1220600</v>
       </c>
       <c r="J100" s="3">
-        <v>-436200</v>
+        <v>-410400</v>
       </c>
       <c r="K100" s="3">
         <v>-2581100</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2863500</v>
+        <v>2694400</v>
       </c>
       <c r="E101" s="3">
-        <v>1245700</v>
+        <v>1172200</v>
       </c>
       <c r="F101" s="3">
-        <v>-580200</v>
+        <v>-545900</v>
       </c>
       <c r="G101" s="3">
-        <v>1298200</v>
+        <v>1221500</v>
       </c>
       <c r="H101" s="3">
-        <v>-731300</v>
+        <v>-688100</v>
       </c>
       <c r="I101" s="3">
-        <v>-82200</v>
+        <v>-77400</v>
       </c>
       <c r="J101" s="3">
-        <v>-775700</v>
+        <v>-729900</v>
       </c>
       <c r="K101" s="3">
         <v>1515800</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-7627500</v>
+        <v>-7177100</v>
       </c>
       <c r="E102" s="3">
-        <v>83457400</v>
+        <v>78529300</v>
       </c>
       <c r="F102" s="3">
-        <v>23189600</v>
+        <v>21820300</v>
       </c>
       <c r="G102" s="3">
-        <v>40023800</v>
+        <v>37660400</v>
       </c>
       <c r="H102" s="3">
-        <v>42881800</v>
+        <v>40349600</v>
       </c>
       <c r="I102" s="3">
-        <v>38339200</v>
+        <v>36075200</v>
       </c>
       <c r="J102" s="3">
-        <v>30833800</v>
+        <v>29013100</v>
       </c>
       <c r="K102" s="3">
         <v>56345100</v>

--- a/AAII_Financials/Yearly/SMFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SMFG_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13985600</v>
+        <v>13527700</v>
       </c>
       <c r="E8" s="3">
-        <v>13582800</v>
+        <v>13138100</v>
       </c>
       <c r="F8" s="3">
-        <v>18005200</v>
+        <v>17415600</v>
       </c>
       <c r="G8" s="3">
-        <v>18243700</v>
+        <v>17646400</v>
       </c>
       <c r="H8" s="3">
-        <v>15875200</v>
+        <v>15355500</v>
       </c>
       <c r="I8" s="3">
-        <v>14015200</v>
+        <v>13556300</v>
       </c>
       <c r="J8" s="3">
-        <v>13694800</v>
+        <v>13246400</v>
       </c>
       <c r="K8" s="3">
         <v>16138200</v>
@@ -974,13 +974,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1425600</v>
+        <v>-1378900</v>
       </c>
       <c r="E15" s="3">
-        <v>-1335800</v>
+        <v>-1292100</v>
       </c>
       <c r="F15" s="3">
-        <v>-1325000</v>
+        <v>-1281600</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>5</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4588900</v>
+        <v>4438600</v>
       </c>
       <c r="E17" s="3">
-        <v>6276400</v>
+        <v>6070900</v>
       </c>
       <c r="F17" s="3">
-        <v>9845900</v>
+        <v>9523500</v>
       </c>
       <c r="G17" s="3">
-        <v>9134200</v>
+        <v>8835100</v>
       </c>
       <c r="H17" s="3">
-        <v>6296400</v>
+        <v>6090300</v>
       </c>
       <c r="I17" s="3">
-        <v>5153100</v>
+        <v>4984400</v>
       </c>
       <c r="J17" s="3">
-        <v>3919100</v>
+        <v>3790800</v>
       </c>
       <c r="K17" s="3">
         <v>3297800</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9396700</v>
+        <v>9089100</v>
       </c>
       <c r="E18" s="3">
-        <v>7306400</v>
+        <v>7067200</v>
       </c>
       <c r="F18" s="3">
-        <v>8159300</v>
+        <v>7892100</v>
       </c>
       <c r="G18" s="3">
-        <v>9109500</v>
+        <v>8811300</v>
       </c>
       <c r="H18" s="3">
-        <v>9578800</v>
+        <v>9265200</v>
       </c>
       <c r="I18" s="3">
-        <v>8862100</v>
+        <v>8571900</v>
       </c>
       <c r="J18" s="3">
-        <v>9775600</v>
+        <v>9455500</v>
       </c>
       <c r="K18" s="3">
         <v>12840400</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2582900</v>
+        <v>-2498300</v>
       </c>
       <c r="E20" s="3">
-        <v>-2378900</v>
+        <v>-2301000</v>
       </c>
       <c r="F20" s="3">
-        <v>-1645500</v>
+        <v>-1591600</v>
       </c>
       <c r="G20" s="3">
-        <v>-873700</v>
+        <v>-845100</v>
       </c>
       <c r="H20" s="3">
-        <v>-1450900</v>
+        <v>-1403400</v>
       </c>
       <c r="I20" s="3">
-        <v>-1683800</v>
+        <v>-1628700</v>
       </c>
       <c r="J20" s="3">
-        <v>-2591000</v>
+        <v>-2506100</v>
       </c>
       <c r="K20" s="3">
         <v>-1671400</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8577400</v>
+        <v>8243100</v>
       </c>
       <c r="E21" s="3">
-        <v>6583600</v>
+        <v>6317800</v>
       </c>
       <c r="F21" s="3">
-        <v>8166600</v>
+        <v>7849100</v>
       </c>
       <c r="G21" s="3">
-        <v>10385900</v>
+        <v>9980500</v>
       </c>
       <c r="H21" s="3">
-        <v>10364200</v>
+        <v>9956900</v>
       </c>
       <c r="I21" s="3">
-        <v>9396400</v>
+        <v>9021400</v>
       </c>
       <c r="J21" s="3">
-        <v>9123900</v>
+        <v>8766300</v>
       </c>
       <c r="K21" s="3">
         <v>13315400</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6813900</v>
+        <v>6590800</v>
       </c>
       <c r="E23" s="3">
-        <v>4927500</v>
+        <v>4766200</v>
       </c>
       <c r="F23" s="3">
-        <v>6513800</v>
+        <v>6300500</v>
       </c>
       <c r="G23" s="3">
-        <v>8235800</v>
+        <v>7966200</v>
       </c>
       <c r="H23" s="3">
-        <v>8127900</v>
+        <v>7861700</v>
       </c>
       <c r="I23" s="3">
-        <v>7178300</v>
+        <v>6943300</v>
       </c>
       <c r="J23" s="3">
-        <v>7184600</v>
+        <v>6949400</v>
       </c>
       <c r="K23" s="3">
         <v>11169000</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1572500</v>
+        <v>1521100</v>
       </c>
       <c r="E24" s="3">
-        <v>1146000</v>
+        <v>1108500</v>
       </c>
       <c r="F24" s="3">
-        <v>1229100</v>
+        <v>1188900</v>
       </c>
       <c r="G24" s="3">
-        <v>2429300</v>
+        <v>2349800</v>
       </c>
       <c r="H24" s="3">
-        <v>1982900</v>
+        <v>1918000</v>
       </c>
       <c r="I24" s="3">
-        <v>1253100</v>
+        <v>1212000</v>
       </c>
       <c r="J24" s="3">
-        <v>1649600</v>
+        <v>1595600</v>
       </c>
       <c r="K24" s="3">
         <v>3764800</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5241300</v>
+        <v>5069700</v>
       </c>
       <c r="E26" s="3">
-        <v>3781500</v>
+        <v>3657700</v>
       </c>
       <c r="F26" s="3">
-        <v>5284700</v>
+        <v>5111600</v>
       </c>
       <c r="G26" s="3">
-        <v>5806500</v>
+        <v>5616400</v>
       </c>
       <c r="H26" s="3">
-        <v>6144900</v>
+        <v>5943700</v>
       </c>
       <c r="I26" s="3">
-        <v>5925200</v>
+        <v>5731200</v>
       </c>
       <c r="J26" s="3">
-        <v>5535100</v>
+        <v>5353800</v>
       </c>
       <c r="K26" s="3">
         <v>7404200</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5179600</v>
+        <v>5010000</v>
       </c>
       <c r="E27" s="3">
-        <v>3758900</v>
+        <v>3635800</v>
       </c>
       <c r="F27" s="3">
-        <v>5159500</v>
+        <v>4990500</v>
       </c>
       <c r="G27" s="3">
-        <v>5326600</v>
+        <v>5152200</v>
       </c>
       <c r="H27" s="3">
-        <v>5382900</v>
+        <v>5206700</v>
       </c>
       <c r="I27" s="3">
-        <v>5178800</v>
+        <v>5009200</v>
       </c>
       <c r="J27" s="3">
-        <v>4740200</v>
+        <v>4585000</v>
       </c>
       <c r="K27" s="3">
         <v>6428300</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2582900</v>
+        <v>2498300</v>
       </c>
       <c r="E32" s="3">
-        <v>2378900</v>
+        <v>2301000</v>
       </c>
       <c r="F32" s="3">
-        <v>1645500</v>
+        <v>1591600</v>
       </c>
       <c r="G32" s="3">
-        <v>873700</v>
+        <v>845100</v>
       </c>
       <c r="H32" s="3">
-        <v>1450900</v>
+        <v>1403400</v>
       </c>
       <c r="I32" s="3">
-        <v>1683800</v>
+        <v>1628700</v>
       </c>
       <c r="J32" s="3">
-        <v>2591000</v>
+        <v>2506100</v>
       </c>
       <c r="K32" s="3">
         <v>1671400</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5179600</v>
+        <v>5010000</v>
       </c>
       <c r="E33" s="3">
-        <v>3758900</v>
+        <v>3635800</v>
       </c>
       <c r="F33" s="3">
-        <v>5159500</v>
+        <v>4990500</v>
       </c>
       <c r="G33" s="3">
-        <v>5326600</v>
+        <v>5152200</v>
       </c>
       <c r="H33" s="3">
-        <v>5382900</v>
+        <v>5206700</v>
       </c>
       <c r="I33" s="3">
-        <v>5178800</v>
+        <v>5009200</v>
       </c>
       <c r="J33" s="3">
-        <v>4740200</v>
+        <v>4585000</v>
       </c>
       <c r="K33" s="3">
         <v>6428300</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5179600</v>
+        <v>5010000</v>
       </c>
       <c r="E35" s="3">
-        <v>3758900</v>
+        <v>3635800</v>
       </c>
       <c r="F35" s="3">
-        <v>5159500</v>
+        <v>4990500</v>
       </c>
       <c r="G35" s="3">
-        <v>5326600</v>
+        <v>5152200</v>
       </c>
       <c r="H35" s="3">
-        <v>5382900</v>
+        <v>5206700</v>
       </c>
       <c r="I35" s="3">
-        <v>5178800</v>
+        <v>5009200</v>
       </c>
       <c r="J35" s="3">
-        <v>4740200</v>
+        <v>4585000</v>
       </c>
       <c r="K35" s="3">
         <v>6428300</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>548226000</v>
+        <v>530276000</v>
       </c>
       <c r="E41" s="3">
-        <v>531930000</v>
+        <v>514513000</v>
       </c>
       <c r="F41" s="3">
-        <v>452764000</v>
+        <v>437939000</v>
       </c>
       <c r="G41" s="3">
-        <v>420825000</v>
+        <v>407046000</v>
       </c>
       <c r="H41" s="3">
-        <v>393860000</v>
+        <v>380964000</v>
       </c>
       <c r="I41" s="3">
-        <v>343524000</v>
+        <v>332277000</v>
       </c>
       <c r="J41" s="3">
-        <v>313645000</v>
+        <v>303376000</v>
       </c>
       <c r="K41" s="3">
         <v>339059000</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>213923000</v>
+        <v>206919000</v>
       </c>
       <c r="E42" s="3">
-        <v>200796000</v>
+        <v>194221000</v>
       </c>
       <c r="F42" s="3">
-        <v>209928000</v>
+        <v>203055000</v>
       </c>
       <c r="G42" s="3">
-        <v>180577000</v>
+        <v>174665000</v>
       </c>
       <c r="H42" s="3">
-        <v>172475000</v>
+        <v>166828000</v>
       </c>
       <c r="I42" s="3">
-        <v>179087000</v>
+        <v>173224000</v>
       </c>
       <c r="J42" s="3">
-        <v>174085000</v>
+        <v>168385000</v>
       </c>
       <c r="K42" s="3">
         <v>189608000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8700500</v>
+        <v>8415600</v>
       </c>
       <c r="E47" s="3">
-        <v>7049100</v>
+        <v>6818300</v>
       </c>
       <c r="F47" s="3">
-        <v>6924200</v>
+        <v>6697500</v>
       </c>
       <c r="G47" s="3">
-        <v>7153000</v>
+        <v>6918800</v>
       </c>
       <c r="H47" s="3">
-        <v>5007500</v>
+        <v>4843500</v>
       </c>
       <c r="I47" s="3">
-        <v>4431300</v>
+        <v>4286200</v>
       </c>
       <c r="J47" s="3">
-        <v>4474400</v>
+        <v>4327900</v>
       </c>
       <c r="K47" s="3">
         <v>4979100</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10681700</v>
+        <v>10331900</v>
       </c>
       <c r="E48" s="3">
-        <v>10694400</v>
+        <v>10344200</v>
       </c>
       <c r="F48" s="3">
-        <v>10630900</v>
+        <v>10282800</v>
       </c>
       <c r="G48" s="3">
-        <v>11029500</v>
+        <v>10668300</v>
       </c>
       <c r="H48" s="3">
-        <v>25472700</v>
+        <v>24638700</v>
       </c>
       <c r="I48" s="3">
-        <v>22735000</v>
+        <v>21990600</v>
       </c>
       <c r="J48" s="3">
-        <v>21399400</v>
+        <v>20698700</v>
       </c>
       <c r="K48" s="3">
         <v>23635400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6588300</v>
+        <v>6372600</v>
       </c>
       <c r="E49" s="3">
-        <v>5415100</v>
+        <v>5237800</v>
       </c>
       <c r="F49" s="3">
-        <v>5523700</v>
+        <v>5342900</v>
       </c>
       <c r="G49" s="3">
-        <v>5638500</v>
+        <v>5453800</v>
       </c>
       <c r="H49" s="3">
-        <v>6344700</v>
+        <v>6137000</v>
       </c>
       <c r="I49" s="3">
-        <v>6937900</v>
+        <v>6710700</v>
       </c>
       <c r="J49" s="3">
-        <v>6437700</v>
+        <v>6226900</v>
       </c>
       <c r="K49" s="3">
         <v>6990800</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5056000</v>
+        <v>4890400</v>
       </c>
       <c r="E52" s="3">
-        <v>4364100</v>
+        <v>4221200</v>
       </c>
       <c r="F52" s="3">
-        <v>1883000</v>
+        <v>1821300</v>
       </c>
       <c r="G52" s="3">
-        <v>2709700</v>
+        <v>2621000</v>
       </c>
       <c r="H52" s="3">
-        <v>3012800</v>
+        <v>2914200</v>
       </c>
       <c r="I52" s="3">
-        <v>2770200</v>
+        <v>2679500</v>
       </c>
       <c r="J52" s="3">
-        <v>2412300</v>
+        <v>2333400</v>
       </c>
       <c r="K52" s="3">
         <v>4299900</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1888970000</v>
+        <v>1827130000</v>
       </c>
       <c r="E54" s="3">
-        <v>1778140000</v>
+        <v>1719920000</v>
       </c>
       <c r="F54" s="3">
-        <v>1611600000</v>
+        <v>1558830000</v>
       </c>
       <c r="G54" s="3">
-        <v>1492820000</v>
+        <v>1443940000</v>
       </c>
       <c r="H54" s="3">
-        <v>1459030000</v>
+        <v>1411260000</v>
       </c>
       <c r="I54" s="3">
-        <v>1449810000</v>
+        <v>1402340000</v>
       </c>
       <c r="J54" s="3">
-        <v>1367670000</v>
+        <v>1322890000</v>
       </c>
       <c r="K54" s="3">
         <v>1564770000</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>688700</v>
+        <v>666200</v>
       </c>
       <c r="E59" s="3">
-        <v>688500</v>
+        <v>666000</v>
       </c>
       <c r="F59" s="3">
-        <v>566100</v>
+        <v>547600</v>
       </c>
       <c r="G59" s="3">
-        <v>538300</v>
+        <v>520700</v>
       </c>
       <c r="H59" s="3">
-        <v>644400</v>
+        <v>623300</v>
       </c>
       <c r="I59" s="3">
-        <v>589500</v>
+        <v>570200</v>
       </c>
       <c r="J59" s="3">
-        <v>519900</v>
+        <v>502800</v>
       </c>
       <c r="K59" s="3">
         <v>654300</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>210269000</v>
+        <v>203384000</v>
       </c>
       <c r="E61" s="3">
-        <v>195878000</v>
+        <v>189464000</v>
       </c>
       <c r="F61" s="3">
-        <v>179193000</v>
+        <v>173326000</v>
       </c>
       <c r="G61" s="3">
-        <v>145752000</v>
+        <v>140979000</v>
       </c>
       <c r="H61" s="3">
-        <v>145771000</v>
+        <v>140998000</v>
       </c>
       <c r="I61" s="3">
-        <v>138654000</v>
+        <v>134114000</v>
       </c>
       <c r="J61" s="3">
-        <v>114958000</v>
+        <v>111194000</v>
       </c>
       <c r="K61" s="3">
         <v>137357000</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3785700</v>
+        <v>3661800</v>
       </c>
       <c r="E62" s="3">
-        <v>5699100</v>
+        <v>5512500</v>
       </c>
       <c r="F62" s="3">
-        <v>3678500</v>
+        <v>3558000</v>
       </c>
       <c r="G62" s="3">
-        <v>4573900</v>
+        <v>4424100</v>
       </c>
       <c r="H62" s="3">
-        <v>5240600</v>
+        <v>5069000</v>
       </c>
       <c r="I62" s="3">
-        <v>4579000</v>
+        <v>4429000</v>
       </c>
       <c r="J62" s="3">
-        <v>5117000</v>
+        <v>4949500</v>
       </c>
       <c r="K62" s="3">
         <v>7540600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1800280000</v>
+        <v>1741340000</v>
       </c>
       <c r="E66" s="3">
-        <v>1691440000</v>
+        <v>1636060000</v>
       </c>
       <c r="F66" s="3">
-        <v>1533010000</v>
+        <v>1482810000</v>
       </c>
       <c r="G66" s="3">
-        <v>1413850000</v>
+        <v>1367560000</v>
       </c>
       <c r="H66" s="3">
-        <v>1382850000</v>
+        <v>1337570000</v>
       </c>
       <c r="I66" s="3">
-        <v>1378450000</v>
+        <v>1333320000</v>
       </c>
       <c r="J66" s="3">
-        <v>1302320000</v>
+        <v>1259670000</v>
       </c>
       <c r="K66" s="3">
         <v>1487790000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>50708500</v>
+        <v>49048200</v>
       </c>
       <c r="E72" s="3">
-        <v>47603800</v>
+        <v>46045100</v>
       </c>
       <c r="F72" s="3">
-        <v>46460300</v>
+        <v>44939100</v>
       </c>
       <c r="G72" s="3">
-        <v>43958000</v>
+        <v>42518700</v>
       </c>
       <c r="H72" s="3">
-        <v>40721100</v>
+        <v>39387800</v>
       </c>
       <c r="I72" s="3">
-        <v>36944900</v>
+        <v>35735300</v>
       </c>
       <c r="J72" s="3">
-        <v>33258800</v>
+        <v>32169900</v>
       </c>
       <c r="K72" s="3">
         <v>34979000</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>88690700</v>
+        <v>85786800</v>
       </c>
       <c r="E76" s="3">
-        <v>86700800</v>
+        <v>83862000</v>
       </c>
       <c r="F76" s="3">
-        <v>78592500</v>
+        <v>76019200</v>
       </c>
       <c r="G76" s="3">
-        <v>78966600</v>
+        <v>76381100</v>
       </c>
       <c r="H76" s="3">
-        <v>76182800</v>
+        <v>73688400</v>
       </c>
       <c r="I76" s="3">
-        <v>71357700</v>
+        <v>69021300</v>
       </c>
       <c r="J76" s="3">
-        <v>65359000</v>
+        <v>63219000</v>
       </c>
       <c r="K76" s="3">
         <v>76979300</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5179600</v>
+        <v>5010000</v>
       </c>
       <c r="E81" s="3">
-        <v>3758900</v>
+        <v>3635800</v>
       </c>
       <c r="F81" s="3">
-        <v>5159500</v>
+        <v>4990500</v>
       </c>
       <c r="G81" s="3">
-        <v>5326600</v>
+        <v>5152200</v>
       </c>
       <c r="H81" s="3">
-        <v>5382900</v>
+        <v>5206700</v>
       </c>
       <c r="I81" s="3">
-        <v>5178800</v>
+        <v>5009200</v>
       </c>
       <c r="J81" s="3">
-        <v>4740200</v>
+        <v>4585000</v>
       </c>
       <c r="K81" s="3">
         <v>6428300</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1773200</v>
+        <v>1715200</v>
       </c>
       <c r="E83" s="3">
-        <v>1665200</v>
+        <v>1610700</v>
       </c>
       <c r="F83" s="3">
-        <v>1661900</v>
+        <v>1607500</v>
       </c>
       <c r="G83" s="3">
-        <v>2161800</v>
+        <v>2091000</v>
       </c>
       <c r="H83" s="3">
-        <v>2248600</v>
+        <v>2174900</v>
       </c>
       <c r="I83" s="3">
-        <v>2230200</v>
+        <v>2157200</v>
       </c>
       <c r="J83" s="3">
-        <v>1949900</v>
+        <v>1886100</v>
       </c>
       <c r="K83" s="3">
         <v>2121500</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>11328000</v>
+        <v>10957100</v>
       </c>
       <c r="E89" s="3">
-        <v>137774300</v>
+        <v>133263300</v>
       </c>
       <c r="F89" s="3">
-        <v>51951700</v>
+        <v>50250700</v>
       </c>
       <c r="G89" s="3">
-        <v>33701600</v>
+        <v>32598100</v>
       </c>
       <c r="H89" s="3">
-        <v>68494200</v>
+        <v>66251500</v>
       </c>
       <c r="I89" s="3">
-        <v>33111900</v>
+        <v>32027800</v>
       </c>
       <c r="J89" s="3">
-        <v>-8262700</v>
+        <v>-7992200</v>
       </c>
       <c r="K89" s="3">
         <v>69840100</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-678700</v>
+        <v>-656500</v>
       </c>
       <c r="E91" s="3">
-        <v>-1069800</v>
+        <v>-1034800</v>
       </c>
       <c r="F91" s="3">
-        <v>-755400</v>
+        <v>-730600</v>
       </c>
       <c r="G91" s="3">
-        <v>-3739900</v>
+        <v>-3617400</v>
       </c>
       <c r="H91" s="3">
-        <v>-5223100</v>
+        <v>-5052100</v>
       </c>
       <c r="I91" s="3">
-        <v>-3634400</v>
+        <v>-3515400</v>
       </c>
       <c r="J91" s="3">
-        <v>-3879500</v>
+        <v>-3752500</v>
       </c>
       <c r="K91" s="3">
         <v>-4938600</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-17641900</v>
+        <v>-17064300</v>
       </c>
       <c r="E94" s="3">
-        <v>-56293500</v>
+        <v>-54450300</v>
       </c>
       <c r="F94" s="3">
-        <v>-22075500</v>
+        <v>-21352700</v>
       </c>
       <c r="G94" s="3">
-        <v>7375900</v>
+        <v>7134400</v>
       </c>
       <c r="H94" s="3">
-        <v>-24887500</v>
+        <v>-24072700</v>
       </c>
       <c r="I94" s="3">
-        <v>4261300</v>
+        <v>4121800</v>
       </c>
       <c r="J94" s="3">
-        <v>38416200</v>
+        <v>37158300</v>
       </c>
       <c r="K94" s="3">
         <v>-12429800</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2008800</v>
+        <v>-1943100</v>
       </c>
       <c r="E96" s="3">
-        <v>-1958000</v>
+        <v>-1893900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1874800</v>
+        <v>-1813400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1800200</v>
+        <v>-1741300</v>
       </c>
       <c r="H96" s="3">
-        <v>-1602100</v>
+        <v>-1549700</v>
       </c>
       <c r="I96" s="3">
-        <v>-1503200</v>
+        <v>-1454000</v>
       </c>
       <c r="J96" s="3">
-        <v>-1553600</v>
+        <v>-1502700</v>
       </c>
       <c r="K96" s="3">
         <v>-1457900</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3557500</v>
+        <v>-3441000</v>
       </c>
       <c r="E100" s="3">
-        <v>-4123700</v>
+        <v>-3988700</v>
       </c>
       <c r="F100" s="3">
-        <v>-7510000</v>
+        <v>-7264100</v>
       </c>
       <c r="G100" s="3">
-        <v>-4638600</v>
+        <v>-4486700</v>
       </c>
       <c r="H100" s="3">
-        <v>-2568900</v>
+        <v>-2484800</v>
       </c>
       <c r="I100" s="3">
-        <v>-1220600</v>
+        <v>-1180700</v>
       </c>
       <c r="J100" s="3">
-        <v>-410400</v>
+        <v>-397000</v>
       </c>
       <c r="K100" s="3">
         <v>-2581100</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2694400</v>
+        <v>2606200</v>
       </c>
       <c r="E101" s="3">
-        <v>1172200</v>
+        <v>1133800</v>
       </c>
       <c r="F101" s="3">
-        <v>-545900</v>
+        <v>-528100</v>
       </c>
       <c r="G101" s="3">
-        <v>1221500</v>
+        <v>1181500</v>
       </c>
       <c r="H101" s="3">
-        <v>-688100</v>
+        <v>-665600</v>
       </c>
       <c r="I101" s="3">
-        <v>-77400</v>
+        <v>-74800</v>
       </c>
       <c r="J101" s="3">
-        <v>-729900</v>
+        <v>-706000</v>
       </c>
       <c r="K101" s="3">
         <v>1515800</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-7177100</v>
+        <v>-6942100</v>
       </c>
       <c r="E102" s="3">
-        <v>78529300</v>
+        <v>75958000</v>
       </c>
       <c r="F102" s="3">
-        <v>21820300</v>
+        <v>21105800</v>
       </c>
       <c r="G102" s="3">
-        <v>37660400</v>
+        <v>36427300</v>
       </c>
       <c r="H102" s="3">
-        <v>40349600</v>
+        <v>39028500</v>
       </c>
       <c r="I102" s="3">
-        <v>36075200</v>
+        <v>34894100</v>
       </c>
       <c r="J102" s="3">
-        <v>29013100</v>
+        <v>28063100</v>
       </c>
       <c r="K102" s="3">
         <v>56345100</v>

--- a/AAII_Financials/Yearly/SMFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SMFG_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13527700</v>
+        <v>14023700</v>
       </c>
       <c r="E8" s="3">
-        <v>13138100</v>
+        <v>13619900</v>
       </c>
       <c r="F8" s="3">
-        <v>17415600</v>
+        <v>18054300</v>
       </c>
       <c r="G8" s="3">
-        <v>17646400</v>
+        <v>18293500</v>
       </c>
       <c r="H8" s="3">
-        <v>15355500</v>
+        <v>15918600</v>
       </c>
       <c r="I8" s="3">
-        <v>13556300</v>
+        <v>14053400</v>
       </c>
       <c r="J8" s="3">
-        <v>13246400</v>
+        <v>13732100</v>
       </c>
       <c r="K8" s="3">
         <v>16138200</v>
@@ -974,13 +974,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1378900</v>
+        <v>-1429500</v>
       </c>
       <c r="E15" s="3">
-        <v>-1292100</v>
+        <v>-1339500</v>
       </c>
       <c r="F15" s="3">
-        <v>-1281600</v>
+        <v>-1328600</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>5</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4438600</v>
+        <v>4601400</v>
       </c>
       <c r="E17" s="3">
-        <v>6070900</v>
+        <v>6293500</v>
       </c>
       <c r="F17" s="3">
-        <v>9523500</v>
+        <v>9872800</v>
       </c>
       <c r="G17" s="3">
-        <v>8835100</v>
+        <v>9159100</v>
       </c>
       <c r="H17" s="3">
-        <v>6090300</v>
+        <v>6313600</v>
       </c>
       <c r="I17" s="3">
-        <v>4984400</v>
+        <v>5167100</v>
       </c>
       <c r="J17" s="3">
-        <v>3790800</v>
+        <v>3929800</v>
       </c>
       <c r="K17" s="3">
         <v>3297800</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9089100</v>
+        <v>9422400</v>
       </c>
       <c r="E18" s="3">
-        <v>7067200</v>
+        <v>7326300</v>
       </c>
       <c r="F18" s="3">
-        <v>7892100</v>
+        <v>8181500</v>
       </c>
       <c r="G18" s="3">
-        <v>8811300</v>
+        <v>9134400</v>
       </c>
       <c r="H18" s="3">
-        <v>9265200</v>
+        <v>9605000</v>
       </c>
       <c r="I18" s="3">
-        <v>8571900</v>
+        <v>8886300</v>
       </c>
       <c r="J18" s="3">
-        <v>9455500</v>
+        <v>9802300</v>
       </c>
       <c r="K18" s="3">
         <v>12840400</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2498300</v>
+        <v>-2589900</v>
       </c>
       <c r="E20" s="3">
-        <v>-2301000</v>
+        <v>-2385400</v>
       </c>
       <c r="F20" s="3">
-        <v>-1591600</v>
+        <v>-1650000</v>
       </c>
       <c r="G20" s="3">
-        <v>-845100</v>
+        <v>-876100</v>
       </c>
       <c r="H20" s="3">
-        <v>-1403400</v>
+        <v>-1454900</v>
       </c>
       <c r="I20" s="3">
-        <v>-1628700</v>
+        <v>-1688400</v>
       </c>
       <c r="J20" s="3">
-        <v>-2506100</v>
+        <v>-2598000</v>
       </c>
       <c r="K20" s="3">
         <v>-1671400</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8243100</v>
+        <v>8593600</v>
       </c>
       <c r="E21" s="3">
-        <v>6317800</v>
+        <v>6594800</v>
       </c>
       <c r="F21" s="3">
-        <v>7849100</v>
+        <v>8182100</v>
       </c>
       <c r="G21" s="3">
-        <v>9980500</v>
+        <v>10405400</v>
       </c>
       <c r="H21" s="3">
-        <v>9956900</v>
+        <v>10383300</v>
       </c>
       <c r="I21" s="3">
-        <v>9021400</v>
+        <v>9412900</v>
       </c>
       <c r="J21" s="3">
-        <v>8766300</v>
+        <v>9140900</v>
       </c>
       <c r="K21" s="3">
         <v>13315400</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6590800</v>
+        <v>6832500</v>
       </c>
       <c r="E23" s="3">
-        <v>4766200</v>
+        <v>4940900</v>
       </c>
       <c r="F23" s="3">
-        <v>6300500</v>
+        <v>6531500</v>
       </c>
       <c r="G23" s="3">
-        <v>7966200</v>
+        <v>8258300</v>
       </c>
       <c r="H23" s="3">
-        <v>7861700</v>
+        <v>8150000</v>
       </c>
       <c r="I23" s="3">
-        <v>6943300</v>
+        <v>7197900</v>
       </c>
       <c r="J23" s="3">
-        <v>6949400</v>
+        <v>7204200</v>
       </c>
       <c r="K23" s="3">
         <v>11169000</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1521100</v>
+        <v>1576800</v>
       </c>
       <c r="E24" s="3">
-        <v>1108500</v>
+        <v>1149100</v>
       </c>
       <c r="F24" s="3">
-        <v>1188900</v>
+        <v>1232500</v>
       </c>
       <c r="G24" s="3">
-        <v>2349800</v>
+        <v>2436000</v>
       </c>
       <c r="H24" s="3">
-        <v>1918000</v>
+        <v>1988400</v>
       </c>
       <c r="I24" s="3">
-        <v>1212000</v>
+        <v>1256500</v>
       </c>
       <c r="J24" s="3">
-        <v>1595600</v>
+        <v>1654100</v>
       </c>
       <c r="K24" s="3">
         <v>3764800</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5069700</v>
+        <v>5255600</v>
       </c>
       <c r="E26" s="3">
-        <v>3657700</v>
+        <v>3791800</v>
       </c>
       <c r="F26" s="3">
-        <v>5111600</v>
+        <v>5299100</v>
       </c>
       <c r="G26" s="3">
-        <v>5616400</v>
+        <v>5822300</v>
       </c>
       <c r="H26" s="3">
-        <v>5943700</v>
+        <v>6161700</v>
       </c>
       <c r="I26" s="3">
-        <v>5731200</v>
+        <v>5941400</v>
       </c>
       <c r="J26" s="3">
-        <v>5353800</v>
+        <v>5550200</v>
       </c>
       <c r="K26" s="3">
         <v>7404200</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5010000</v>
+        <v>5193700</v>
       </c>
       <c r="E27" s="3">
-        <v>3635800</v>
+        <v>3769200</v>
       </c>
       <c r="F27" s="3">
-        <v>4990500</v>
+        <v>5173500</v>
       </c>
       <c r="G27" s="3">
-        <v>5152200</v>
+        <v>5341100</v>
       </c>
       <c r="H27" s="3">
-        <v>5206700</v>
+        <v>5397600</v>
       </c>
       <c r="I27" s="3">
-        <v>5009200</v>
+        <v>5192900</v>
       </c>
       <c r="J27" s="3">
-        <v>4585000</v>
+        <v>4753100</v>
       </c>
       <c r="K27" s="3">
         <v>6428300</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2498300</v>
+        <v>2589900</v>
       </c>
       <c r="E32" s="3">
-        <v>2301000</v>
+        <v>2385400</v>
       </c>
       <c r="F32" s="3">
-        <v>1591600</v>
+        <v>1650000</v>
       </c>
       <c r="G32" s="3">
-        <v>845100</v>
+        <v>876100</v>
       </c>
       <c r="H32" s="3">
-        <v>1403400</v>
+        <v>1454900</v>
       </c>
       <c r="I32" s="3">
-        <v>1628700</v>
+        <v>1688400</v>
       </c>
       <c r="J32" s="3">
-        <v>2506100</v>
+        <v>2598000</v>
       </c>
       <c r="K32" s="3">
         <v>1671400</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5010000</v>
+        <v>5193700</v>
       </c>
       <c r="E33" s="3">
-        <v>3635800</v>
+        <v>3769200</v>
       </c>
       <c r="F33" s="3">
-        <v>4990500</v>
+        <v>5173500</v>
       </c>
       <c r="G33" s="3">
-        <v>5152200</v>
+        <v>5341100</v>
       </c>
       <c r="H33" s="3">
-        <v>5206700</v>
+        <v>5397600</v>
       </c>
       <c r="I33" s="3">
-        <v>5009200</v>
+        <v>5192900</v>
       </c>
       <c r="J33" s="3">
-        <v>4585000</v>
+        <v>4753100</v>
       </c>
       <c r="K33" s="3">
         <v>6428300</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5010000</v>
+        <v>5193700</v>
       </c>
       <c r="E35" s="3">
-        <v>3635800</v>
+        <v>3769200</v>
       </c>
       <c r="F35" s="3">
-        <v>4990500</v>
+        <v>5173500</v>
       </c>
       <c r="G35" s="3">
-        <v>5152200</v>
+        <v>5341100</v>
       </c>
       <c r="H35" s="3">
-        <v>5206700</v>
+        <v>5397600</v>
       </c>
       <c r="I35" s="3">
-        <v>5009200</v>
+        <v>5192900</v>
       </c>
       <c r="J35" s="3">
-        <v>4585000</v>
+        <v>4753100</v>
       </c>
       <c r="K35" s="3">
         <v>6428300</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>530276000</v>
+        <v>549722000</v>
       </c>
       <c r="E41" s="3">
-        <v>514513000</v>
+        <v>533381000</v>
       </c>
       <c r="F41" s="3">
-        <v>437939000</v>
+        <v>453999000</v>
       </c>
       <c r="G41" s="3">
-        <v>407046000</v>
+        <v>421973000</v>
       </c>
       <c r="H41" s="3">
-        <v>380964000</v>
+        <v>394935000</v>
       </c>
       <c r="I41" s="3">
-        <v>332277000</v>
+        <v>344462000</v>
       </c>
       <c r="J41" s="3">
-        <v>303376000</v>
+        <v>314501000</v>
       </c>
       <c r="K41" s="3">
         <v>339059000</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>206919000</v>
+        <v>214507000</v>
       </c>
       <c r="E42" s="3">
-        <v>194221000</v>
+        <v>201343000</v>
       </c>
       <c r="F42" s="3">
-        <v>203055000</v>
+        <v>210501000</v>
       </c>
       <c r="G42" s="3">
-        <v>174665000</v>
+        <v>181070000</v>
       </c>
       <c r="H42" s="3">
-        <v>166828000</v>
+        <v>172946000</v>
       </c>
       <c r="I42" s="3">
-        <v>173224000</v>
+        <v>179576000</v>
       </c>
       <c r="J42" s="3">
-        <v>168385000</v>
+        <v>174560000</v>
       </c>
       <c r="K42" s="3">
         <v>189608000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8415600</v>
+        <v>8724200</v>
       </c>
       <c r="E47" s="3">
-        <v>6818300</v>
+        <v>7068400</v>
       </c>
       <c r="F47" s="3">
-        <v>6697500</v>
+        <v>6943100</v>
       </c>
       <c r="G47" s="3">
-        <v>6918800</v>
+        <v>7172500</v>
       </c>
       <c r="H47" s="3">
-        <v>4843500</v>
+        <v>5021200</v>
       </c>
       <c r="I47" s="3">
-        <v>4286200</v>
+        <v>4443400</v>
       </c>
       <c r="J47" s="3">
-        <v>4327900</v>
+        <v>4486600</v>
       </c>
       <c r="K47" s="3">
         <v>4979100</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10331900</v>
+        <v>10710800</v>
       </c>
       <c r="E48" s="3">
-        <v>10344200</v>
+        <v>10723600</v>
       </c>
       <c r="F48" s="3">
-        <v>10282800</v>
+        <v>10659900</v>
       </c>
       <c r="G48" s="3">
-        <v>10668300</v>
+        <v>11059600</v>
       </c>
       <c r="H48" s="3">
-        <v>24638700</v>
+        <v>25542200</v>
       </c>
       <c r="I48" s="3">
-        <v>21990600</v>
+        <v>22797100</v>
       </c>
       <c r="J48" s="3">
-        <v>20698700</v>
+        <v>21457800</v>
       </c>
       <c r="K48" s="3">
         <v>23635400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6372600</v>
+        <v>6606300</v>
       </c>
       <c r="E49" s="3">
-        <v>5237800</v>
+        <v>5429900</v>
       </c>
       <c r="F49" s="3">
-        <v>5342900</v>
+        <v>5538800</v>
       </c>
       <c r="G49" s="3">
-        <v>5453800</v>
+        <v>5653800</v>
       </c>
       <c r="H49" s="3">
-        <v>6137000</v>
+        <v>6362000</v>
       </c>
       <c r="I49" s="3">
-        <v>6710700</v>
+        <v>6956800</v>
       </c>
       <c r="J49" s="3">
-        <v>6226900</v>
+        <v>6455200</v>
       </c>
       <c r="K49" s="3">
         <v>6990800</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4890400</v>
+        <v>5069800</v>
       </c>
       <c r="E52" s="3">
-        <v>4221200</v>
+        <v>4376000</v>
       </c>
       <c r="F52" s="3">
-        <v>1821300</v>
+        <v>1888100</v>
       </c>
       <c r="G52" s="3">
-        <v>2621000</v>
+        <v>2717100</v>
       </c>
       <c r="H52" s="3">
-        <v>2914200</v>
+        <v>3021000</v>
       </c>
       <c r="I52" s="3">
-        <v>2679500</v>
+        <v>2777700</v>
       </c>
       <c r="J52" s="3">
-        <v>2333400</v>
+        <v>2418900</v>
       </c>
       <c r="K52" s="3">
         <v>4299900</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1827130000</v>
+        <v>1894130000</v>
       </c>
       <c r="E54" s="3">
-        <v>1719920000</v>
+        <v>1782990000</v>
       </c>
       <c r="F54" s="3">
-        <v>1558830000</v>
+        <v>1616000000</v>
       </c>
       <c r="G54" s="3">
-        <v>1443940000</v>
+        <v>1496890000</v>
       </c>
       <c r="H54" s="3">
-        <v>1411260000</v>
+        <v>1463010000</v>
       </c>
       <c r="I54" s="3">
-        <v>1402340000</v>
+        <v>1453770000</v>
       </c>
       <c r="J54" s="3">
-        <v>1322890000</v>
+        <v>1371410000</v>
       </c>
       <c r="K54" s="3">
         <v>1564770000</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>666200</v>
+        <v>690600</v>
       </c>
       <c r="E59" s="3">
-        <v>666000</v>
+        <v>690400</v>
       </c>
       <c r="F59" s="3">
-        <v>547600</v>
+        <v>567600</v>
       </c>
       <c r="G59" s="3">
-        <v>520700</v>
+        <v>539800</v>
       </c>
       <c r="H59" s="3">
-        <v>623300</v>
+        <v>646100</v>
       </c>
       <c r="I59" s="3">
-        <v>570200</v>
+        <v>591100</v>
       </c>
       <c r="J59" s="3">
-        <v>502800</v>
+        <v>521300</v>
       </c>
       <c r="K59" s="3">
         <v>654300</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>203384000</v>
+        <v>210843000</v>
       </c>
       <c r="E61" s="3">
-        <v>189464000</v>
+        <v>196412000</v>
       </c>
       <c r="F61" s="3">
-        <v>173326000</v>
+        <v>179682000</v>
       </c>
       <c r="G61" s="3">
-        <v>140979000</v>
+        <v>146149000</v>
       </c>
       <c r="H61" s="3">
-        <v>140998000</v>
+        <v>146169000</v>
       </c>
       <c r="I61" s="3">
-        <v>134114000</v>
+        <v>139032000</v>
       </c>
       <c r="J61" s="3">
-        <v>111194000</v>
+        <v>115272000</v>
       </c>
       <c r="K61" s="3">
         <v>137357000</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3661800</v>
+        <v>3796000</v>
       </c>
       <c r="E62" s="3">
-        <v>5512500</v>
+        <v>5714700</v>
       </c>
       <c r="F62" s="3">
-        <v>3558000</v>
+        <v>3688500</v>
       </c>
       <c r="G62" s="3">
-        <v>4424100</v>
+        <v>4586400</v>
       </c>
       <c r="H62" s="3">
-        <v>5069000</v>
+        <v>5254900</v>
       </c>
       <c r="I62" s="3">
-        <v>4429000</v>
+        <v>4591500</v>
       </c>
       <c r="J62" s="3">
-        <v>4949500</v>
+        <v>5131000</v>
       </c>
       <c r="K62" s="3">
         <v>7540600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1741340000</v>
+        <v>1805200000</v>
       </c>
       <c r="E66" s="3">
-        <v>1636060000</v>
+        <v>1696060000</v>
       </c>
       <c r="F66" s="3">
-        <v>1482810000</v>
+        <v>1537190000</v>
       </c>
       <c r="G66" s="3">
-        <v>1367560000</v>
+        <v>1417710000</v>
       </c>
       <c r="H66" s="3">
-        <v>1337570000</v>
+        <v>1386620000</v>
       </c>
       <c r="I66" s="3">
-        <v>1333320000</v>
+        <v>1382220000</v>
       </c>
       <c r="J66" s="3">
-        <v>1259670000</v>
+        <v>1305870000</v>
       </c>
       <c r="K66" s="3">
         <v>1487790000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>49048200</v>
+        <v>50846900</v>
       </c>
       <c r="E72" s="3">
-        <v>46045100</v>
+        <v>47733700</v>
       </c>
       <c r="F72" s="3">
-        <v>44939100</v>
+        <v>46587100</v>
       </c>
       <c r="G72" s="3">
-        <v>42518700</v>
+        <v>44077900</v>
       </c>
       <c r="H72" s="3">
-        <v>39387800</v>
+        <v>40832200</v>
       </c>
       <c r="I72" s="3">
-        <v>35735300</v>
+        <v>37045700</v>
       </c>
       <c r="J72" s="3">
-        <v>32169900</v>
+        <v>33349600</v>
       </c>
       <c r="K72" s="3">
         <v>34979000</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>85786800</v>
+        <v>88932700</v>
       </c>
       <c r="E76" s="3">
-        <v>83862000</v>
+        <v>86937300</v>
       </c>
       <c r="F76" s="3">
-        <v>76019200</v>
+        <v>78806900</v>
       </c>
       <c r="G76" s="3">
-        <v>76381100</v>
+        <v>79182100</v>
       </c>
       <c r="H76" s="3">
-        <v>73688400</v>
+        <v>76390700</v>
       </c>
       <c r="I76" s="3">
-        <v>69021300</v>
+        <v>71552400</v>
       </c>
       <c r="J76" s="3">
-        <v>63219000</v>
+        <v>65537400</v>
       </c>
       <c r="K76" s="3">
         <v>76979300</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5010000</v>
+        <v>5193700</v>
       </c>
       <c r="E81" s="3">
-        <v>3635800</v>
+        <v>3769200</v>
       </c>
       <c r="F81" s="3">
-        <v>4990500</v>
+        <v>5173500</v>
       </c>
       <c r="G81" s="3">
-        <v>5152200</v>
+        <v>5341100</v>
       </c>
       <c r="H81" s="3">
-        <v>5206700</v>
+        <v>5397600</v>
       </c>
       <c r="I81" s="3">
-        <v>5009200</v>
+        <v>5192900</v>
       </c>
       <c r="J81" s="3">
-        <v>4585000</v>
+        <v>4753100</v>
       </c>
       <c r="K81" s="3">
         <v>6428300</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1715200</v>
+        <v>1778100</v>
       </c>
       <c r="E83" s="3">
-        <v>1610700</v>
+        <v>1669800</v>
       </c>
       <c r="F83" s="3">
-        <v>1607500</v>
+        <v>1666500</v>
       </c>
       <c r="G83" s="3">
-        <v>2091000</v>
+        <v>2167700</v>
       </c>
       <c r="H83" s="3">
-        <v>2174900</v>
+        <v>2254700</v>
       </c>
       <c r="I83" s="3">
-        <v>2157200</v>
+        <v>2236300</v>
       </c>
       <c r="J83" s="3">
-        <v>1886100</v>
+        <v>1955200</v>
       </c>
       <c r="K83" s="3">
         <v>2121500</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>10957100</v>
+        <v>11358900</v>
       </c>
       <c r="E89" s="3">
-        <v>133263300</v>
+        <v>138150200</v>
       </c>
       <c r="F89" s="3">
-        <v>50250700</v>
+        <v>52093400</v>
       </c>
       <c r="G89" s="3">
-        <v>32598100</v>
+        <v>33793500</v>
       </c>
       <c r="H89" s="3">
-        <v>66251500</v>
+        <v>68681100</v>
       </c>
       <c r="I89" s="3">
-        <v>32027800</v>
+        <v>33202300</v>
       </c>
       <c r="J89" s="3">
-        <v>-7992200</v>
+        <v>-8285300</v>
       </c>
       <c r="K89" s="3">
         <v>69840100</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-656500</v>
+        <v>-680600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1034800</v>
+        <v>-1072700</v>
       </c>
       <c r="F91" s="3">
-        <v>-730600</v>
+        <v>-757400</v>
       </c>
       <c r="G91" s="3">
-        <v>-3617400</v>
+        <v>-3750100</v>
       </c>
       <c r="H91" s="3">
-        <v>-5052100</v>
+        <v>-5237300</v>
       </c>
       <c r="I91" s="3">
-        <v>-3515400</v>
+        <v>-3644300</v>
       </c>
       <c r="J91" s="3">
-        <v>-3752500</v>
+        <v>-3890100</v>
       </c>
       <c r="K91" s="3">
         <v>-4938600</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-17064300</v>
+        <v>-17690100</v>
       </c>
       <c r="E94" s="3">
-        <v>-54450300</v>
+        <v>-56447100</v>
       </c>
       <c r="F94" s="3">
-        <v>-21352700</v>
+        <v>-22135700</v>
       </c>
       <c r="G94" s="3">
-        <v>7134400</v>
+        <v>7396000</v>
       </c>
       <c r="H94" s="3">
-        <v>-24072700</v>
+        <v>-24955400</v>
       </c>
       <c r="I94" s="3">
-        <v>4121800</v>
+        <v>4272900</v>
       </c>
       <c r="J94" s="3">
-        <v>37158300</v>
+        <v>38521000</v>
       </c>
       <c r="K94" s="3">
         <v>-12429800</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1943100</v>
+        <v>-2014300</v>
       </c>
       <c r="E96" s="3">
-        <v>-1893900</v>
+        <v>-1963300</v>
       </c>
       <c r="F96" s="3">
-        <v>-1813400</v>
+        <v>-1879900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1741300</v>
+        <v>-1805100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1549700</v>
+        <v>-1606500</v>
       </c>
       <c r="I96" s="3">
-        <v>-1454000</v>
+        <v>-1507300</v>
       </c>
       <c r="J96" s="3">
-        <v>-1502700</v>
+        <v>-1557800</v>
       </c>
       <c r="K96" s="3">
         <v>-1457900</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3441000</v>
+        <v>-3567200</v>
       </c>
       <c r="E100" s="3">
-        <v>-3988700</v>
+        <v>-4135000</v>
       </c>
       <c r="F100" s="3">
-        <v>-7264100</v>
+        <v>-7530500</v>
       </c>
       <c r="G100" s="3">
-        <v>-4486700</v>
+        <v>-4651200</v>
       </c>
       <c r="H100" s="3">
-        <v>-2484800</v>
+        <v>-2575900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1180700</v>
+        <v>-1224000</v>
       </c>
       <c r="J100" s="3">
-        <v>-397000</v>
+        <v>-411600</v>
       </c>
       <c r="K100" s="3">
         <v>-2581100</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2606200</v>
+        <v>2701700</v>
       </c>
       <c r="E101" s="3">
-        <v>1133800</v>
+        <v>1175400</v>
       </c>
       <c r="F101" s="3">
-        <v>-528100</v>
+        <v>-547400</v>
       </c>
       <c r="G101" s="3">
-        <v>1181500</v>
+        <v>1224800</v>
       </c>
       <c r="H101" s="3">
-        <v>-665600</v>
+        <v>-690000</v>
       </c>
       <c r="I101" s="3">
-        <v>-74800</v>
+        <v>-77600</v>
       </c>
       <c r="J101" s="3">
-        <v>-706000</v>
+        <v>-731900</v>
       </c>
       <c r="K101" s="3">
         <v>1515800</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-6942100</v>
+        <v>-7196700</v>
       </c>
       <c r="E102" s="3">
-        <v>75958000</v>
+        <v>78743500</v>
       </c>
       <c r="F102" s="3">
-        <v>21105800</v>
+        <v>21879800</v>
       </c>
       <c r="G102" s="3">
-        <v>36427300</v>
+        <v>37763200</v>
       </c>
       <c r="H102" s="3">
-        <v>39028500</v>
+        <v>40459700</v>
       </c>
       <c r="I102" s="3">
-        <v>34894100</v>
+        <v>36173700</v>
       </c>
       <c r="J102" s="3">
-        <v>28063100</v>
+        <v>29092200</v>
       </c>
       <c r="K102" s="3">
         <v>56345100</v>

--- a/AAII_Financials/Yearly/SMFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SMFG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>SMFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,99 +665,105 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42460</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42094</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41729</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41364</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40999</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14023700</v>
+        <v>27251800</v>
       </c>
       <c r="E8" s="3">
-        <v>13619900</v>
+        <v>13756600</v>
       </c>
       <c r="F8" s="3">
-        <v>18054300</v>
+        <v>13360400</v>
       </c>
       <c r="G8" s="3">
-        <v>18293500</v>
+        <v>17710400</v>
       </c>
       <c r="H8" s="3">
-        <v>15918600</v>
+        <v>17945000</v>
       </c>
       <c r="I8" s="3">
-        <v>14053400</v>
+        <v>15615400</v>
       </c>
       <c r="J8" s="3">
+        <v>13785700</v>
+      </c>
+      <c r="K8" s="3">
         <v>13732100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16138200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16534000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15686800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15461400</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -794,9 +800,12 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -833,9 +842,12 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,9 +944,12 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,23 +986,26 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>-1429500</v>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E15" s="3">
-        <v>-1339500</v>
+        <v>-1402200</v>
       </c>
       <c r="F15" s="3">
-        <v>-1328600</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
+        <v>-1314000</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-1303300</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>5</v>
@@ -1000,15 +1022,18 @@
       <c r="L15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3">
         <v>-1185200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-1099400</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4601400</v>
+        <v>15380900</v>
       </c>
       <c r="E17" s="3">
-        <v>6293500</v>
+        <v>4513700</v>
       </c>
       <c r="F17" s="3">
-        <v>9872800</v>
+        <v>6173600</v>
       </c>
       <c r="G17" s="3">
-        <v>9159100</v>
+        <v>9684700</v>
       </c>
       <c r="H17" s="3">
-        <v>6313600</v>
+        <v>8984600</v>
       </c>
       <c r="I17" s="3">
-        <v>5167100</v>
+        <v>6193400</v>
       </c>
       <c r="J17" s="3">
+        <v>5068700</v>
+      </c>
+      <c r="K17" s="3">
         <v>3929800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3297800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2380800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2923100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2835200</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9422400</v>
+        <v>11870900</v>
       </c>
       <c r="E18" s="3">
-        <v>7326300</v>
+        <v>9242900</v>
       </c>
       <c r="F18" s="3">
-        <v>8181500</v>
+        <v>7186800</v>
       </c>
       <c r="G18" s="3">
-        <v>9134400</v>
+        <v>8025700</v>
       </c>
       <c r="H18" s="3">
-        <v>9605000</v>
+        <v>8960400</v>
       </c>
       <c r="I18" s="3">
-        <v>8886300</v>
+        <v>9422000</v>
       </c>
       <c r="J18" s="3">
+        <v>8717000</v>
+      </c>
+      <c r="K18" s="3">
         <v>9802300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>12840400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>14153200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>12763800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>12626200</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,86 +1148,93 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2589900</v>
+        <v>-3950900</v>
       </c>
       <c r="E20" s="3">
-        <v>-2385400</v>
+        <v>-2540600</v>
       </c>
       <c r="F20" s="3">
-        <v>-1650000</v>
+        <v>-2340000</v>
       </c>
       <c r="G20" s="3">
-        <v>-876100</v>
+        <v>-1618600</v>
       </c>
       <c r="H20" s="3">
-        <v>-1454900</v>
+        <v>-859400</v>
       </c>
       <c r="I20" s="3">
-        <v>-1688400</v>
+        <v>-1427200</v>
       </c>
       <c r="J20" s="3">
+        <v>-1656200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2598000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1671400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1121300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4503500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4386900</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8593600</v>
+        <v>9865100</v>
       </c>
       <c r="E21" s="3">
-        <v>6594800</v>
+        <v>8458600</v>
       </c>
       <c r="F21" s="3">
-        <v>8182100</v>
+        <v>6496200</v>
       </c>
       <c r="G21" s="3">
-        <v>10405400</v>
+        <v>8053200</v>
       </c>
       <c r="H21" s="3">
-        <v>10383300</v>
+        <v>10242200</v>
       </c>
       <c r="I21" s="3">
-        <v>9412900</v>
+        <v>10221900</v>
       </c>
       <c r="J21" s="3">
+        <v>9269700</v>
+      </c>
+      <c r="K21" s="3">
         <v>9140900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>13315400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>15152100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>10302300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>9804500</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1232,87 +1271,96 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6832500</v>
+        <v>7920000</v>
       </c>
       <c r="E23" s="3">
-        <v>4940900</v>
+        <v>6702300</v>
       </c>
       <c r="F23" s="3">
-        <v>6531500</v>
+        <v>4846800</v>
       </c>
       <c r="G23" s="3">
-        <v>8258300</v>
+        <v>6407100</v>
       </c>
       <c r="H23" s="3">
-        <v>8150000</v>
+        <v>8101000</v>
       </c>
       <c r="I23" s="3">
-        <v>7197900</v>
+        <v>7994800</v>
       </c>
       <c r="J23" s="3">
+        <v>7060800</v>
+      </c>
+      <c r="K23" s="3">
         <v>7204200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>11169000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>13031900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8260200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8239300</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1576800</v>
+        <v>2034300</v>
       </c>
       <c r="E24" s="3">
-        <v>1149100</v>
+        <v>1546800</v>
       </c>
       <c r="F24" s="3">
-        <v>1232500</v>
+        <v>1127300</v>
       </c>
       <c r="G24" s="3">
-        <v>2436000</v>
+        <v>1209000</v>
       </c>
       <c r="H24" s="3">
-        <v>1988400</v>
+        <v>2389600</v>
       </c>
       <c r="I24" s="3">
-        <v>1256500</v>
+        <v>1950500</v>
       </c>
       <c r="J24" s="3">
+        <v>1232600</v>
+      </c>
+      <c r="K24" s="3">
         <v>1654100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3764800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4202700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2319400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4162400</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5255600</v>
+        <v>5885700</v>
       </c>
       <c r="E26" s="3">
-        <v>3791800</v>
+        <v>5155500</v>
       </c>
       <c r="F26" s="3">
-        <v>5299100</v>
+        <v>3719600</v>
       </c>
       <c r="G26" s="3">
-        <v>5822300</v>
+        <v>5198100</v>
       </c>
       <c r="H26" s="3">
-        <v>6161700</v>
+        <v>5711400</v>
       </c>
       <c r="I26" s="3">
-        <v>5941400</v>
+        <v>6044300</v>
       </c>
       <c r="J26" s="3">
+        <v>5828200</v>
+      </c>
+      <c r="K26" s="3">
         <v>5550200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7404200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8829200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5940900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4076900</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5193700</v>
+        <v>5810100</v>
       </c>
       <c r="E27" s="3">
-        <v>3769200</v>
+        <v>5094800</v>
       </c>
       <c r="F27" s="3">
-        <v>5173500</v>
+        <v>3697400</v>
       </c>
       <c r="G27" s="3">
-        <v>5341100</v>
+        <v>5075000</v>
       </c>
       <c r="H27" s="3">
-        <v>5397600</v>
+        <v>5239400</v>
       </c>
       <c r="I27" s="3">
-        <v>5192900</v>
+        <v>5294800</v>
       </c>
       <c r="J27" s="3">
+        <v>5094000</v>
+      </c>
+      <c r="K27" s="3">
         <v>4753100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6428300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7651900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3743300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3058400</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2589900</v>
+        <v>3950900</v>
       </c>
       <c r="E32" s="3">
-        <v>2385400</v>
+        <v>2540600</v>
       </c>
       <c r="F32" s="3">
-        <v>1650000</v>
+        <v>2340000</v>
       </c>
       <c r="G32" s="3">
-        <v>876100</v>
+        <v>1618600</v>
       </c>
       <c r="H32" s="3">
-        <v>1454900</v>
+        <v>859400</v>
       </c>
       <c r="I32" s="3">
-        <v>1688400</v>
+        <v>1427200</v>
       </c>
       <c r="J32" s="3">
+        <v>1656200</v>
+      </c>
+      <c r="K32" s="3">
         <v>2598000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1671400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1121300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4503500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4386900</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5193700</v>
+        <v>5810100</v>
       </c>
       <c r="E33" s="3">
-        <v>3769200</v>
+        <v>5094800</v>
       </c>
       <c r="F33" s="3">
-        <v>5173500</v>
+        <v>3697400</v>
       </c>
       <c r="G33" s="3">
-        <v>5341100</v>
+        <v>5075000</v>
       </c>
       <c r="H33" s="3">
-        <v>5397600</v>
+        <v>5239400</v>
       </c>
       <c r="I33" s="3">
-        <v>5192900</v>
+        <v>5294800</v>
       </c>
       <c r="J33" s="3">
+        <v>5094000</v>
+      </c>
+      <c r="K33" s="3">
         <v>4753100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6428300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7651900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3743300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3058400</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5193700</v>
+        <v>5810100</v>
       </c>
       <c r="E35" s="3">
-        <v>3769200</v>
+        <v>5094800</v>
       </c>
       <c r="F35" s="3">
-        <v>5173500</v>
+        <v>3697400</v>
       </c>
       <c r="G35" s="3">
-        <v>5341100</v>
+        <v>5075000</v>
       </c>
       <c r="H35" s="3">
-        <v>5397600</v>
+        <v>5239400</v>
       </c>
       <c r="I35" s="3">
-        <v>5192900</v>
+        <v>5294800</v>
       </c>
       <c r="J35" s="3">
+        <v>5094000</v>
+      </c>
+      <c r="K35" s="3">
         <v>4753100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6428300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7651900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3743300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3058400</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42460</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42094</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41729</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41364</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40999</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,86 +1903,93 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>549722000</v>
+        <v>547340000</v>
       </c>
       <c r="E41" s="3">
-        <v>533381000</v>
+        <v>539251000</v>
       </c>
       <c r="F41" s="3">
-        <v>453999000</v>
+        <v>523222000</v>
       </c>
       <c r="G41" s="3">
-        <v>421973000</v>
+        <v>445351000</v>
       </c>
       <c r="H41" s="3">
-        <v>394935000</v>
+        <v>413935000</v>
       </c>
       <c r="I41" s="3">
-        <v>344462000</v>
+        <v>387412000</v>
       </c>
       <c r="J41" s="3">
+        <v>337901000</v>
+      </c>
+      <c r="K41" s="3">
         <v>314501000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>339059000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>302199000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>217778000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>84465200</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>214507000</v>
+        <v>240090000</v>
       </c>
       <c r="E42" s="3">
-        <v>201343000</v>
+        <v>210421000</v>
       </c>
       <c r="F42" s="3">
-        <v>210501000</v>
+        <v>197508000</v>
       </c>
       <c r="G42" s="3">
-        <v>181070000</v>
+        <v>206492000</v>
       </c>
       <c r="H42" s="3">
-        <v>172946000</v>
+        <v>177621000</v>
       </c>
       <c r="I42" s="3">
-        <v>179576000</v>
+        <v>169652000</v>
       </c>
       <c r="J42" s="3">
+        <v>176156000</v>
+      </c>
+      <c r="K42" s="3">
         <v>174560000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>189608000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>163523000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>183032000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>39736300</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1934,9 +2026,12 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1973,9 +2068,12 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2012,9 +2110,12 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2051,126 +2152,138 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>8724200</v>
+      <c r="D47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E47" s="3">
-        <v>7068400</v>
+        <v>8558100</v>
       </c>
       <c r="F47" s="3">
-        <v>6943100</v>
+        <v>6933700</v>
       </c>
       <c r="G47" s="3">
-        <v>7172500</v>
+        <v>6810900</v>
       </c>
       <c r="H47" s="3">
-        <v>5021200</v>
+        <v>7035900</v>
       </c>
       <c r="I47" s="3">
-        <v>4443400</v>
+        <v>4925500</v>
       </c>
       <c r="J47" s="3">
+        <v>4358800</v>
+      </c>
+      <c r="K47" s="3">
         <v>4486600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4979100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3411000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4711900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1868200</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10710800</v>
+        <v>10775500</v>
       </c>
       <c r="E48" s="3">
-        <v>10723600</v>
+        <v>10506800</v>
       </c>
       <c r="F48" s="3">
-        <v>10659900</v>
+        <v>10519300</v>
       </c>
       <c r="G48" s="3">
-        <v>11059600</v>
+        <v>10456800</v>
       </c>
       <c r="H48" s="3">
-        <v>25542200</v>
+        <v>10848900</v>
       </c>
       <c r="I48" s="3">
-        <v>22797100</v>
+        <v>25055700</v>
       </c>
       <c r="J48" s="3">
+        <v>22362800</v>
+      </c>
+      <c r="K48" s="3">
         <v>21457800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>23635400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21496600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>36213000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>20247600</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6606300</v>
+        <v>6473500</v>
       </c>
       <c r="E49" s="3">
-        <v>5429900</v>
+        <v>6480500</v>
       </c>
       <c r="F49" s="3">
-        <v>5538800</v>
+        <v>5326500</v>
       </c>
       <c r="G49" s="3">
-        <v>5653800</v>
+        <v>5433300</v>
       </c>
       <c r="H49" s="3">
-        <v>6362000</v>
+        <v>5546200</v>
       </c>
       <c r="I49" s="3">
-        <v>6956800</v>
+        <v>6240900</v>
       </c>
       <c r="J49" s="3">
+        <v>6824300</v>
+      </c>
+      <c r="K49" s="3">
         <v>6455200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6990800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7510200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>15399600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>16256900</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5069800</v>
+        <v>5614700</v>
       </c>
       <c r="E52" s="3">
-        <v>4376000</v>
+        <v>4973200</v>
       </c>
       <c r="F52" s="3">
-        <v>1888100</v>
+        <v>4292600</v>
       </c>
       <c r="G52" s="3">
-        <v>2717100</v>
+        <v>1852200</v>
       </c>
       <c r="H52" s="3">
-        <v>3021000</v>
+        <v>2665400</v>
       </c>
       <c r="I52" s="3">
-        <v>2777700</v>
+        <v>2963500</v>
       </c>
       <c r="J52" s="3">
+        <v>2724800</v>
+      </c>
+      <c r="K52" s="3">
         <v>2418900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4299900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2684900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7796700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8355100</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1894130000</v>
+        <v>1949790000</v>
       </c>
       <c r="E54" s="3">
-        <v>1782990000</v>
+        <v>1858050000</v>
       </c>
       <c r="F54" s="3">
-        <v>1616000000</v>
+        <v>1749030000</v>
       </c>
       <c r="G54" s="3">
-        <v>1496890000</v>
+        <v>1585220000</v>
       </c>
       <c r="H54" s="3">
-        <v>1463010000</v>
+        <v>1468380000</v>
       </c>
       <c r="I54" s="3">
-        <v>1453770000</v>
+        <v>1435140000</v>
       </c>
       <c r="J54" s="3">
+        <v>1426080000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1371410000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1564770000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1479660000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1343090000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1281880000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,8 +2527,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2436,32 +2566,35 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>202223000</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>183311000</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>176157000</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2475,48 +2608,54 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>690600</v>
+        <v>717800</v>
       </c>
       <c r="E59" s="3">
-        <v>690400</v>
+        <v>677400</v>
       </c>
       <c r="F59" s="3">
-        <v>567600</v>
+        <v>677200</v>
       </c>
       <c r="G59" s="3">
-        <v>539800</v>
+        <v>556800</v>
       </c>
       <c r="H59" s="3">
-        <v>646100</v>
+        <v>529500</v>
       </c>
       <c r="I59" s="3">
-        <v>591100</v>
+        <v>633800</v>
       </c>
       <c r="J59" s="3">
+        <v>579800</v>
+      </c>
+      <c r="K59" s="3">
         <v>521300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>654300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>681000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4547000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2359800</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2553,87 +2692,96 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>210843000</v>
+        <v>173327000</v>
       </c>
       <c r="E61" s="3">
-        <v>196412000</v>
+        <v>206979000</v>
       </c>
       <c r="F61" s="3">
-        <v>179682000</v>
+        <v>192822000</v>
       </c>
       <c r="G61" s="3">
-        <v>146149000</v>
+        <v>176416000</v>
       </c>
       <c r="H61" s="3">
-        <v>146169000</v>
+        <v>143366000</v>
       </c>
       <c r="I61" s="3">
-        <v>139032000</v>
+        <v>143385000</v>
       </c>
       <c r="J61" s="3">
+        <v>136384000</v>
+      </c>
+      <c r="K61" s="3">
         <v>115272000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>137357000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>110944000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>58862700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>94132200</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3796000</v>
+        <v>3617100</v>
       </c>
       <c r="E62" s="3">
-        <v>5714700</v>
+        <v>3723700</v>
       </c>
       <c r="F62" s="3">
-        <v>3688500</v>
+        <v>5605800</v>
       </c>
       <c r="G62" s="3">
-        <v>4586400</v>
+        <v>3618300</v>
       </c>
       <c r="H62" s="3">
-        <v>5254900</v>
+        <v>4499000</v>
       </c>
       <c r="I62" s="3">
-        <v>4591500</v>
+        <v>5154800</v>
       </c>
       <c r="J62" s="3">
+        <v>4504000</v>
+      </c>
+      <c r="K62" s="3">
         <v>5131000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7540600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3803400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6030000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1152100</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1805200000</v>
+        <v>1858360000</v>
       </c>
       <c r="E66" s="3">
-        <v>1696060000</v>
+        <v>1770810000</v>
       </c>
       <c r="F66" s="3">
-        <v>1537190000</v>
+        <v>1663750000</v>
       </c>
       <c r="G66" s="3">
-        <v>1417710000</v>
+        <v>1507910000</v>
       </c>
       <c r="H66" s="3">
-        <v>1386620000</v>
+        <v>1390710000</v>
       </c>
       <c r="I66" s="3">
-        <v>1382220000</v>
+        <v>1360210000</v>
       </c>
       <c r="J66" s="3">
+        <v>1355890000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1305870000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1487790000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1412960000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1284350000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1233310000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>50846900</v>
+        <v>53532400</v>
       </c>
       <c r="E72" s="3">
-        <v>47733700</v>
+        <v>49878400</v>
       </c>
       <c r="F72" s="3">
-        <v>46587100</v>
+        <v>46824500</v>
       </c>
       <c r="G72" s="3">
-        <v>44077900</v>
+        <v>45699700</v>
       </c>
       <c r="H72" s="3">
-        <v>40832200</v>
+        <v>43238300</v>
       </c>
       <c r="I72" s="3">
-        <v>37045700</v>
+        <v>40054400</v>
       </c>
       <c r="J72" s="3">
+        <v>36340100</v>
+      </c>
+      <c r="K72" s="3">
         <v>33349600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>34979000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>31894000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>57285400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>21765900</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>88932700</v>
+        <v>91434400</v>
       </c>
       <c r="E76" s="3">
-        <v>86937300</v>
+        <v>87238800</v>
       </c>
       <c r="F76" s="3">
-        <v>78806900</v>
+        <v>85281400</v>
       </c>
       <c r="G76" s="3">
-        <v>79182100</v>
+        <v>77305900</v>
       </c>
       <c r="H76" s="3">
-        <v>76390700</v>
+        <v>77673800</v>
       </c>
       <c r="I76" s="3">
-        <v>71552400</v>
+        <v>74935600</v>
       </c>
       <c r="J76" s="3">
+        <v>70189500</v>
+      </c>
+      <c r="K76" s="3">
         <v>65537400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>76979300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>66693800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>58740700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>48567700</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42460</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42094</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41729</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41364</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40999</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5193700</v>
+        <v>5810100</v>
       </c>
       <c r="E81" s="3">
-        <v>3769200</v>
+        <v>5094800</v>
       </c>
       <c r="F81" s="3">
-        <v>5173500</v>
+        <v>3697400</v>
       </c>
       <c r="G81" s="3">
-        <v>5341100</v>
+        <v>5075000</v>
       </c>
       <c r="H81" s="3">
-        <v>5397600</v>
+        <v>5239400</v>
       </c>
       <c r="I81" s="3">
-        <v>5192900</v>
+        <v>5294800</v>
       </c>
       <c r="J81" s="3">
+        <v>5094000</v>
+      </c>
+      <c r="K81" s="3">
         <v>4753100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6428300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7651900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3743300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3058400</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1778100</v>
+        <v>1931800</v>
       </c>
       <c r="E83" s="3">
-        <v>1669800</v>
+        <v>1744200</v>
       </c>
       <c r="F83" s="3">
-        <v>1666500</v>
+        <v>1638000</v>
       </c>
       <c r="G83" s="3">
-        <v>2167700</v>
+        <v>1634700</v>
       </c>
       <c r="H83" s="3">
-        <v>2254700</v>
+        <v>2126400</v>
       </c>
       <c r="I83" s="3">
-        <v>2236300</v>
+        <v>2211700</v>
       </c>
       <c r="J83" s="3">
+        <v>2193700</v>
+      </c>
+      <c r="K83" s="3">
         <v>1955200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2121500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2111000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2037600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1563500</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>11358900</v>
+        <v>-42504300</v>
       </c>
       <c r="E89" s="3">
-        <v>138150200</v>
+        <v>11142500</v>
       </c>
       <c r="F89" s="3">
-        <v>52093400</v>
+        <v>135518800</v>
       </c>
       <c r="G89" s="3">
-        <v>33793500</v>
+        <v>51101200</v>
       </c>
       <c r="H89" s="3">
-        <v>68681100</v>
+        <v>33149900</v>
       </c>
       <c r="I89" s="3">
-        <v>33202300</v>
+        <v>67372900</v>
       </c>
       <c r="J89" s="3">
+        <v>32569900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-8285300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>69840100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>76062400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>21574500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>11941900</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-680600</v>
+        <v>-721100</v>
       </c>
       <c r="E91" s="3">
-        <v>-1072700</v>
+        <v>-667600</v>
       </c>
       <c r="F91" s="3">
-        <v>-757400</v>
+        <v>-1052300</v>
       </c>
       <c r="G91" s="3">
-        <v>-3750100</v>
+        <v>-743000</v>
       </c>
       <c r="H91" s="3">
-        <v>-5237300</v>
+        <v>-3678600</v>
       </c>
       <c r="I91" s="3">
-        <v>-3644300</v>
+        <v>-5137600</v>
       </c>
       <c r="J91" s="3">
+        <v>-3574900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3890100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4938600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4260700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5273500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1175100</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-17690100</v>
+        <v>42762900</v>
       </c>
       <c r="E94" s="3">
-        <v>-56447100</v>
+        <v>-17353100</v>
       </c>
       <c r="F94" s="3">
-        <v>-22135700</v>
+        <v>-55371900</v>
       </c>
       <c r="G94" s="3">
-        <v>7396000</v>
+        <v>-21714100</v>
       </c>
       <c r="H94" s="3">
-        <v>-24955400</v>
+        <v>7255100</v>
       </c>
       <c r="I94" s="3">
-        <v>4272900</v>
+        <v>-24480100</v>
       </c>
       <c r="J94" s="3">
+        <v>4191500</v>
+      </c>
+      <c r="K94" s="3">
         <v>38521000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12429800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>133008000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>12797800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-22347400</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2014300</v>
+        <v>-2174500</v>
       </c>
       <c r="E96" s="3">
-        <v>-1963300</v>
+        <v>-1976000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1879900</v>
+        <v>-1925900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1805100</v>
+        <v>-1844100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1606500</v>
+        <v>-1770700</v>
       </c>
       <c r="I96" s="3">
-        <v>-1507300</v>
+        <v>-1575900</v>
       </c>
       <c r="J96" s="3">
+        <v>-1478600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1557800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1457900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1557000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2458000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1283000</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3567200</v>
+        <v>-2579600</v>
       </c>
       <c r="E100" s="3">
-        <v>-4135000</v>
+        <v>-3499300</v>
       </c>
       <c r="F100" s="3">
-        <v>-7530500</v>
+        <v>-4056200</v>
       </c>
       <c r="G100" s="3">
-        <v>-4651200</v>
+        <v>-7387000</v>
       </c>
       <c r="H100" s="3">
-        <v>-2575900</v>
+        <v>-4562600</v>
       </c>
       <c r="I100" s="3">
-        <v>-1224000</v>
+        <v>-2526900</v>
       </c>
       <c r="J100" s="3">
+        <v>-1200600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-411600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2581100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-9515500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6725300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2759000</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2701700</v>
+        <v>2552900</v>
       </c>
       <c r="E101" s="3">
-        <v>1175400</v>
+        <v>2650300</v>
       </c>
       <c r="F101" s="3">
-        <v>-547400</v>
+        <v>1153000</v>
       </c>
       <c r="G101" s="3">
-        <v>1224800</v>
+        <v>-537000</v>
       </c>
       <c r="H101" s="3">
-        <v>-690000</v>
+        <v>1201500</v>
       </c>
       <c r="I101" s="3">
-        <v>-77600</v>
+        <v>-676800</v>
       </c>
       <c r="J101" s="3">
+        <v>-76100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-731900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1515800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>51100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>5676200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-557600</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-7196700</v>
+        <v>232000</v>
       </c>
       <c r="E102" s="3">
-        <v>78743500</v>
+        <v>-7059600</v>
       </c>
       <c r="F102" s="3">
-        <v>21879800</v>
+        <v>77243700</v>
       </c>
       <c r="G102" s="3">
-        <v>37763200</v>
+        <v>21463100</v>
       </c>
       <c r="H102" s="3">
-        <v>40459700</v>
+        <v>37043900</v>
       </c>
       <c r="I102" s="3">
-        <v>36173700</v>
+        <v>39689000</v>
       </c>
       <c r="J102" s="3">
+        <v>35484600</v>
+      </c>
+      <c r="K102" s="3">
         <v>29092200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>56345100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>199606000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>33323200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-13722100</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SMFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SMFG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>SMFG</t>
   </si>
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>27251800</v>
+        <v>25966700</v>
       </c>
       <c r="E8" s="3">
-        <v>13756600</v>
+        <v>13107900</v>
       </c>
       <c r="F8" s="3">
-        <v>13360400</v>
+        <v>12730400</v>
       </c>
       <c r="G8" s="3">
-        <v>17710400</v>
+        <v>16875200</v>
       </c>
       <c r="H8" s="3">
-        <v>17945000</v>
+        <v>17098800</v>
       </c>
       <c r="I8" s="3">
-        <v>15615400</v>
+        <v>14879000</v>
       </c>
       <c r="J8" s="3">
-        <v>13785700</v>
+        <v>13135600</v>
       </c>
       <c r="K8" s="3">
         <v>13732100</v>
@@ -995,17 +995,17 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
+      <c r="D15" s="3">
+        <v>-1343300</v>
       </c>
       <c r="E15" s="3">
-        <v>-1402200</v>
+        <v>-1336100</v>
       </c>
       <c r="F15" s="3">
-        <v>-1314000</v>
+        <v>-1252000</v>
       </c>
       <c r="G15" s="3">
-        <v>-1303300</v>
+        <v>-1241900</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>5</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15380900</v>
+        <v>15350500</v>
       </c>
       <c r="E17" s="3">
-        <v>4513700</v>
+        <v>4300900</v>
       </c>
       <c r="F17" s="3">
-        <v>6173600</v>
+        <v>5882500</v>
       </c>
       <c r="G17" s="3">
-        <v>9684700</v>
+        <v>9228000</v>
       </c>
       <c r="H17" s="3">
-        <v>8984600</v>
+        <v>8560900</v>
       </c>
       <c r="I17" s="3">
-        <v>6193400</v>
+        <v>5901300</v>
       </c>
       <c r="J17" s="3">
-        <v>5068700</v>
+        <v>4829700</v>
       </c>
       <c r="K17" s="3">
         <v>3929800</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11870900</v>
+        <v>10616100</v>
       </c>
       <c r="E18" s="3">
-        <v>9242900</v>
+        <v>8807000</v>
       </c>
       <c r="F18" s="3">
-        <v>7186800</v>
+        <v>6847900</v>
       </c>
       <c r="G18" s="3">
-        <v>8025700</v>
+        <v>7647200</v>
       </c>
       <c r="H18" s="3">
-        <v>8960400</v>
+        <v>8537800</v>
       </c>
       <c r="I18" s="3">
-        <v>9422000</v>
+        <v>8977700</v>
       </c>
       <c r="J18" s="3">
-        <v>8717000</v>
+        <v>8305900</v>
       </c>
       <c r="K18" s="3">
         <v>9802300</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3950900</v>
+        <v>-3069600</v>
       </c>
       <c r="E20" s="3">
-        <v>-2540600</v>
+        <v>-2420800</v>
       </c>
       <c r="F20" s="3">
-        <v>-2340000</v>
+        <v>-2229600</v>
       </c>
       <c r="G20" s="3">
-        <v>-1618600</v>
+        <v>-1542200</v>
       </c>
       <c r="H20" s="3">
-        <v>-859400</v>
+        <v>-818900</v>
       </c>
       <c r="I20" s="3">
-        <v>-1427200</v>
+        <v>-1359900</v>
       </c>
       <c r="J20" s="3">
-        <v>-1656200</v>
+        <v>-1578100</v>
       </c>
       <c r="K20" s="3">
         <v>-2598000</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9865100</v>
+        <v>9387200</v>
       </c>
       <c r="E21" s="3">
-        <v>8458600</v>
+        <v>8048200</v>
       </c>
       <c r="F21" s="3">
-        <v>6496200</v>
+        <v>6179000</v>
       </c>
       <c r="G21" s="3">
-        <v>8053200</v>
+        <v>7662600</v>
       </c>
       <c r="H21" s="3">
-        <v>10242200</v>
+        <v>9745100</v>
       </c>
       <c r="I21" s="3">
-        <v>10221900</v>
+        <v>9725200</v>
       </c>
       <c r="J21" s="3">
-        <v>9269700</v>
+        <v>8818100</v>
       </c>
       <c r="K21" s="3">
         <v>9140900</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7920000</v>
+        <v>7546500</v>
       </c>
       <c r="E23" s="3">
-        <v>6702300</v>
+        <v>6386300</v>
       </c>
       <c r="F23" s="3">
-        <v>4846800</v>
+        <v>4618300</v>
       </c>
       <c r="G23" s="3">
-        <v>6407100</v>
+        <v>6105000</v>
       </c>
       <c r="H23" s="3">
-        <v>8101000</v>
+        <v>7719000</v>
       </c>
       <c r="I23" s="3">
-        <v>7994800</v>
+        <v>7617800</v>
       </c>
       <c r="J23" s="3">
-        <v>7060800</v>
+        <v>6727800</v>
       </c>
       <c r="K23" s="3">
         <v>7204200</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2034300</v>
+        <v>1938400</v>
       </c>
       <c r="E24" s="3">
-        <v>1546800</v>
+        <v>1473900</v>
       </c>
       <c r="F24" s="3">
-        <v>1127300</v>
+        <v>1074100</v>
       </c>
       <c r="G24" s="3">
-        <v>1209000</v>
+        <v>1152000</v>
       </c>
       <c r="H24" s="3">
-        <v>2389600</v>
+        <v>2276900</v>
       </c>
       <c r="I24" s="3">
-        <v>1950500</v>
+        <v>1858500</v>
       </c>
       <c r="J24" s="3">
-        <v>1232600</v>
+        <v>1174400</v>
       </c>
       <c r="K24" s="3">
         <v>1654100</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5885700</v>
+        <v>5608100</v>
       </c>
       <c r="E26" s="3">
-        <v>5155500</v>
+        <v>4912400</v>
       </c>
       <c r="F26" s="3">
-        <v>3719600</v>
+        <v>3544200</v>
       </c>
       <c r="G26" s="3">
-        <v>5198100</v>
+        <v>4953000</v>
       </c>
       <c r="H26" s="3">
-        <v>5711400</v>
+        <v>5442100</v>
       </c>
       <c r="I26" s="3">
-        <v>6044300</v>
+        <v>5759300</v>
       </c>
       <c r="J26" s="3">
-        <v>5828200</v>
+        <v>5553400</v>
       </c>
       <c r="K26" s="3">
         <v>5550200</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5810100</v>
+        <v>5536100</v>
       </c>
       <c r="E27" s="3">
-        <v>5094800</v>
+        <v>4854600</v>
       </c>
       <c r="F27" s="3">
-        <v>3697400</v>
+        <v>3523000</v>
       </c>
       <c r="G27" s="3">
-        <v>5075000</v>
+        <v>4835700</v>
       </c>
       <c r="H27" s="3">
-        <v>5239400</v>
+        <v>4992300</v>
       </c>
       <c r="I27" s="3">
-        <v>5294800</v>
+        <v>5045100</v>
       </c>
       <c r="J27" s="3">
-        <v>5094000</v>
+        <v>4853800</v>
       </c>
       <c r="K27" s="3">
         <v>4753100</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3950900</v>
+        <v>3069600</v>
       </c>
       <c r="E32" s="3">
-        <v>2540600</v>
+        <v>2420800</v>
       </c>
       <c r="F32" s="3">
-        <v>2340000</v>
+        <v>2229600</v>
       </c>
       <c r="G32" s="3">
-        <v>1618600</v>
+        <v>1542200</v>
       </c>
       <c r="H32" s="3">
-        <v>859400</v>
+        <v>818900</v>
       </c>
       <c r="I32" s="3">
-        <v>1427200</v>
+        <v>1359900</v>
       </c>
       <c r="J32" s="3">
-        <v>1656200</v>
+        <v>1578100</v>
       </c>
       <c r="K32" s="3">
         <v>2598000</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5810100</v>
+        <v>5536100</v>
       </c>
       <c r="E33" s="3">
-        <v>5094800</v>
+        <v>4854600</v>
       </c>
       <c r="F33" s="3">
-        <v>3697400</v>
+        <v>3523000</v>
       </c>
       <c r="G33" s="3">
-        <v>5075000</v>
+        <v>4835700</v>
       </c>
       <c r="H33" s="3">
-        <v>5239400</v>
+        <v>4992300</v>
       </c>
       <c r="I33" s="3">
-        <v>5294800</v>
+        <v>5045100</v>
       </c>
       <c r="J33" s="3">
-        <v>5094000</v>
+        <v>4853800</v>
       </c>
       <c r="K33" s="3">
         <v>4753100</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5810100</v>
+        <v>5536100</v>
       </c>
       <c r="E35" s="3">
-        <v>5094800</v>
+        <v>4854600</v>
       </c>
       <c r="F35" s="3">
-        <v>3697400</v>
+        <v>3523000</v>
       </c>
       <c r="G35" s="3">
-        <v>5075000</v>
+        <v>4835700</v>
       </c>
       <c r="H35" s="3">
-        <v>5239400</v>
+        <v>4992300</v>
       </c>
       <c r="I35" s="3">
-        <v>5294800</v>
+        <v>5045100</v>
       </c>
       <c r="J35" s="3">
-        <v>5094000</v>
+        <v>4853800</v>
       </c>
       <c r="K35" s="3">
         <v>4753100</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>547340000</v>
+        <v>521529000</v>
       </c>
       <c r="E41" s="3">
-        <v>539251000</v>
+        <v>513822000</v>
       </c>
       <c r="F41" s="3">
-        <v>523222000</v>
+        <v>498548000</v>
       </c>
       <c r="G41" s="3">
-        <v>445351000</v>
+        <v>424350000</v>
       </c>
       <c r="H41" s="3">
-        <v>413935000</v>
+        <v>394416000</v>
       </c>
       <c r="I41" s="3">
-        <v>387412000</v>
+        <v>369143000</v>
       </c>
       <c r="J41" s="3">
-        <v>337901000</v>
+        <v>321966000</v>
       </c>
       <c r="K41" s="3">
         <v>314501000</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>240090000</v>
+        <v>228768000</v>
       </c>
       <c r="E42" s="3">
-        <v>210421000</v>
+        <v>200498000</v>
       </c>
       <c r="F42" s="3">
-        <v>197508000</v>
+        <v>188194000</v>
       </c>
       <c r="G42" s="3">
-        <v>206492000</v>
+        <v>196754000</v>
       </c>
       <c r="H42" s="3">
-        <v>177621000</v>
+        <v>169245000</v>
       </c>
       <c r="I42" s="3">
-        <v>169652000</v>
+        <v>161651000</v>
       </c>
       <c r="J42" s="3">
-        <v>176156000</v>
+        <v>167849000</v>
       </c>
       <c r="K42" s="3">
         <v>174560000</v>
@@ -2161,26 +2161,26 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
+      <c r="D47" s="3">
+        <v>9265100</v>
       </c>
       <c r="E47" s="3">
-        <v>8558100</v>
+        <v>8154500</v>
       </c>
       <c r="F47" s="3">
-        <v>6933700</v>
+        <v>6606700</v>
       </c>
       <c r="G47" s="3">
-        <v>6810900</v>
+        <v>6489700</v>
       </c>
       <c r="H47" s="3">
-        <v>7035900</v>
+        <v>6704100</v>
       </c>
       <c r="I47" s="3">
-        <v>4925500</v>
+        <v>4693200</v>
       </c>
       <c r="J47" s="3">
-        <v>4358800</v>
+        <v>4153200</v>
       </c>
       <c r="K47" s="3">
         <v>4486600</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10775500</v>
+        <v>10267400</v>
       </c>
       <c r="E48" s="3">
-        <v>10506800</v>
+        <v>10011300</v>
       </c>
       <c r="F48" s="3">
-        <v>10519300</v>
+        <v>10023300</v>
       </c>
       <c r="G48" s="3">
-        <v>10456800</v>
+        <v>9963700</v>
       </c>
       <c r="H48" s="3">
-        <v>10848900</v>
+        <v>10337300</v>
       </c>
       <c r="I48" s="3">
-        <v>25055700</v>
+        <v>23874100</v>
       </c>
       <c r="J48" s="3">
-        <v>22362800</v>
+        <v>21308300</v>
       </c>
       <c r="K48" s="3">
         <v>21457800</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6473500</v>
+        <v>6168200</v>
       </c>
       <c r="E49" s="3">
-        <v>6480500</v>
+        <v>6174900</v>
       </c>
       <c r="F49" s="3">
-        <v>5326500</v>
+        <v>5075300</v>
       </c>
       <c r="G49" s="3">
-        <v>5433300</v>
+        <v>5177100</v>
       </c>
       <c r="H49" s="3">
-        <v>5546200</v>
+        <v>5284600</v>
       </c>
       <c r="I49" s="3">
-        <v>6240900</v>
+        <v>5946600</v>
       </c>
       <c r="J49" s="3">
-        <v>6824300</v>
+        <v>6502500</v>
       </c>
       <c r="K49" s="3">
         <v>6455200</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5614700</v>
+        <v>5349900</v>
       </c>
       <c r="E52" s="3">
-        <v>4973200</v>
+        <v>4738700</v>
       </c>
       <c r="F52" s="3">
-        <v>4292600</v>
+        <v>4090200</v>
       </c>
       <c r="G52" s="3">
-        <v>1852200</v>
+        <v>1764800</v>
       </c>
       <c r="H52" s="3">
-        <v>2665400</v>
+        <v>2539700</v>
       </c>
       <c r="I52" s="3">
-        <v>2963500</v>
+        <v>2823800</v>
       </c>
       <c r="J52" s="3">
-        <v>2724800</v>
+        <v>2596300</v>
       </c>
       <c r="K52" s="3">
         <v>2418900</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1949790000</v>
+        <v>1857840000</v>
       </c>
       <c r="E54" s="3">
-        <v>1858050000</v>
+        <v>1770430000</v>
       </c>
       <c r="F54" s="3">
-        <v>1749030000</v>
+        <v>1666550000</v>
       </c>
       <c r="G54" s="3">
-        <v>1585220000</v>
+        <v>1510460000</v>
       </c>
       <c r="H54" s="3">
-        <v>1468380000</v>
+        <v>1399140000</v>
       </c>
       <c r="I54" s="3">
-        <v>1435140000</v>
+        <v>1367470000</v>
       </c>
       <c r="J54" s="3">
-        <v>1426080000</v>
+        <v>1358830000</v>
       </c>
       <c r="K54" s="3">
         <v>1371410000</v>
@@ -2575,17 +2575,17 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
+      <c r="D58" s="3">
+        <v>189100000</v>
       </c>
       <c r="E58" s="3">
-        <v>202223000</v>
+        <v>192687000</v>
       </c>
       <c r="F58" s="3">
-        <v>183311000</v>
+        <v>174667000</v>
       </c>
       <c r="G58" s="3">
-        <v>176157000</v>
+        <v>167850000</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>5</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>717800</v>
+        <v>684000</v>
       </c>
       <c r="E59" s="3">
-        <v>677400</v>
+        <v>645500</v>
       </c>
       <c r="F59" s="3">
-        <v>677200</v>
+        <v>645300</v>
       </c>
       <c r="G59" s="3">
-        <v>556800</v>
+        <v>530600</v>
       </c>
       <c r="H59" s="3">
-        <v>529500</v>
+        <v>504500</v>
       </c>
       <c r="I59" s="3">
-        <v>633800</v>
+        <v>603900</v>
       </c>
       <c r="J59" s="3">
-        <v>579800</v>
+        <v>552500</v>
       </c>
       <c r="K59" s="3">
         <v>521300</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>173327000</v>
+        <v>165290000</v>
       </c>
       <c r="E61" s="3">
-        <v>206979000</v>
+        <v>197218000</v>
       </c>
       <c r="F61" s="3">
-        <v>192822000</v>
+        <v>183729000</v>
       </c>
       <c r="G61" s="3">
-        <v>176416000</v>
+        <v>168097000</v>
       </c>
       <c r="H61" s="3">
-        <v>143366000</v>
+        <v>136605000</v>
       </c>
       <c r="I61" s="3">
-        <v>143385000</v>
+        <v>136623000</v>
       </c>
       <c r="J61" s="3">
-        <v>136384000</v>
+        <v>129953000</v>
       </c>
       <c r="K61" s="3">
         <v>115272000</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3617100</v>
+        <v>3446500</v>
       </c>
       <c r="E62" s="3">
-        <v>3723700</v>
+        <v>3548100</v>
       </c>
       <c r="F62" s="3">
-        <v>5605800</v>
+        <v>5341500</v>
       </c>
       <c r="G62" s="3">
-        <v>3618300</v>
+        <v>3447600</v>
       </c>
       <c r="H62" s="3">
-        <v>4499000</v>
+        <v>4286800</v>
       </c>
       <c r="I62" s="3">
-        <v>5154800</v>
+        <v>4911700</v>
       </c>
       <c r="J62" s="3">
-        <v>4504000</v>
+        <v>4291600</v>
       </c>
       <c r="K62" s="3">
         <v>5131000</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1858360000</v>
+        <v>1770720000</v>
       </c>
       <c r="E66" s="3">
-        <v>1770810000</v>
+        <v>1687310000</v>
       </c>
       <c r="F66" s="3">
-        <v>1663750000</v>
+        <v>1585290000</v>
       </c>
       <c r="G66" s="3">
-        <v>1507910000</v>
+        <v>1436800000</v>
       </c>
       <c r="H66" s="3">
-        <v>1390710000</v>
+        <v>1325130000</v>
       </c>
       <c r="I66" s="3">
-        <v>1360210000</v>
+        <v>1296070000</v>
       </c>
       <c r="J66" s="3">
-        <v>1355890000</v>
+        <v>1291950000</v>
       </c>
       <c r="K66" s="3">
         <v>1305870000</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>53532400</v>
+        <v>51008000</v>
       </c>
       <c r="E72" s="3">
-        <v>49878400</v>
+        <v>47526300</v>
       </c>
       <c r="F72" s="3">
-        <v>46824500</v>
+        <v>44616400</v>
       </c>
       <c r="G72" s="3">
-        <v>45699700</v>
+        <v>43544600</v>
       </c>
       <c r="H72" s="3">
-        <v>43238300</v>
+        <v>41199400</v>
       </c>
       <c r="I72" s="3">
-        <v>40054400</v>
+        <v>38165600</v>
       </c>
       <c r="J72" s="3">
-        <v>36340100</v>
+        <v>34626400</v>
       </c>
       <c r="K72" s="3">
         <v>33349600</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>91434400</v>
+        <v>87122700</v>
       </c>
       <c r="E76" s="3">
-        <v>87238800</v>
+        <v>83124900</v>
       </c>
       <c r="F76" s="3">
-        <v>85281400</v>
+        <v>81259800</v>
       </c>
       <c r="G76" s="3">
-        <v>77305900</v>
+        <v>73660400</v>
       </c>
       <c r="H76" s="3">
-        <v>77673800</v>
+        <v>74011000</v>
       </c>
       <c r="I76" s="3">
-        <v>74935600</v>
+        <v>71401900</v>
       </c>
       <c r="J76" s="3">
-        <v>70189500</v>
+        <v>66879600</v>
       </c>
       <c r="K76" s="3">
         <v>65537400</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5810100</v>
+        <v>5536100</v>
       </c>
       <c r="E81" s="3">
-        <v>5094800</v>
+        <v>4854600</v>
       </c>
       <c r="F81" s="3">
-        <v>3697400</v>
+        <v>3523000</v>
       </c>
       <c r="G81" s="3">
-        <v>5075000</v>
+        <v>4835700</v>
       </c>
       <c r="H81" s="3">
-        <v>5239400</v>
+        <v>4992300</v>
       </c>
       <c r="I81" s="3">
-        <v>5294800</v>
+        <v>5045100</v>
       </c>
       <c r="J81" s="3">
-        <v>5094000</v>
+        <v>4853800</v>
       </c>
       <c r="K81" s="3">
         <v>4753100</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1931800</v>
+        <v>1840700</v>
       </c>
       <c r="E83" s="3">
-        <v>1744200</v>
+        <v>1662000</v>
       </c>
       <c r="F83" s="3">
-        <v>1638000</v>
+        <v>1560700</v>
       </c>
       <c r="G83" s="3">
-        <v>1634700</v>
+        <v>1557600</v>
       </c>
       <c r="H83" s="3">
-        <v>2126400</v>
+        <v>2026200</v>
       </c>
       <c r="I83" s="3">
-        <v>2211700</v>
+        <v>2107400</v>
       </c>
       <c r="J83" s="3">
-        <v>2193700</v>
+        <v>2090300</v>
       </c>
       <c r="K83" s="3">
         <v>1955200</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-42504300</v>
+        <v>-40499900</v>
       </c>
       <c r="E89" s="3">
-        <v>11142500</v>
+        <v>10617100</v>
       </c>
       <c r="F89" s="3">
-        <v>135518800</v>
+        <v>129128200</v>
       </c>
       <c r="G89" s="3">
-        <v>51101200</v>
+        <v>48691400</v>
       </c>
       <c r="H89" s="3">
-        <v>33149900</v>
+        <v>31586600</v>
       </c>
       <c r="I89" s="3">
-        <v>67372900</v>
+        <v>64195800</v>
       </c>
       <c r="J89" s="3">
-        <v>32569900</v>
+        <v>31034000</v>
       </c>
       <c r="K89" s="3">
         <v>-8285300</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-721100</v>
+        <v>-687100</v>
       </c>
       <c r="E91" s="3">
-        <v>-667600</v>
+        <v>-636100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1052300</v>
+        <v>-1002600</v>
       </c>
       <c r="G91" s="3">
-        <v>-743000</v>
+        <v>-708000</v>
       </c>
       <c r="H91" s="3">
-        <v>-3678600</v>
+        <v>-3505200</v>
       </c>
       <c r="I91" s="3">
-        <v>-5137600</v>
+        <v>-4895300</v>
       </c>
       <c r="J91" s="3">
-        <v>-3574900</v>
+        <v>-3406300</v>
       </c>
       <c r="K91" s="3">
         <v>-3890100</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>42762900</v>
+        <v>40746400</v>
       </c>
       <c r="E94" s="3">
-        <v>-17353100</v>
+        <v>-16534800</v>
       </c>
       <c r="F94" s="3">
-        <v>-55371900</v>
+        <v>-52760800</v>
       </c>
       <c r="G94" s="3">
-        <v>-21714100</v>
+        <v>-20690100</v>
       </c>
       <c r="H94" s="3">
-        <v>7255100</v>
+        <v>6913000</v>
       </c>
       <c r="I94" s="3">
-        <v>-24480100</v>
+        <v>-23325700</v>
       </c>
       <c r="J94" s="3">
-        <v>4191500</v>
+        <v>3993900</v>
       </c>
       <c r="K94" s="3">
         <v>38521000</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2174500</v>
+        <v>-2072000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1976000</v>
+        <v>-1882800</v>
       </c>
       <c r="F96" s="3">
-        <v>-1925900</v>
+        <v>-1835100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1844100</v>
+        <v>-1757100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1770700</v>
+        <v>-1687200</v>
       </c>
       <c r="I96" s="3">
-        <v>-1575900</v>
+        <v>-1501600</v>
       </c>
       <c r="J96" s="3">
-        <v>-1478600</v>
+        <v>-1408900</v>
       </c>
       <c r="K96" s="3">
         <v>-1557800</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2579600</v>
+        <v>-2457900</v>
       </c>
       <c r="E100" s="3">
-        <v>-3499300</v>
+        <v>-3334300</v>
       </c>
       <c r="F100" s="3">
-        <v>-4056200</v>
+        <v>-3864900</v>
       </c>
       <c r="G100" s="3">
-        <v>-7387000</v>
+        <v>-7038700</v>
       </c>
       <c r="H100" s="3">
-        <v>-4562600</v>
+        <v>-4347500</v>
       </c>
       <c r="I100" s="3">
-        <v>-2526900</v>
+        <v>-2407700</v>
       </c>
       <c r="J100" s="3">
-        <v>-1200600</v>
+        <v>-1144000</v>
       </c>
       <c r="K100" s="3">
         <v>-411600</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2552900</v>
+        <v>2432500</v>
       </c>
       <c r="E101" s="3">
-        <v>2650300</v>
+        <v>2525300</v>
       </c>
       <c r="F101" s="3">
-        <v>1153000</v>
+        <v>1098600</v>
       </c>
       <c r="G101" s="3">
-        <v>-537000</v>
+        <v>-511700</v>
       </c>
       <c r="H101" s="3">
-        <v>1201500</v>
+        <v>1144900</v>
       </c>
       <c r="I101" s="3">
-        <v>-676800</v>
+        <v>-644900</v>
       </c>
       <c r="J101" s="3">
-        <v>-76100</v>
+        <v>-72500</v>
       </c>
       <c r="K101" s="3">
         <v>-731900</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>232000</v>
+        <v>221000</v>
       </c>
       <c r="E102" s="3">
-        <v>-7059600</v>
+        <v>-6726700</v>
       </c>
       <c r="F102" s="3">
-        <v>77243700</v>
+        <v>73601100</v>
       </c>
       <c r="G102" s="3">
-        <v>21463100</v>
+        <v>20450900</v>
       </c>
       <c r="H102" s="3">
-        <v>37043900</v>
+        <v>35297000</v>
       </c>
       <c r="I102" s="3">
-        <v>39689000</v>
+        <v>37817400</v>
       </c>
       <c r="J102" s="3">
-        <v>35484600</v>
+        <v>33811300</v>
       </c>
       <c r="K102" s="3">
         <v>29092200</v>

--- a/AAII_Financials/Yearly/SMFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SMFG_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>25966700</v>
+        <v>25097300</v>
       </c>
       <c r="E8" s="3">
-        <v>13107900</v>
+        <v>12669100</v>
       </c>
       <c r="F8" s="3">
-        <v>12730400</v>
+        <v>12304200</v>
       </c>
       <c r="G8" s="3">
-        <v>16875200</v>
+        <v>16310300</v>
       </c>
       <c r="H8" s="3">
-        <v>17098800</v>
+        <v>16526300</v>
       </c>
       <c r="I8" s="3">
-        <v>14879000</v>
+        <v>14380900</v>
       </c>
       <c r="J8" s="3">
-        <v>13135600</v>
+        <v>12695900</v>
       </c>
       <c r="K8" s="3">
         <v>13732100</v>
@@ -996,16 +996,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1343300</v>
+        <v>-1298300</v>
       </c>
       <c r="E15" s="3">
-        <v>-1336100</v>
+        <v>-1291400</v>
       </c>
       <c r="F15" s="3">
-        <v>-1252000</v>
+        <v>-1210100</v>
       </c>
       <c r="G15" s="3">
-        <v>-1241900</v>
+        <v>-1200300</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>5</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15350500</v>
+        <v>14836600</v>
       </c>
       <c r="E17" s="3">
-        <v>4300900</v>
+        <v>4156900</v>
       </c>
       <c r="F17" s="3">
-        <v>5882500</v>
+        <v>5685600</v>
       </c>
       <c r="G17" s="3">
-        <v>9228000</v>
+        <v>8919100</v>
       </c>
       <c r="H17" s="3">
-        <v>8560900</v>
+        <v>8274300</v>
       </c>
       <c r="I17" s="3">
-        <v>5901300</v>
+        <v>5703700</v>
       </c>
       <c r="J17" s="3">
-        <v>4829700</v>
+        <v>4668000</v>
       </c>
       <c r="K17" s="3">
         <v>3929800</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10616100</v>
+        <v>10260700</v>
       </c>
       <c r="E18" s="3">
-        <v>8807000</v>
+        <v>8512200</v>
       </c>
       <c r="F18" s="3">
-        <v>6847900</v>
+        <v>6618600</v>
       </c>
       <c r="G18" s="3">
-        <v>7647200</v>
+        <v>7391200</v>
       </c>
       <c r="H18" s="3">
-        <v>8537800</v>
+        <v>8252000</v>
       </c>
       <c r="I18" s="3">
-        <v>8977700</v>
+        <v>8677100</v>
       </c>
       <c r="J18" s="3">
-        <v>8305900</v>
+        <v>8027900</v>
       </c>
       <c r="K18" s="3">
         <v>9802300</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3069600</v>
+        <v>-2966800</v>
       </c>
       <c r="E20" s="3">
-        <v>-2420800</v>
+        <v>-2339700</v>
       </c>
       <c r="F20" s="3">
-        <v>-2229600</v>
+        <v>-2155000</v>
       </c>
       <c r="G20" s="3">
-        <v>-1542200</v>
+        <v>-1490600</v>
       </c>
       <c r="H20" s="3">
-        <v>-818900</v>
+        <v>-791400</v>
       </c>
       <c r="I20" s="3">
-        <v>-1359900</v>
+        <v>-1314400</v>
       </c>
       <c r="J20" s="3">
-        <v>-1578100</v>
+        <v>-1525300</v>
       </c>
       <c r="K20" s="3">
         <v>-2598000</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9387200</v>
+        <v>9064900</v>
       </c>
       <c r="E21" s="3">
-        <v>8048200</v>
+        <v>7771500</v>
       </c>
       <c r="F21" s="3">
-        <v>6179000</v>
+        <v>5965300</v>
       </c>
       <c r="G21" s="3">
-        <v>7662600</v>
+        <v>7399300</v>
       </c>
       <c r="H21" s="3">
-        <v>9745100</v>
+        <v>9410000</v>
       </c>
       <c r="I21" s="3">
-        <v>9725200</v>
+        <v>9390400</v>
       </c>
       <c r="J21" s="3">
-        <v>8818100</v>
+        <v>8513700</v>
       </c>
       <c r="K21" s="3">
         <v>9140900</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7546500</v>
+        <v>7293900</v>
       </c>
       <c r="E23" s="3">
-        <v>6386300</v>
+        <v>6172500</v>
       </c>
       <c r="F23" s="3">
-        <v>4618300</v>
+        <v>4463700</v>
       </c>
       <c r="G23" s="3">
-        <v>6105000</v>
+        <v>5900600</v>
       </c>
       <c r="H23" s="3">
-        <v>7719000</v>
+        <v>7460600</v>
       </c>
       <c r="I23" s="3">
-        <v>7617800</v>
+        <v>7362800</v>
       </c>
       <c r="J23" s="3">
-        <v>6727800</v>
+        <v>6502600</v>
       </c>
       <c r="K23" s="3">
         <v>7204200</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1938400</v>
+        <v>1873500</v>
       </c>
       <c r="E24" s="3">
-        <v>1473900</v>
+        <v>1424500</v>
       </c>
       <c r="F24" s="3">
-        <v>1074100</v>
+        <v>1038100</v>
       </c>
       <c r="G24" s="3">
-        <v>1152000</v>
+        <v>1113400</v>
       </c>
       <c r="H24" s="3">
-        <v>2276900</v>
+        <v>2200700</v>
       </c>
       <c r="I24" s="3">
-        <v>1858500</v>
+        <v>1796300</v>
       </c>
       <c r="J24" s="3">
-        <v>1174400</v>
+        <v>1135100</v>
       </c>
       <c r="K24" s="3">
         <v>1654100</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5608100</v>
+        <v>5420400</v>
       </c>
       <c r="E26" s="3">
-        <v>4912400</v>
+        <v>4748000</v>
       </c>
       <c r="F26" s="3">
-        <v>3544200</v>
+        <v>3425500</v>
       </c>
       <c r="G26" s="3">
-        <v>4953000</v>
+        <v>4787200</v>
       </c>
       <c r="H26" s="3">
-        <v>5442100</v>
+        <v>5259900</v>
       </c>
       <c r="I26" s="3">
-        <v>5759300</v>
+        <v>5566500</v>
       </c>
       <c r="J26" s="3">
-        <v>5553400</v>
+        <v>5367500</v>
       </c>
       <c r="K26" s="3">
         <v>5550200</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5536100</v>
+        <v>5350800</v>
       </c>
       <c r="E27" s="3">
-        <v>4854600</v>
+        <v>4692000</v>
       </c>
       <c r="F27" s="3">
-        <v>3523000</v>
+        <v>3405100</v>
       </c>
       <c r="G27" s="3">
-        <v>4835700</v>
+        <v>4673800</v>
       </c>
       <c r="H27" s="3">
-        <v>4992300</v>
+        <v>4825200</v>
       </c>
       <c r="I27" s="3">
-        <v>5045100</v>
+        <v>4876200</v>
       </c>
       <c r="J27" s="3">
-        <v>4853800</v>
+        <v>4691300</v>
       </c>
       <c r="K27" s="3">
         <v>4753100</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3069600</v>
+        <v>2966800</v>
       </c>
       <c r="E32" s="3">
-        <v>2420800</v>
+        <v>2339700</v>
       </c>
       <c r="F32" s="3">
-        <v>2229600</v>
+        <v>2155000</v>
       </c>
       <c r="G32" s="3">
-        <v>1542200</v>
+        <v>1490600</v>
       </c>
       <c r="H32" s="3">
-        <v>818900</v>
+        <v>791400</v>
       </c>
       <c r="I32" s="3">
-        <v>1359900</v>
+        <v>1314400</v>
       </c>
       <c r="J32" s="3">
-        <v>1578100</v>
+        <v>1525300</v>
       </c>
       <c r="K32" s="3">
         <v>2598000</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5536100</v>
+        <v>5350800</v>
       </c>
       <c r="E33" s="3">
-        <v>4854600</v>
+        <v>4692000</v>
       </c>
       <c r="F33" s="3">
-        <v>3523000</v>
+        <v>3405100</v>
       </c>
       <c r="G33" s="3">
-        <v>4835700</v>
+        <v>4673800</v>
       </c>
       <c r="H33" s="3">
-        <v>4992300</v>
+        <v>4825200</v>
       </c>
       <c r="I33" s="3">
-        <v>5045100</v>
+        <v>4876200</v>
       </c>
       <c r="J33" s="3">
-        <v>4853800</v>
+        <v>4691300</v>
       </c>
       <c r="K33" s="3">
         <v>4753100</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5536100</v>
+        <v>5350800</v>
       </c>
       <c r="E35" s="3">
-        <v>4854600</v>
+        <v>4692000</v>
       </c>
       <c r="F35" s="3">
-        <v>3523000</v>
+        <v>3405100</v>
       </c>
       <c r="G35" s="3">
-        <v>4835700</v>
+        <v>4673800</v>
       </c>
       <c r="H35" s="3">
-        <v>4992300</v>
+        <v>4825200</v>
       </c>
       <c r="I35" s="3">
-        <v>5045100</v>
+        <v>4876200</v>
       </c>
       <c r="J35" s="3">
-        <v>4853800</v>
+        <v>4691300</v>
       </c>
       <c r="K35" s="3">
         <v>4753100</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>521529000</v>
+        <v>504069000</v>
       </c>
       <c r="E41" s="3">
-        <v>513822000</v>
+        <v>496620000</v>
       </c>
       <c r="F41" s="3">
-        <v>498548000</v>
+        <v>481857000</v>
       </c>
       <c r="G41" s="3">
-        <v>424350000</v>
+        <v>410143000</v>
       </c>
       <c r="H41" s="3">
-        <v>394416000</v>
+        <v>381211000</v>
       </c>
       <c r="I41" s="3">
-        <v>369143000</v>
+        <v>356784000</v>
       </c>
       <c r="J41" s="3">
-        <v>321966000</v>
+        <v>311187000</v>
       </c>
       <c r="K41" s="3">
         <v>314501000</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>228768000</v>
+        <v>221110000</v>
       </c>
       <c r="E42" s="3">
-        <v>200498000</v>
+        <v>193786000</v>
       </c>
       <c r="F42" s="3">
-        <v>188194000</v>
+        <v>181894000</v>
       </c>
       <c r="G42" s="3">
-        <v>196754000</v>
+        <v>190167000</v>
       </c>
       <c r="H42" s="3">
-        <v>169245000</v>
+        <v>163579000</v>
       </c>
       <c r="I42" s="3">
-        <v>161651000</v>
+        <v>156239000</v>
       </c>
       <c r="J42" s="3">
-        <v>167849000</v>
+        <v>162229000</v>
       </c>
       <c r="K42" s="3">
         <v>174560000</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9265100</v>
+        <v>8954900</v>
       </c>
       <c r="E47" s="3">
-        <v>8154500</v>
+        <v>7881500</v>
       </c>
       <c r="F47" s="3">
-        <v>6606700</v>
+        <v>6385600</v>
       </c>
       <c r="G47" s="3">
-        <v>6489700</v>
+        <v>6272400</v>
       </c>
       <c r="H47" s="3">
-        <v>6704100</v>
+        <v>6479600</v>
       </c>
       <c r="I47" s="3">
-        <v>4693200</v>
+        <v>4536100</v>
       </c>
       <c r="J47" s="3">
-        <v>4153200</v>
+        <v>4014200</v>
       </c>
       <c r="K47" s="3">
         <v>4486600</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10267400</v>
+        <v>9923700</v>
       </c>
       <c r="E48" s="3">
-        <v>10011300</v>
+        <v>9676200</v>
       </c>
       <c r="F48" s="3">
-        <v>10023300</v>
+        <v>9687700</v>
       </c>
       <c r="G48" s="3">
-        <v>9963700</v>
+        <v>9630100</v>
       </c>
       <c r="H48" s="3">
-        <v>10337300</v>
+        <v>9991200</v>
       </c>
       <c r="I48" s="3">
-        <v>23874100</v>
+        <v>23074900</v>
       </c>
       <c r="J48" s="3">
-        <v>21308300</v>
+        <v>20594900</v>
       </c>
       <c r="K48" s="3">
         <v>21457800</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6168200</v>
+        <v>5961700</v>
       </c>
       <c r="E49" s="3">
-        <v>6174900</v>
+        <v>5968100</v>
       </c>
       <c r="F49" s="3">
-        <v>5075300</v>
+        <v>4905400</v>
       </c>
       <c r="G49" s="3">
-        <v>5177100</v>
+        <v>5003800</v>
       </c>
       <c r="H49" s="3">
-        <v>5284600</v>
+        <v>5107700</v>
       </c>
       <c r="I49" s="3">
-        <v>5946600</v>
+        <v>5747500</v>
       </c>
       <c r="J49" s="3">
-        <v>6502500</v>
+        <v>6284800</v>
       </c>
       <c r="K49" s="3">
         <v>6455200</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5349900</v>
+        <v>5170800</v>
       </c>
       <c r="E52" s="3">
-        <v>4738700</v>
+        <v>4580000</v>
       </c>
       <c r="F52" s="3">
-        <v>4090200</v>
+        <v>3953300</v>
       </c>
       <c r="G52" s="3">
-        <v>1764800</v>
+        <v>1705700</v>
       </c>
       <c r="H52" s="3">
-        <v>2539700</v>
+        <v>2454700</v>
       </c>
       <c r="I52" s="3">
-        <v>2823800</v>
+        <v>2729200</v>
       </c>
       <c r="J52" s="3">
-        <v>2596300</v>
+        <v>2509400</v>
       </c>
       <c r="K52" s="3">
         <v>2418900</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1857840000</v>
+        <v>1795650000</v>
       </c>
       <c r="E54" s="3">
-        <v>1770430000</v>
+        <v>1711160000</v>
       </c>
       <c r="F54" s="3">
-        <v>1666550000</v>
+        <v>1610760000</v>
       </c>
       <c r="G54" s="3">
-        <v>1510460000</v>
+        <v>1459890000</v>
       </c>
       <c r="H54" s="3">
-        <v>1399140000</v>
+        <v>1352300000</v>
       </c>
       <c r="I54" s="3">
-        <v>1367470000</v>
+        <v>1321690000</v>
       </c>
       <c r="J54" s="3">
-        <v>1358830000</v>
+        <v>1313340000</v>
       </c>
       <c r="K54" s="3">
         <v>1371410000</v>
@@ -2576,16 +2576,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>189100000</v>
+        <v>182769000</v>
       </c>
       <c r="E58" s="3">
-        <v>192687000</v>
+        <v>186236000</v>
       </c>
       <c r="F58" s="3">
-        <v>174667000</v>
+        <v>168819000</v>
       </c>
       <c r="G58" s="3">
-        <v>167850000</v>
+        <v>162231000</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>5</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>684000</v>
+        <v>661100</v>
       </c>
       <c r="E59" s="3">
-        <v>645500</v>
+        <v>623900</v>
       </c>
       <c r="F59" s="3">
-        <v>645300</v>
+        <v>623700</v>
       </c>
       <c r="G59" s="3">
-        <v>530600</v>
+        <v>512800</v>
       </c>
       <c r="H59" s="3">
-        <v>504500</v>
+        <v>487700</v>
       </c>
       <c r="I59" s="3">
-        <v>603900</v>
+        <v>583700</v>
       </c>
       <c r="J59" s="3">
-        <v>552500</v>
+        <v>534000</v>
       </c>
       <c r="K59" s="3">
         <v>521300</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>165290000</v>
+        <v>159757000</v>
       </c>
       <c r="E61" s="3">
-        <v>197218000</v>
+        <v>190616000</v>
       </c>
       <c r="F61" s="3">
-        <v>183729000</v>
+        <v>177578000</v>
       </c>
       <c r="G61" s="3">
-        <v>168097000</v>
+        <v>162470000</v>
       </c>
       <c r="H61" s="3">
-        <v>136605000</v>
+        <v>132032000</v>
       </c>
       <c r="I61" s="3">
-        <v>136623000</v>
+        <v>132049000</v>
       </c>
       <c r="J61" s="3">
-        <v>129953000</v>
+        <v>125602000</v>
       </c>
       <c r="K61" s="3">
         <v>115272000</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3446500</v>
+        <v>3331100</v>
       </c>
       <c r="E62" s="3">
-        <v>3548100</v>
+        <v>3429300</v>
       </c>
       <c r="F62" s="3">
-        <v>5341500</v>
+        <v>5162700</v>
       </c>
       <c r="G62" s="3">
-        <v>3447600</v>
+        <v>3332200</v>
       </c>
       <c r="H62" s="3">
-        <v>4286800</v>
+        <v>4143300</v>
       </c>
       <c r="I62" s="3">
-        <v>4911700</v>
+        <v>4747300</v>
       </c>
       <c r="J62" s="3">
-        <v>4291600</v>
+        <v>4147900</v>
       </c>
       <c r="K62" s="3">
         <v>5131000</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1770720000</v>
+        <v>1711440000</v>
       </c>
       <c r="E66" s="3">
-        <v>1687310000</v>
+        <v>1630820000</v>
       </c>
       <c r="F66" s="3">
-        <v>1585290000</v>
+        <v>1532220000</v>
       </c>
       <c r="G66" s="3">
-        <v>1436800000</v>
+        <v>1388700000</v>
       </c>
       <c r="H66" s="3">
-        <v>1325130000</v>
+        <v>1280760000</v>
       </c>
       <c r="I66" s="3">
-        <v>1296070000</v>
+        <v>1252670000</v>
       </c>
       <c r="J66" s="3">
-        <v>1291950000</v>
+        <v>1248700000</v>
       </c>
       <c r="K66" s="3">
         <v>1305870000</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>51008000</v>
+        <v>49300300</v>
       </c>
       <c r="E72" s="3">
-        <v>47526300</v>
+        <v>45935100</v>
       </c>
       <c r="F72" s="3">
-        <v>44616400</v>
+        <v>43122700</v>
       </c>
       <c r="G72" s="3">
-        <v>43544600</v>
+        <v>42086800</v>
       </c>
       <c r="H72" s="3">
-        <v>41199400</v>
+        <v>39820100</v>
       </c>
       <c r="I72" s="3">
-        <v>38165600</v>
+        <v>36887800</v>
       </c>
       <c r="J72" s="3">
-        <v>34626400</v>
+        <v>33467200</v>
       </c>
       <c r="K72" s="3">
         <v>33349600</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>87122700</v>
+        <v>84205900</v>
       </c>
       <c r="E76" s="3">
-        <v>83124900</v>
+        <v>80341900</v>
       </c>
       <c r="F76" s="3">
-        <v>81259800</v>
+        <v>78539300</v>
       </c>
       <c r="G76" s="3">
-        <v>73660400</v>
+        <v>71194300</v>
       </c>
       <c r="H76" s="3">
-        <v>74011000</v>
+        <v>71533200</v>
       </c>
       <c r="I76" s="3">
-        <v>71401900</v>
+        <v>69011400</v>
       </c>
       <c r="J76" s="3">
-        <v>66879600</v>
+        <v>64640500</v>
       </c>
       <c r="K76" s="3">
         <v>65537400</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5536100</v>
+        <v>5350800</v>
       </c>
       <c r="E81" s="3">
-        <v>4854600</v>
+        <v>4692000</v>
       </c>
       <c r="F81" s="3">
-        <v>3523000</v>
+        <v>3405100</v>
       </c>
       <c r="G81" s="3">
-        <v>4835700</v>
+        <v>4673800</v>
       </c>
       <c r="H81" s="3">
-        <v>4992300</v>
+        <v>4825200</v>
       </c>
       <c r="I81" s="3">
-        <v>5045100</v>
+        <v>4876200</v>
       </c>
       <c r="J81" s="3">
-        <v>4853800</v>
+        <v>4691300</v>
       </c>
       <c r="K81" s="3">
         <v>4753100</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1840700</v>
+        <v>1779000</v>
       </c>
       <c r="E83" s="3">
-        <v>1662000</v>
+        <v>1606300</v>
       </c>
       <c r="F83" s="3">
-        <v>1560700</v>
+        <v>1508500</v>
       </c>
       <c r="G83" s="3">
-        <v>1557600</v>
+        <v>1505500</v>
       </c>
       <c r="H83" s="3">
-        <v>2026200</v>
+        <v>1958300</v>
       </c>
       <c r="I83" s="3">
-        <v>2107400</v>
+        <v>2036900</v>
       </c>
       <c r="J83" s="3">
-        <v>2090300</v>
+        <v>2020300</v>
       </c>
       <c r="K83" s="3">
         <v>1955200</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-40499900</v>
+        <v>-39144000</v>
       </c>
       <c r="E89" s="3">
-        <v>10617100</v>
+        <v>10261600</v>
       </c>
       <c r="F89" s="3">
-        <v>129128200</v>
+        <v>124805100</v>
       </c>
       <c r="G89" s="3">
-        <v>48691400</v>
+        <v>47061300</v>
       </c>
       <c r="H89" s="3">
-        <v>31586600</v>
+        <v>30529100</v>
       </c>
       <c r="I89" s="3">
-        <v>64195800</v>
+        <v>62046600</v>
       </c>
       <c r="J89" s="3">
-        <v>31034000</v>
+        <v>29995000</v>
       </c>
       <c r="K89" s="3">
         <v>-8285300</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-687100</v>
+        <v>-664100</v>
       </c>
       <c r="E91" s="3">
-        <v>-636100</v>
+        <v>-614800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1002600</v>
+        <v>-969100</v>
       </c>
       <c r="G91" s="3">
-        <v>-708000</v>
+        <v>-684300</v>
       </c>
       <c r="H91" s="3">
-        <v>-3505200</v>
+        <v>-3387800</v>
       </c>
       <c r="I91" s="3">
-        <v>-4895300</v>
+        <v>-4731400</v>
       </c>
       <c r="J91" s="3">
-        <v>-3406300</v>
+        <v>-3292300</v>
       </c>
       <c r="K91" s="3">
         <v>-3890100</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>40746400</v>
+        <v>39382200</v>
       </c>
       <c r="E94" s="3">
-        <v>-16534800</v>
+        <v>-15981200</v>
       </c>
       <c r="F94" s="3">
-        <v>-52760800</v>
+        <v>-50994400</v>
       </c>
       <c r="G94" s="3">
-        <v>-20690100</v>
+        <v>-19997400</v>
       </c>
       <c r="H94" s="3">
-        <v>6913000</v>
+        <v>6681600</v>
       </c>
       <c r="I94" s="3">
-        <v>-23325700</v>
+        <v>-22544800</v>
       </c>
       <c r="J94" s="3">
-        <v>3993900</v>
+        <v>3860100</v>
       </c>
       <c r="K94" s="3">
         <v>38521000</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2072000</v>
+        <v>-2002600</v>
       </c>
       <c r="E96" s="3">
-        <v>-1882800</v>
+        <v>-1819700</v>
       </c>
       <c r="F96" s="3">
-        <v>-1835100</v>
+        <v>-1773700</v>
       </c>
       <c r="G96" s="3">
-        <v>-1757100</v>
+        <v>-1698300</v>
       </c>
       <c r="H96" s="3">
-        <v>-1687200</v>
+        <v>-1630700</v>
       </c>
       <c r="I96" s="3">
-        <v>-1501600</v>
+        <v>-1451300</v>
       </c>
       <c r="J96" s="3">
-        <v>-1408900</v>
+        <v>-1361700</v>
       </c>
       <c r="K96" s="3">
         <v>-1557800</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2457900</v>
+        <v>-2375600</v>
       </c>
       <c r="E100" s="3">
-        <v>-3334300</v>
+        <v>-3222600</v>
       </c>
       <c r="F100" s="3">
-        <v>-3864900</v>
+        <v>-3735500</v>
       </c>
       <c r="G100" s="3">
-        <v>-7038700</v>
+        <v>-6803000</v>
       </c>
       <c r="H100" s="3">
-        <v>-4347500</v>
+        <v>-4201900</v>
       </c>
       <c r="I100" s="3">
-        <v>-2407700</v>
+        <v>-2327100</v>
       </c>
       <c r="J100" s="3">
-        <v>-1144000</v>
+        <v>-1105700</v>
       </c>
       <c r="K100" s="3">
         <v>-411600</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2432500</v>
+        <v>2351100</v>
       </c>
       <c r="E101" s="3">
-        <v>2525300</v>
+        <v>2440800</v>
       </c>
       <c r="F101" s="3">
-        <v>1098600</v>
+        <v>1061800</v>
       </c>
       <c r="G101" s="3">
-        <v>-511700</v>
+        <v>-494500</v>
       </c>
       <c r="H101" s="3">
-        <v>1144900</v>
+        <v>1106500</v>
       </c>
       <c r="I101" s="3">
-        <v>-644900</v>
+        <v>-623300</v>
       </c>
       <c r="J101" s="3">
-        <v>-72500</v>
+        <v>-70100</v>
       </c>
       <c r="K101" s="3">
         <v>-731900</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>221000</v>
+        <v>213600</v>
       </c>
       <c r="E102" s="3">
-        <v>-6726700</v>
+        <v>-6501500</v>
       </c>
       <c r="F102" s="3">
-        <v>73601100</v>
+        <v>71137000</v>
       </c>
       <c r="G102" s="3">
-        <v>20450900</v>
+        <v>19766300</v>
       </c>
       <c r="H102" s="3">
-        <v>35297000</v>
+        <v>34115300</v>
       </c>
       <c r="I102" s="3">
-        <v>37817400</v>
+        <v>36551300</v>
       </c>
       <c r="J102" s="3">
-        <v>33811300</v>
+        <v>32679300</v>
       </c>
       <c r="K102" s="3">
         <v>29092200</v>
